--- a/gd/副本系统/副本入口设计.xlsx
+++ b/gd/副本系统/副本入口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="提示信息" sheetId="9" r:id="rId9"/>
     <sheet name="美术需求" sheetId="10" r:id="rId10"/>
     <sheet name="程序、美术拆分任务" sheetId="13" r:id="rId11"/>
-    <sheet name="自用" sheetId="11" r:id="rId12"/>
-    <sheet name="好友助战" sheetId="12" r:id="rId13"/>
+    <sheet name="策划验收" sheetId="14" r:id="rId12"/>
+    <sheet name="自用" sheetId="11" r:id="rId13"/>
+    <sheet name="好友助战" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="此界面需要保留接口_当其他活动需要用到此界面时_可以直接调用_说明差异处即可">副本信息!$E$30</definedName>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1040">
   <si>
     <t>文档名称</t>
   </si>
@@ -3295,10 +3296,6 @@
     <t>大招</t>
   </si>
   <si>
-    <t>spellcategory</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>技能类型</t>
   </si>
   <si>
@@ -3388,12 +3385,129 @@
     <t>若玩家消耗了已保存阵容上的宠物，则下一次进入副本时被消耗宠物位置置空</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>1.消耗体力&lt;玩家拥有体力时，未置红</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.可挑战次数配置为0时，应不显示可挑战次数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.副本星级显示缺失</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划解决</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次未测试内容</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.扫荡功能（包括扫荡券数量和数量与按钮显示关系）未测试</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.玩家等级不够未测试</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序大大看下</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.道具Icon未添加</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本信息界面</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.怪物Icon未显示边框，等级，品级，boss标示</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容调整</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容调整界面</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>spellcategory</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.界面文字错误</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小怪技能显示多显示了一个spellcategory=10的技能（我猜是这样）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.副本完成后保存阵容未测试</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.boss技能显示：考虑可能需求将不显示的技能单独配置为一个spellcategory或者boss只显示一个骷髅头告知玩家技能</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.宠物技能tips缺失</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未测试玩家拥有5只以上怪物选择情况，不确定是否可以显示7只半宠物在玩家拥有宠物列表和玩家点击上阵第6只宠物时提示与闪烁</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.疲劳值显示未测试</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过看了一下，除了品级显示+几的口，其他的口貌似都有的</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.宠物与怪物Icon未显示边框，等级，品级，boss标示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与好友助战标示，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中时黑色遮罩也木有，选中的箭头我就理解为这个方框啦。。</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加策划验收分页</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3613,8 +3727,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3684,6 +3805,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3777,7 +3904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4022,6 +4149,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13573,13 +13701,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -13592,8 +13720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7896225" y="4181475"/>
-          <a:ext cx="4981575" cy="1238250"/>
+          <a:off x="7896224" y="4181475"/>
+          <a:ext cx="4943475" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13732,14 +13860,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -13752,7 +13880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13068300" y="4162425"/>
+          <a:off x="12934950" y="4162425"/>
           <a:ext cx="1514475" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13783,9 +13911,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -13802,8 +13930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14592300" y="4733925"/>
-          <a:ext cx="2028825" cy="819150"/>
+          <a:off x="14458950" y="4724400"/>
+          <a:ext cx="1466850" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18623,16 +18751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18656,7 +18784,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12611100" y="4248150"/>
+          <a:off x="12611100" y="4238625"/>
           <a:ext cx="190500" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -35385,6 +35513,277 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>153850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="782500"/>
+          <a:ext cx="752350" cy="293775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="4267200"/>
+          <a:ext cx="1028571" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104668</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="342900"/>
+          <a:ext cx="857143" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580969</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>199973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="1247775"/>
+          <a:ext cx="447619" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438276" y="5986107"/>
+          <a:ext cx="781050" cy="326409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142781</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="1799380"/>
+          <a:ext cx="438056" cy="410331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241227</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847724" y="2343537"/>
+          <a:ext cx="2136703" cy="656838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -35454,7 +35853,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -38375,10 +38774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -39004,29 +39403,46 @@
       <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>49</v>
-      </c>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="77">
+        <v>42196</v>
+      </c>
+      <c r="D38" s="75"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="75"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74" t="s">
-        <v>50</v>
+        <v>1039</v>
       </c>
       <c r="I38" s="74"/>
       <c r="J38" s="74"/>
       <c r="K38" s="81"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="75"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
@@ -39057,7 +39473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G468"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
+    <sheetView topLeftCell="A205" workbookViewId="0">
       <selection activeCell="H393" sqref="H393"/>
     </sheetView>
   </sheetViews>
@@ -40019,7 +40435,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="B21" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
@@ -40031,7 +40447,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D22" s="107">
         <v>3</v>
@@ -40040,7 +40456,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25">
@@ -40048,7 +40464,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D23" s="107">
         <v>0.5</v>
@@ -40057,7 +40473,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25">
@@ -40065,7 +40481,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D24" s="107">
         <v>0.5</v>
@@ -40074,7 +40490,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25">
@@ -40082,7 +40498,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D25" s="107">
         <v>1</v>
@@ -40091,7 +40507,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25">
@@ -40099,7 +40515,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D26" s="107">
         <v>1</v>
@@ -40108,7 +40524,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25">
@@ -40116,7 +40532,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D27" s="107">
         <v>1</v>
@@ -40125,7 +40541,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25">
@@ -40133,7 +40549,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D28" s="107">
         <v>0.5</v>
@@ -40142,7 +40558,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25">
@@ -40150,7 +40566,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D29" s="107">
         <v>0.5</v>
@@ -40159,7 +40575,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25">
@@ -40167,7 +40583,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D30" s="107">
         <v>1</v>
@@ -40176,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25">
@@ -40184,7 +40600,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D31" s="107">
         <v>0.5</v>
@@ -40193,7 +40609,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25">
@@ -40201,7 +40617,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D32" s="107">
         <v>2</v>
@@ -40210,7 +40626,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25">
@@ -40218,7 +40634,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D33" s="107">
         <v>0.5</v>
@@ -40227,7 +40643,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25">
@@ -40235,7 +40651,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D34" s="107">
         <v>1</v>
@@ -40244,7 +40660,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25">
@@ -40252,7 +40668,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D35" s="109">
         <v>3</v>
@@ -40261,7 +40677,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18">
@@ -40283,6 +40699,153 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="114" customFormat="1"/>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="114" customFormat="1"/>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -40299,7 +40862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="55"/>
@@ -42667,7 +43230,7 @@
   <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -44293,7 +44856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y329"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="E147" sqref="E147:Y308"/>
     </sheetView>
   </sheetViews>
@@ -53141,8 +53704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F160" workbookViewId="0">
-      <selection activeCell="N168" sqref="N168"/>
+    <sheetView topLeftCell="F157" workbookViewId="0">
+      <selection activeCell="M179" sqref="M179:AA180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -54176,16 +54739,16 @@
     <row r="103" spans="1:23">
       <c r="A103" s="15"/>
       <c r="K103" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="15"/>
       <c r="K104" s="112" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L104" s="112" t="s">
         <v>994</v>
-      </c>
-      <c r="L104" s="112" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -54255,7 +54818,7 @@
         <v>415</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L112" s="4"/>
     </row>
@@ -54264,7 +54827,7 @@
         <v>416</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="S113" s="20"/>
     </row>
@@ -55151,7 +55714,7 @@
     <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="I166" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -55163,7 +55726,7 @@
     <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="I167" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -60756,7 +61319,7 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K11" sqref="K11:U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>

--- a/gd/副本系统/副本入口设计.xlsx
+++ b/gd/副本系统/副本入口设计.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370"/>
   </bookViews>
@@ -38,11 +33,14 @@
     <definedName name="扫荡奖励展示">扫荡相关!$I$178:$Q$193</definedName>
     <definedName name="扫荡相关规则">扫荡相关!$D$2:$J$10</definedName>
     <definedName name="通关后按照星级显示星的数量_未达到的星显示为空星_达到的星显示为实星">副本选择!$I$85:$I$86</definedName>
+    <definedName name="玩家宠物">宠物Icon规范!$E$10:$F$13</definedName>
     <definedName name="未开启的副本显示">副本选择!$G$55:$G$57</definedName>
     <definedName name="章节数开启规则">副本选择!$E$100:$F$102</definedName>
     <definedName name="重置失败提示确认框">副本信息!$H$182:$Y$209</definedName>
+    <definedName name="最少可显示40个汉字_英文字母数量待定">副本信息!$G$94</definedName>
+    <definedName name="最少可显示6个汉字_英文字母待定">副本信息!$E$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -52,7 +50,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="S4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0" shapeId="0">
+    <comment ref="Y4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1048">
   <si>
     <t>文档名称</t>
   </si>
@@ -869,9 +867,6 @@
   </si>
   <si>
     <t>显示当前副本描述的文案内容</t>
-  </si>
-  <si>
-    <t>最多显示40个汉字</t>
   </si>
   <si>
     <t>敌方阵容</t>
@@ -3502,12 +3497,48 @@
     <t>添加策划验收分页</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>最少可显示40个汉字，英文字母数量待定</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少可显示6个汉字，英文字母待定</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改副本信息界面副本名称字数限制规则</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改副本信息界面副本信息的字数限制规则</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>（等待副本评价规则出来之后统一做）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家宠物</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方阵容宠物</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>与副本入口等级一致</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方阵容等级规则补充</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3734,6 +3765,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -3904,7 +3942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4150,6 +4188,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4174,6 +4216,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
   </colors>
@@ -11830,7 +11873,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11966,7 +12009,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12102,7 +12145,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12238,7 +12281,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12374,7 +12417,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12510,7 +12553,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12646,7 +12689,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12782,7 +12825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13122,7 +13165,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13190,7 +13233,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13258,7 +13301,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20602,13 +20645,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20670,13 +20713,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -20688,7 +20731,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3067050" y="4248150"/>
+          <a:off x="3067050" y="5086350"/>
           <a:ext cx="390525" cy="352425"/>
           <a:chOff x="2409825" y="8915400"/>
           <a:chExt cx="396712" cy="356316"/>
@@ -20806,13 +20849,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20880,13 +20923,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20948,13 +20991,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -20966,7 +21009,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3124200" y="5257800"/>
+          <a:off x="3124200" y="6096000"/>
           <a:ext cx="390525" cy="352425"/>
           <a:chOff x="2409825" y="8915400"/>
           <a:chExt cx="396712" cy="356316"/>
@@ -21084,13 +21127,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21158,13 +21201,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -37052,7 +37095,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37120,7 +37163,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37238,7 +37281,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37306,7 +37349,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37448,7 +37491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37516,7 +37559,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37584,7 +37627,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37652,7 +37695,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37720,7 +37763,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37788,7 +37831,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37906,7 +37949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -37974,7 +38017,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -38116,7 +38159,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -38184,7 +38227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -38302,7 +38345,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -38774,10 +38817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -39319,7 +39362,7 @@
         <v>42</v>
       </c>
       <c r="H32" s="78" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I32" s="83"/>
       <c r="J32" s="83"/>
@@ -39336,7 +39379,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="78" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -39351,7 +39394,7 @@
       <c r="F34" s="75"/>
       <c r="G34" s="74"/>
       <c r="H34" s="78" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="74"/>
@@ -39366,7 +39409,7 @@
       <c r="F35" s="75"/>
       <c r="G35" s="74"/>
       <c r="H35" s="78" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I35" s="74"/>
       <c r="J35" s="74"/>
@@ -39381,7 +39424,7 @@
       <c r="F36" s="75"/>
       <c r="G36" s="74"/>
       <c r="H36" s="78" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I36" s="74"/>
       <c r="J36" s="74"/>
@@ -39396,7 +39439,7 @@
       <c r="F37" s="75"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I37" s="74"/>
       <c r="J37" s="74"/>
@@ -39413,36 +39456,159 @@
       <c r="F38" s="75"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I38" s="74"/>
       <c r="J38" s="74"/>
       <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>49</v>
-      </c>
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="75"/>
       <c r="G39" s="74"/>
-      <c r="H39" s="74" t="s">
-        <v>50</v>
+      <c r="H39" s="78" t="s">
+        <v>1041</v>
       </c>
       <c r="I39" s="74"/>
       <c r="J39" s="74"/>
       <c r="K39" s="81"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="81"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="78" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="81"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="81"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="81"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="81"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="81"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="81"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="81"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="75"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
@@ -39463,6 +39629,9 @@
     <hyperlink ref="H34" location="扫荡相关!E5" display="扫荡规则补充"/>
     <hyperlink ref="H35" location="扫荡相关!F32" display="扫荡券显示规则修改"/>
     <hyperlink ref="H36" location="配置结构!L3" display="配置结构拆分敌方阵容为6列"/>
+    <hyperlink ref="H39" location="最少可显示6个汉字_英文字母待定" display="修改副本信息界面副本名称字数限制规则"/>
+    <hyperlink ref="H40" location="最少可显示40个汉字_英文字母数量待定" display="修改副本信息界面副本信息的字数限制规则"/>
+    <hyperlink ref="H41" location="敌方阵容" display="敌方阵容等级规则补充"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -39473,8 +39642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G468"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="H393" sqref="H393"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="L286" sqref="L286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -39484,27 +39653,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="C28" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -39512,92 +39681,92 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="C66" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="C79" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="C138" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="19" customFormat="1">
       <c r="A154" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="19" customFormat="1">
       <c r="B155" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="19" customFormat="1">
       <c r="C156" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="19" customFormat="1"/>
@@ -39625,12 +39794,12 @@
     <row r="179" spans="2:3" s="19" customFormat="1"/>
     <row r="180" spans="2:3" s="19" customFormat="1">
       <c r="B180" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="181" spans="2:3" s="19" customFormat="1">
       <c r="C181" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="182" spans="2:3" s="19" customFormat="1"/>
@@ -39654,12 +39823,12 @@
     <row r="200" spans="2:3" s="19" customFormat="1"/>
     <row r="201" spans="2:3" s="19" customFormat="1">
       <c r="B201" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="202" spans="2:3" s="19" customFormat="1">
       <c r="C202" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="203" spans="2:3" s="19" customFormat="1"/>
@@ -39678,12 +39847,12 @@
     <row r="216" spans="2:3" s="19" customFormat="1"/>
     <row r="217" spans="2:3" s="19" customFormat="1">
       <c r="B217" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="218" spans="2:3" s="19" customFormat="1">
       <c r="C218" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="219" spans="2:3" s="19" customFormat="1"/>
@@ -39696,7 +39865,7 @@
     <row r="226" spans="1:3" s="19" customFormat="1"/>
     <row r="227" spans="1:3" s="19" customFormat="1">
       <c r="B227" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="19" customFormat="1"/>
@@ -39705,17 +39874,17 @@
     <row r="231" spans="1:3" s="20" customFormat="1"/>
     <row r="232" spans="1:3" s="20" customFormat="1">
       <c r="A232" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:3" s="20" customFormat="1">
       <c r="B233" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="20" customFormat="1">
       <c r="C234" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="235" spans="1:3" s="20" customFormat="1"/>
@@ -39743,12 +39912,12 @@
     <row r="257" spans="2:3" s="20" customFormat="1"/>
     <row r="258" spans="2:3" s="20" customFormat="1">
       <c r="B258" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="259" spans="2:3" s="20" customFormat="1">
       <c r="C259" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="260" spans="2:3" s="20" customFormat="1"/>
@@ -39765,12 +39934,12 @@
     <row r="271" spans="2:3" s="20" customFormat="1"/>
     <row r="272" spans="2:3" s="20" customFormat="1">
       <c r="B272" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="273" spans="2:3" s="20" customFormat="1">
       <c r="C273" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="274" spans="2:3" s="20" customFormat="1"/>
@@ -39783,7 +39952,7 @@
     <row r="281" spans="2:3" s="20" customFormat="1"/>
     <row r="282" spans="2:3" s="20" customFormat="1">
       <c r="B282" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="283" spans="2:3" s="20" customFormat="1"/>
@@ -39795,7 +39964,7 @@
     <row r="289" spans="2:7" s="20" customFormat="1"/>
     <row r="290" spans="2:7" s="20" customFormat="1">
       <c r="B290" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -39805,7 +39974,7 @@
     </row>
     <row r="291" spans="2:7" s="91" customFormat="1">
       <c r="C291" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="292" spans="2:7" s="91" customFormat="1"/>
@@ -39847,12 +40016,12 @@
     <row r="328" spans="2:3" s="91" customFormat="1"/>
     <row r="329" spans="2:3" s="20" customFormat="1">
       <c r="B329" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="330" spans="2:3" s="20" customFormat="1">
       <c r="C330" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="331" spans="2:3" s="20" customFormat="1"/>
@@ -39867,37 +40036,37 @@
     <row r="340" spans="1:3" s="20" customFormat="1"/>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="B342" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="C343" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="368" spans="2:2">
       <c r="B368" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="391" spans="2:3" s="91" customFormat="1">
       <c r="B391" s="91" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="392" spans="2:3" s="91" customFormat="1">
       <c r="C392" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="393" spans="2:3" s="91" customFormat="1"/>
@@ -39912,12 +40081,12 @@
     <row r="402" spans="2:3" s="91" customFormat="1"/>
     <row r="403" spans="2:3" s="91" customFormat="1">
       <c r="B403" s="91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="404" spans="2:3" s="91" customFormat="1">
       <c r="C404" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="405" spans="2:3" s="91" customFormat="1"/>
@@ -39931,12 +40100,12 @@
     <row r="413" spans="2:3" s="91" customFormat="1"/>
     <row r="414" spans="2:3" s="91" customFormat="1">
       <c r="B414" s="91" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="415" spans="2:3" s="91" customFormat="1">
       <c r="C415" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="416" spans="2:3" s="91" customFormat="1"/>
@@ -39951,12 +40120,12 @@
     <row r="425" spans="2:3" s="91" customFormat="1"/>
     <row r="426" spans="2:3" s="91" customFormat="1">
       <c r="B426" s="91" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="427" spans="2:3" s="91" customFormat="1">
       <c r="C427" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="428" spans="2:3" s="91" customFormat="1"/>
@@ -39970,12 +40139,12 @@
     <row r="436" spans="2:3" s="91" customFormat="1"/>
     <row r="437" spans="2:3" s="91" customFormat="1">
       <c r="B437" s="91" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="438" spans="2:3" s="91" customFormat="1">
       <c r="C438" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="439" spans="2:3" s="91" customFormat="1"/>
@@ -39988,12 +40157,12 @@
     <row r="446" spans="2:3" s="91" customFormat="1"/>
     <row r="447" spans="2:3" s="91" customFormat="1">
       <c r="B447" s="91" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="448" spans="2:3" s="91" customFormat="1">
       <c r="C448" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="449" spans="2:3" s="91" customFormat="1"/>
@@ -40008,12 +40177,12 @@
     <row r="458" spans="2:3" s="91" customFormat="1"/>
     <row r="459" spans="2:3" s="91" customFormat="1">
       <c r="B459" s="91" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="460" spans="2:3" s="91" customFormat="1">
       <c r="C460" s="91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="461" spans="2:3" s="91" customFormat="1"/>
@@ -40048,10 +40217,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" s="106" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>948</v>
-      </c>
-      <c r="B1" s="107" t="s">
-        <v>949</v>
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
@@ -40059,13 +40228,13 @@
       <c r="F1" s="107"/>
       <c r="G1" s="107"/>
       <c r="K1" s="110" t="s">
+        <v>981</v>
+      </c>
+      <c r="L1" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>982</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>981</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
@@ -40074,7 +40243,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D2" s="107">
         <v>1</v>
@@ -40083,7 +40252,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G2" s="107"/>
       <c r="K2" s="111"/>
@@ -40100,7 +40269,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D3" s="107">
         <v>3</v>
@@ -40109,10 +40278,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K3" s="111"/>
       <c r="L3" s="111">
@@ -40128,7 +40297,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D4" s="107">
         <v>3</v>
@@ -40137,10 +40306,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K4" s="111"/>
       <c r="L4" s="111">
@@ -40156,7 +40325,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D5" s="107">
         <v>0.5</v>
@@ -40165,14 +40334,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K5" s="111"/>
       <c r="L5" s="111" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M5" s="111">
         <v>0.5</v>
@@ -40184,7 +40353,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D6" s="107">
         <v>0.5</v>
@@ -40193,10 +40362,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K6" s="111"/>
       <c r="L6" s="111"/>
@@ -40208,7 +40377,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D7" s="107">
         <v>1</v>
@@ -40217,17 +40386,17 @@
         <v>1</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18">
       <c r="A8" s="106"/>
       <c r="B8" s="107"/>
       <c r="C8" s="108" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D8" s="106">
         <f>SUM(D2:D7)</f>
@@ -40249,7 +40418,7 @@
     <row r="10" spans="1:13" ht="18">
       <c r="A10" s="106"/>
       <c r="B10" s="107" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C10" s="107"/>
       <c r="D10" s="107"/>
@@ -40263,7 +40432,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D11" s="107">
         <v>2</v>
@@ -40272,10 +40441,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="107" t="s">
+        <v>964</v>
+      </c>
+      <c r="G11" s="107" t="s">
         <v>965</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
@@ -40284,7 +40453,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D12" s="107">
         <v>2</v>
@@ -40293,10 +40462,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18">
@@ -40305,7 +40474,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D13" s="107">
         <v>0.5</v>
@@ -40314,10 +40483,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18">
@@ -40326,7 +40495,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D14" s="109">
         <v>1.5</v>
@@ -40335,10 +40504,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18">
@@ -40347,7 +40516,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D15" s="109">
         <v>1.5</v>
@@ -40356,10 +40525,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18">
@@ -40368,17 +40537,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D16" s="109"/>
       <c r="E16" s="109">
         <v>2</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
@@ -40387,17 +40556,17 @@
         <v>7</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="109">
         <v>2</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18">
@@ -40406,24 +40575,24 @@
         <v>8</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D18" s="109"/>
       <c r="E18" s="109">
         <v>2</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
       <c r="A19" s="106"/>
       <c r="B19" s="107"/>
       <c r="C19" s="108" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D19" s="106">
         <f>SUM(D11:D18)</f>
@@ -40435,7 +40604,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="B21" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
@@ -40447,7 +40616,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D22" s="107">
         <v>3</v>
@@ -40456,7 +40625,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25">
@@ -40464,7 +40633,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D23" s="107">
         <v>0.5</v>
@@ -40473,7 +40642,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25">
@@ -40481,7 +40650,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D24" s="107">
         <v>0.5</v>
@@ -40490,7 +40659,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25">
@@ -40498,7 +40667,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D25" s="107">
         <v>1</v>
@@ -40507,7 +40676,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25">
@@ -40515,7 +40684,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D26" s="107">
         <v>1</v>
@@ -40524,7 +40693,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25">
@@ -40532,7 +40701,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D27" s="107">
         <v>1</v>
@@ -40541,7 +40710,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25">
@@ -40549,7 +40718,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D28" s="107">
         <v>0.5</v>
@@ -40558,7 +40727,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25">
@@ -40566,7 +40735,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D29" s="107">
         <v>0.5</v>
@@ -40575,7 +40744,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25">
@@ -40583,7 +40752,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D30" s="107">
         <v>1</v>
@@ -40592,7 +40761,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25">
@@ -40600,7 +40769,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D31" s="107">
         <v>0.5</v>
@@ -40609,7 +40778,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25">
@@ -40617,7 +40786,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D32" s="107">
         <v>2</v>
@@ -40626,7 +40795,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25">
@@ -40634,7 +40803,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D33" s="107">
         <v>0.5</v>
@@ -40643,7 +40812,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25">
@@ -40651,7 +40820,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D34" s="107">
         <v>1</v>
@@ -40660,7 +40829,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25">
@@ -40668,7 +40837,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D35" s="109">
         <v>3</v>
@@ -40677,13 +40846,13 @@
         <v>2</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18">
       <c r="B36" s="107"/>
       <c r="C36" s="108" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D36" s="106">
         <f>SUM(D22:D35)</f>
@@ -40700,10 +40869,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -40713,129 +40882,132 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="114" customFormat="1"/>
-    <row r="20" spans="1:1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="114" customFormat="1"/>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="114" customFormat="1"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="114" customFormat="1"/>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>1017</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -40869,8 +41041,8 @@
   </sheetPr>
   <dimension ref="A1:Y143"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P114" sqref="P114"/>
+    <sheetView topLeftCell="B121" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -40882,7 +41054,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="21">
       <c r="C1" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -40890,7 +41062,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -40942,14 +41114,14 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -41042,7 +41214,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -41059,7 +41231,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -41078,7 +41250,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -41096,7 +41268,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -41203,7 +41375,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -41222,7 +41394,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -41236,14 +41408,14 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -41257,14 +41429,14 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -41282,7 +41454,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -41300,7 +41472,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -41314,14 +41486,14 @@
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -41335,7 +41507,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -41358,7 +41530,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -41404,7 +41576,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="6"/>
@@ -41438,7 +41610,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -41512,7 +41684,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -41533,7 +41705,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -41560,7 +41732,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -41591,7 +41763,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -41610,7 +41782,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -41624,14 +41796,14 @@
     </row>
     <row r="61" spans="1:16" ht="33">
       <c r="A61" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -41645,17 +41817,17 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>870</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>871</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -41669,7 +41841,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="B63" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -41677,7 +41849,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -41690,7 +41862,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="B64" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -41699,7 +41871,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -41711,7 +41883,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="B65" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -41719,7 +41891,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -41737,7 +41909,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -41753,7 +41925,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -41766,7 +41938,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="B68" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -41775,7 +41947,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -41786,7 +41958,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="B69" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -41794,7 +41966,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -41806,7 +41978,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="B70" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -41814,7 +41986,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -41825,17 +41997,17 @@
     </row>
     <row r="71" spans="1:18" ht="33">
       <c r="A71" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>887</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -41847,7 +42019,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -41855,7 +42027,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -41866,13 +42038,13 @@
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -41885,16 +42057,16 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>892</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>893</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -41908,7 +42080,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -41929,7 +42101,7 @@
       <c r="D76" s="3"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -41947,7 +42119,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -41960,7 +42132,7 @@
     </row>
     <row r="78" spans="1:18" ht="33">
       <c r="B78" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -41969,7 +42141,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -41981,10 +42153,10 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -41992,7 +42164,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -42004,13 +42176,13 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>898</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>899</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
@@ -42018,7 +42190,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -42030,10 +42202,10 @@
     <row r="81" spans="1:15">
       <c r="A81" s="5"/>
       <c r="B81" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
@@ -42041,7 +42213,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -42057,7 +42229,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -42074,7 +42246,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -42100,66 +42272,66 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="G85" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="H86" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="H87" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="66">
       <c r="B88" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>903</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>904</v>
       </c>
       <c r="D88" s="3"/>
       <c r="H88" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="B90" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="H90" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="H91" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -42176,14 +42348,14 @@
     </row>
     <row r="95" spans="1:15">
       <c r="B95" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:15">
       <c r="B96" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -42246,7 +42418,7 @@
       <c r="H108" s="6"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="6"/>
@@ -42293,7 +42465,7 @@
     </row>
     <row r="110" spans="2:25">
       <c r="B110" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="7"/>
@@ -42303,7 +42475,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="9"/>
       <c r="J110" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="6"/>
@@ -42323,7 +42495,7 @@
     </row>
     <row r="111" spans="2:25">
       <c r="B111" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="7"/>
@@ -42417,7 +42589,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -42428,7 +42600,7 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S114" s="9"/>
       <c r="T114" s="9"/>
@@ -42487,7 +42659,7 @@
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
@@ -42500,7 +42672,7 @@
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y116" s="9"/>
     </row>
@@ -42547,7 +42719,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
@@ -42560,7 +42732,7 @@
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
       <c r="T118" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
@@ -42748,7 +42920,7 @@
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
       <c r="T124" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
@@ -42786,7 +42958,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -42901,7 +43073,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -42966,7 +43138,7 @@
         <v>174</v>
       </c>
       <c r="M132" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -42996,7 +43168,7 @@
         <v>176</v>
       </c>
       <c r="M133" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
@@ -43069,7 +43241,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -43115,11 +43287,11 @@
     </row>
     <row r="138" spans="2:25">
       <c r="B138" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -43144,12 +43316,12 @@
     </row>
     <row r="139" spans="2:25">
       <c r="B139" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -43174,7 +43346,7 @@
     <row r="140" spans="2:25">
       <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -43186,7 +43358,7 @@
     <row r="141" spans="2:25">
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -43198,7 +43370,7 @@
     <row r="142" spans="2:25">
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -43229,8 +43401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -44856,8 +45028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y329"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147:Y308"/>
+    <sheetView topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -45960,8 +46132,8 @@
       <c r="A62" s="6"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="6" t="s">
-        <v>126</v>
+      <c r="E62" s="115" t="s">
+        <v>1040</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -46830,8 +47002,8 @@
       <c r="D94" s="7"/>
       <c r="E94" s="6"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="6" t="s">
-        <v>237</v>
+      <c r="G94" s="115" t="s">
+        <v>1039</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
@@ -46857,7 +47029,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -46881,14 +47053,14 @@
     <row r="96" spans="1:24">
       <c r="A96" s="6"/>
       <c r="B96" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -46910,17 +47082,17 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
@@ -46942,17 +47114,17 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
@@ -46975,7 +47147,7 @@
     <row r="99" spans="1:24">
       <c r="A99" s="6"/>
       <c r="B99" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -47160,7 +47332,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="57"/>
       <c r="H106" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I106" s="57"/>
       <c r="J106" s="57"/>
@@ -47187,7 +47359,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="57"/>
       <c r="H107" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I107" s="57"/>
       <c r="J107" s="57"/>
@@ -47209,7 +47381,7 @@
     <row r="108" spans="1:24">
       <c r="A108" s="6"/>
       <c r="B108" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -47218,7 +47390,7 @@
       <c r="G108" s="57"/>
       <c r="H108" s="57"/>
       <c r="I108" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J108" s="57"/>
       <c r="K108" s="57"/>
@@ -47239,7 +47411,7 @@
     <row r="109" spans="1:24">
       <c r="A109" s="6"/>
       <c r="B109" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -47247,7 +47419,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="57"/>
       <c r="H109" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I109" s="57"/>
       <c r="J109" s="57"/>
@@ -47269,7 +47441,7 @@
     <row r="110" spans="1:24">
       <c r="A110" s="6"/>
       <c r="B110" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -47278,7 +47450,7 @@
       <c r="G110" s="57"/>
       <c r="H110" s="57"/>
       <c r="I110" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J110" s="57"/>
       <c r="K110" s="57"/>
@@ -47326,18 +47498,18 @@
     <row r="112" spans="1:24">
       <c r="A112" s="6"/>
       <c r="B112" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="7"/>
       <c r="G112" s="57"/>
       <c r="H112" s="67"/>
       <c r="I112" s="67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J112" s="67"/>
       <c r="K112" s="57"/>
@@ -47358,7 +47530,7 @@
     <row r="113" spans="1:24">
       <c r="A113" s="6"/>
       <c r="B113" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -47366,7 +47538,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="57"/>
       <c r="H113" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I113" s="57"/>
       <c r="J113" s="57"/>
@@ -47388,7 +47560,7 @@
     <row r="114" spans="1:24">
       <c r="A114" s="6"/>
       <c r="B114" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -47397,7 +47569,7 @@
       <c r="G114" s="57"/>
       <c r="H114" s="57"/>
       <c r="I114" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J114" s="57"/>
       <c r="K114" s="57"/>
@@ -47418,7 +47590,7 @@
     <row r="115" spans="1:24">
       <c r="A115" s="6"/>
       <c r="B115" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -47426,7 +47598,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="57"/>
       <c r="H115" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I115" s="57"/>
       <c r="J115" s="57"/>
@@ -47454,7 +47626,7 @@
       <c r="G116" s="57"/>
       <c r="H116" s="57"/>
       <c r="I116" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J116" s="57"/>
       <c r="K116" s="57"/>
@@ -47526,7 +47698,7 @@
       <c r="A119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -47554,7 +47726,7 @@
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -47582,7 +47754,7 @@
       <c r="D121" s="7"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -47610,7 +47782,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
@@ -47633,13 +47805,13 @@
     <row r="123" spans="1:24" s="41" customFormat="1">
       <c r="A123" s="6"/>
       <c r="B123" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="6"/>
       <c r="F123" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
@@ -47662,13 +47834,13 @@
     <row r="124" spans="1:24" s="41" customFormat="1">
       <c r="A124" s="6"/>
       <c r="B124" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="6"/>
       <c r="G124" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
@@ -47693,7 +47865,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -47720,7 +47892,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
@@ -47747,7 +47919,7 @@
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
@@ -47770,14 +47942,14 @@
     <row r="128" spans="1:24">
       <c r="A128" s="6"/>
       <c r="B128" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
@@ -47800,7 +47972,7 @@
     <row r="129" spans="1:24">
       <c r="A129" s="6"/>
       <c r="B129" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -47829,7 +48001,7 @@
       <c r="A130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -47857,7 +48029,7 @@
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F131" s="39"/>
       <c r="G131" s="39"/>
@@ -47882,12 +48054,12 @@
     <row r="132" spans="1:24">
       <c r="A132" s="6"/>
       <c r="B132" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="39" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
@@ -47912,12 +48084,12 @@
     <row r="133" spans="1:24">
       <c r="A133" s="6"/>
       <c r="B133" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="89" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F133" s="89"/>
       <c r="G133" s="89"/>
@@ -47946,7 +48118,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="89"/>
       <c r="F134" s="89" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G134" s="89"/>
       <c r="H134" s="89"/>
@@ -47971,7 +48143,7 @@
       <c r="A135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -48035,7 +48207,7 @@
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K137" s="9"/>
       <c r="L137" s="6"/>
@@ -48087,7 +48259,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -48257,7 +48429,7 @@
       <c r="D145" s="7"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -48305,12 +48477,12 @@
     </row>
     <row r="147" spans="1:25" ht="33">
       <c r="A147" s="65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F147" s="93"/>
       <c r="G147" s="93"/>
@@ -48335,7 +48507,7 @@
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -48366,7 +48538,7 @@
     <row r="149" spans="1:25">
       <c r="A149" s="6"/>
       <c r="B149" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -48395,7 +48567,7 @@
     <row r="150" spans="1:25">
       <c r="A150" s="6"/>
       <c r="B150" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -48612,7 +48784,7 @@
       <c r="E158" s="93"/>
       <c r="F158" s="96"/>
       <c r="G158" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H158" s="96"/>
       <c r="I158" s="93"/>
@@ -48664,14 +48836,14 @@
     <row r="160" spans="1:25">
       <c r="A160" s="6"/>
       <c r="B160" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="93"/>
       <c r="F160" s="96"/>
       <c r="G160" s="95" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H160" s="96"/>
       <c r="I160" s="93"/>
@@ -48695,7 +48867,7 @@
     <row r="161" spans="1:25">
       <c r="A161" s="6"/>
       <c r="B161" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -48789,7 +48961,7 @@
       <c r="D164" s="7"/>
       <c r="E164" s="93"/>
       <c r="F164" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G164" s="96"/>
       <c r="H164" s="96"/>
@@ -48800,7 +48972,7 @@
       <c r="M164" s="93"/>
       <c r="N164" s="93"/>
       <c r="O164" s="96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P164" s="96"/>
       <c r="Q164" s="96"/>
@@ -48861,7 +49033,7 @@
       <c r="J166" s="96"/>
       <c r="K166" s="96"/>
       <c r="L166" s="96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M166" s="93"/>
       <c r="N166" s="93"/>
@@ -48874,7 +49046,7 @@
       <c r="S166" s="96"/>
       <c r="T166" s="96"/>
       <c r="U166" s="96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V166" s="96"/>
       <c r="W166" s="93"/>
@@ -48923,7 +49095,7 @@
       <c r="F168" s="96"/>
       <c r="G168" s="96"/>
       <c r="H168" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I168" s="96"/>
       <c r="J168" s="96"/>
@@ -48936,7 +49108,7 @@
       <c r="O168" s="96"/>
       <c r="P168" s="96"/>
       <c r="Q168" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R168" s="96"/>
       <c r="S168" s="96"/>
@@ -49130,7 +49302,7 @@
       <c r="O174" s="96"/>
       <c r="P174" s="96"/>
       <c r="Q174" s="96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R174" s="96"/>
       <c r="S174" s="96"/>
@@ -49169,14 +49341,14 @@
     </row>
     <row r="176" spans="1:25" ht="33">
       <c r="A176" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="93"/>
       <c r="F176" s="93"/>
       <c r="G176" s="93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H176" s="93"/>
       <c r="I176" s="93"/>
@@ -49199,7 +49371,7 @@
     </row>
     <row r="177" spans="1:25">
       <c r="A177" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -49207,14 +49379,14 @@
       <c r="F177" s="93"/>
       <c r="G177" s="93"/>
       <c r="H177" s="93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I177" s="93"/>
       <c r="J177" s="93"/>
       <c r="K177" s="93"/>
       <c r="L177" s="93"/>
       <c r="M177" s="100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N177" s="93"/>
       <c r="O177" s="93"/>
@@ -49235,7 +49407,7 @@
       <c r="E178" s="93"/>
       <c r="F178" s="93"/>
       <c r="G178" s="93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H178" s="93"/>
       <c r="I178" s="93"/>
@@ -49264,12 +49436,12 @@
       <c r="F179" s="93"/>
       <c r="G179" s="93"/>
       <c r="H179" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I179" s="93"/>
       <c r="J179" s="93"/>
       <c r="K179" s="100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L179" s="93"/>
       <c r="M179" s="93"/>
@@ -49293,7 +49465,7 @@
       <c r="E180" s="93"/>
       <c r="F180" s="93"/>
       <c r="G180" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H180" s="93"/>
       <c r="I180" s="93"/>
@@ -49348,7 +49520,7 @@
       <c r="F182" s="93"/>
       <c r="G182" s="93"/>
       <c r="H182" s="93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I182" s="93"/>
       <c r="J182" s="93"/>
@@ -49613,7 +49785,7 @@
       <c r="G192" s="93"/>
       <c r="H192" s="96"/>
       <c r="I192" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J192" s="96"/>
       <c r="K192" s="93"/>
@@ -49663,7 +49835,7 @@
     <row r="194" spans="1:25">
       <c r="A194" s="6"/>
       <c r="B194" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
@@ -49672,7 +49844,7 @@
       <c r="G194" s="93"/>
       <c r="H194" s="96"/>
       <c r="I194" s="95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J194" s="96"/>
       <c r="K194" s="93"/>
@@ -49790,7 +49962,7 @@
       <c r="F198" s="93"/>
       <c r="G198" s="93"/>
       <c r="H198" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I198" s="96"/>
       <c r="J198" s="96"/>
@@ -49801,7 +49973,7 @@
       <c r="O198" s="93"/>
       <c r="P198" s="93"/>
       <c r="Q198" s="96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R198" s="96"/>
       <c r="S198" s="96"/>
@@ -49862,7 +50034,7 @@
       <c r="L200" s="96"/>
       <c r="M200" s="96"/>
       <c r="N200" s="96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O200" s="93"/>
       <c r="P200" s="93"/>
@@ -49875,7 +50047,7 @@
       <c r="U200" s="96"/>
       <c r="V200" s="96"/>
       <c r="W200" s="97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X200" s="96"/>
       <c r="Y200" s="91"/>
@@ -49924,7 +50096,7 @@
       <c r="H202" s="96"/>
       <c r="I202" s="96"/>
       <c r="J202" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K202" s="96"/>
       <c r="L202" s="96"/>
@@ -49937,7 +50109,7 @@
       <c r="Q202" s="96"/>
       <c r="R202" s="96"/>
       <c r="S202" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T202" s="96"/>
       <c r="U202" s="96"/>
@@ -50113,7 +50285,7 @@
     <row r="208" spans="1:25">
       <c r="A208" s="6"/>
       <c r="B208" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -50134,7 +50306,7 @@
       <c r="Q208" s="96"/>
       <c r="R208" s="96"/>
       <c r="S208" s="96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T208" s="96"/>
       <c r="U208" s="96"/>
@@ -50146,7 +50318,7 @@
     <row r="209" spans="1:25">
       <c r="A209" s="6"/>
       <c r="B209" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
@@ -50180,7 +50352,7 @@
       <c r="F210" s="93"/>
       <c r="G210" s="93"/>
       <c r="H210" s="93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I210" s="93"/>
       <c r="J210" s="93"/>
@@ -50208,7 +50380,7 @@
       <c r="F211" s="93"/>
       <c r="G211" s="93"/>
       <c r="H211" s="93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I211" s="93"/>
       <c r="J211" s="93"/>
@@ -50237,7 +50409,7 @@
       <c r="G212" s="93"/>
       <c r="H212" s="93"/>
       <c r="I212" s="93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J212" s="93"/>
       <c r="K212" s="93"/>
@@ -50258,7 +50430,7 @@
     </row>
     <row r="213" spans="1:25" ht="33">
       <c r="A213" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
@@ -50266,7 +50438,7 @@
       <c r="F213" s="93"/>
       <c r="G213" s="93"/>
       <c r="H213" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I213" s="93"/>
       <c r="J213" s="93"/>
@@ -50288,7 +50460,7 @@
     </row>
     <row r="214" spans="1:25">
       <c r="A214" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
@@ -50297,7 +50469,7 @@
       <c r="G214" s="93"/>
       <c r="H214" s="93"/>
       <c r="I214" s="93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J214" s="93"/>
       <c r="K214" s="93"/>
@@ -50397,7 +50569,7 @@
     <row r="218" spans="1:25">
       <c r="A218" s="6"/>
       <c r="B218" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
@@ -50426,7 +50598,7 @@
     <row r="219" spans="1:25">
       <c r="A219" s="6"/>
       <c r="B219" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
@@ -50541,7 +50713,7 @@
       <c r="G223" s="93"/>
       <c r="H223" s="96"/>
       <c r="I223" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J223" s="96"/>
       <c r="K223" s="93"/>
@@ -50597,7 +50769,7 @@
       <c r="G225" s="93"/>
       <c r="H225" s="96"/>
       <c r="I225" s="95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J225" s="96"/>
       <c r="K225" s="93"/>
@@ -50712,7 +50884,7 @@
       <c r="F229" s="93"/>
       <c r="G229" s="93"/>
       <c r="H229" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I229" s="96"/>
       <c r="J229" s="96"/>
@@ -50723,7 +50895,7 @@
       <c r="O229" s="93"/>
       <c r="P229" s="93"/>
       <c r="Q229" s="96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R229" s="96"/>
       <c r="S229" s="96"/>
@@ -50784,7 +50956,7 @@
       <c r="L231" s="96"/>
       <c r="M231" s="96"/>
       <c r="N231" s="96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O231" s="93"/>
       <c r="P231" s="93"/>
@@ -50797,7 +50969,7 @@
       <c r="U231" s="96"/>
       <c r="V231" s="96"/>
       <c r="W231" s="97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X231" s="96"/>
       <c r="Y231" s="91"/>
@@ -50846,7 +51018,7 @@
       <c r="H233" s="96"/>
       <c r="I233" s="96"/>
       <c r="J233" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K233" s="96"/>
       <c r="L233" s="96"/>
@@ -50859,7 +51031,7 @@
       <c r="Q233" s="96"/>
       <c r="R233" s="96"/>
       <c r="S233" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T233" s="96"/>
       <c r="U233" s="96"/>
@@ -51053,7 +51225,7 @@
       <c r="Q239" s="96"/>
       <c r="R239" s="96"/>
       <c r="S239" s="96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T239" s="96"/>
       <c r="U239" s="96"/>
@@ -51091,14 +51263,14 @@
     <row r="241" spans="1:25">
       <c r="A241" s="6"/>
       <c r="B241" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="93"/>
       <c r="F241" s="93"/>
       <c r="G241" s="93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H241" s="96"/>
       <c r="I241" s="96"/>
@@ -51122,7 +51294,7 @@
     <row r="242" spans="1:25">
       <c r="A242" s="6"/>
       <c r="B242" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
@@ -51130,7 +51302,7 @@
       <c r="F242" s="93"/>
       <c r="G242" s="93"/>
       <c r="H242" s="96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I242" s="96"/>
       <c r="J242" s="96"/>
@@ -51158,7 +51330,7 @@
       <c r="F243" s="93"/>
       <c r="G243" s="93"/>
       <c r="H243" s="96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I243" s="96"/>
       <c r="J243" s="96"/>
@@ -51181,7 +51353,7 @@
     <row r="244" spans="1:25">
       <c r="A244" s="6"/>
       <c r="B244" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
@@ -51189,7 +51361,7 @@
       <c r="F244" s="93"/>
       <c r="G244" s="93"/>
       <c r="H244" s="96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I244" s="96"/>
       <c r="J244" s="96"/>
@@ -51212,7 +51384,7 @@
     <row r="245" spans="1:25">
       <c r="A245" s="6"/>
       <c r="B245" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
@@ -51220,7 +51392,7 @@
       <c r="F245" s="93"/>
       <c r="G245" s="93"/>
       <c r="H245" s="96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I245" s="96"/>
       <c r="J245" s="96"/>
@@ -51268,12 +51440,12 @@
     </row>
     <row r="247" spans="1:25">
       <c r="A247" s="66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F247" s="93"/>
       <c r="G247" s="93"/>
@@ -51434,7 +51606,7 @@
     <row r="253" spans="1:25">
       <c r="A253" s="6"/>
       <c r="B253" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
@@ -51463,7 +51635,7 @@
     <row r="254" spans="1:25">
       <c r="A254" s="6"/>
       <c r="B254" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
@@ -51572,14 +51744,14 @@
     <row r="258" spans="1:25">
       <c r="A258" s="6"/>
       <c r="B258" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="93"/>
       <c r="F258" s="96"/>
       <c r="G258" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H258" s="96"/>
       <c r="I258" s="93"/>
@@ -51603,7 +51775,7 @@
     <row r="259" spans="1:25">
       <c r="A259" s="6"/>
       <c r="B259" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
@@ -51634,14 +51806,14 @@
     <row r="260" spans="1:25" ht="165">
       <c r="A260" s="6"/>
       <c r="B260" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="93"/>
       <c r="F260" s="96"/>
       <c r="G260" s="101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H260" s="96"/>
       <c r="I260" s="93"/>
@@ -51665,7 +51837,7 @@
     <row r="261" spans="1:25">
       <c r="A261" s="6"/>
       <c r="B261" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
@@ -51759,7 +51931,7 @@
       <c r="D264" s="7"/>
       <c r="E264" s="93"/>
       <c r="F264" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G264" s="96"/>
       <c r="H264" s="96"/>
@@ -51770,7 +51942,7 @@
       <c r="M264" s="93"/>
       <c r="N264" s="93"/>
       <c r="O264" s="96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P264" s="96"/>
       <c r="Q264" s="96"/>
@@ -51831,7 +52003,7 @@
       <c r="J266" s="96"/>
       <c r="K266" s="96"/>
       <c r="L266" s="96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M266" s="93"/>
       <c r="N266" s="93"/>
@@ -51844,7 +52016,7 @@
       <c r="S266" s="96"/>
       <c r="T266" s="96"/>
       <c r="U266" s="97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V266" s="96"/>
       <c r="W266" s="93"/>
@@ -51893,7 +52065,7 @@
       <c r="F268" s="96"/>
       <c r="G268" s="96"/>
       <c r="H268" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I268" s="96"/>
       <c r="J268" s="96"/>
@@ -51906,7 +52078,7 @@
       <c r="O268" s="96"/>
       <c r="P268" s="96"/>
       <c r="Q268" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R268" s="96"/>
       <c r="S268" s="96"/>
@@ -52100,7 +52272,7 @@
       <c r="O274" s="96"/>
       <c r="P274" s="96"/>
       <c r="Q274" s="96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R274" s="96"/>
       <c r="S274" s="96"/>
@@ -52139,14 +52311,14 @@
     </row>
     <row r="276" spans="1:25">
       <c r="A276" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="93"/>
       <c r="F276" s="93"/>
       <c r="G276" s="93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H276" s="93"/>
       <c r="I276" s="93"/>
@@ -52175,7 +52347,7 @@
       <c r="F277" s="93"/>
       <c r="G277" s="93"/>
       <c r="H277" s="93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I277" s="93"/>
       <c r="J277" s="93"/>
@@ -52198,14 +52370,14 @@
     <row r="278" spans="1:25">
       <c r="A278" s="6"/>
       <c r="B278" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="93"/>
       <c r="F278" s="93"/>
       <c r="G278" s="93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H278" s="93"/>
       <c r="I278" s="93"/>
@@ -52229,7 +52401,7 @@
     <row r="279" spans="1:25">
       <c r="A279" s="6"/>
       <c r="B279" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
@@ -52237,7 +52409,7 @@
       <c r="F279" s="93"/>
       <c r="G279" s="93"/>
       <c r="H279" s="93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I279" s="93"/>
       <c r="J279" s="93"/>
@@ -52476,7 +52648,7 @@
       <c r="G288" s="93"/>
       <c r="H288" s="96"/>
       <c r="I288" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J288" s="96"/>
       <c r="K288" s="93"/>
@@ -52532,7 +52704,7 @@
       <c r="G290" s="93"/>
       <c r="H290" s="96"/>
       <c r="I290" s="95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J290" s="96"/>
       <c r="K290" s="93"/>
@@ -52647,7 +52819,7 @@
       <c r="F294" s="93"/>
       <c r="G294" s="93"/>
       <c r="H294" s="96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I294" s="96"/>
       <c r="J294" s="96"/>
@@ -52658,7 +52830,7 @@
       <c r="O294" s="93"/>
       <c r="P294" s="93"/>
       <c r="Q294" s="96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R294" s="96"/>
       <c r="S294" s="96"/>
@@ -52719,7 +52891,7 @@
       <c r="L296" s="96"/>
       <c r="M296" s="96"/>
       <c r="N296" s="96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O296" s="93"/>
       <c r="P296" s="93"/>
@@ -52732,7 +52904,7 @@
       <c r="U296" s="96"/>
       <c r="V296" s="96"/>
       <c r="W296" s="97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X296" s="96"/>
       <c r="Y296" s="91"/>
@@ -52781,7 +52953,7 @@
       <c r="H298" s="96"/>
       <c r="I298" s="96"/>
       <c r="J298" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K298" s="96"/>
       <c r="L298" s="96"/>
@@ -52794,7 +52966,7 @@
       <c r="Q298" s="96"/>
       <c r="R298" s="96"/>
       <c r="S298" s="96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T298" s="96"/>
       <c r="U298" s="96"/>
@@ -52988,7 +53160,7 @@
       <c r="Q304" s="96"/>
       <c r="R304" s="96"/>
       <c r="S304" s="96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T304" s="96"/>
       <c r="U304" s="96"/>
@@ -53030,7 +53202,7 @@
       <c r="E306" s="93"/>
       <c r="F306" s="93"/>
       <c r="G306" s="93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H306" s="93"/>
       <c r="I306" s="93"/>
@@ -53059,7 +53231,7 @@
       <c r="F307" s="93"/>
       <c r="G307" s="93"/>
       <c r="H307" s="96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I307" s="93"/>
       <c r="J307" s="93"/>
@@ -53087,7 +53259,7 @@
       <c r="F308" s="93"/>
       <c r="G308" s="93"/>
       <c r="H308" s="96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I308" s="93"/>
       <c r="J308" s="93"/>
@@ -53136,7 +53308,7 @@
       <c r="A310" s="6"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
@@ -53164,7 +53336,7 @@
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -53189,12 +53361,12 @@
     <row r="312" spans="1:25">
       <c r="A312" s="6"/>
       <c r="B312" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
@@ -53219,12 +53391,12 @@
     <row r="313" spans="1:25">
       <c r="A313" s="6"/>
       <c r="B313" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
@@ -53275,7 +53447,7 @@
       <c r="A315" s="6"/>
       <c r="C315" s="6"/>
       <c r="D315" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -53391,7 +53563,7 @@
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
       <c r="F319" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G319" s="9"/>
       <c r="H319" s="9"/>
@@ -53558,13 +53730,13 @@
     <row r="325" spans="1:24">
       <c r="A325" s="6"/>
       <c r="B325" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
       <c r="F325" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G325" s="9"/>
       <c r="H325" s="9"/>
@@ -53588,7 +53760,7 @@
     <row r="326" spans="1:24">
       <c r="A326" s="6"/>
       <c r="B326" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -53704,8 +53876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH325"/>
   <sheetViews>
-    <sheetView topLeftCell="F157" workbookViewId="0">
-      <selection activeCell="M179" sqref="M179:AA180"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -53719,21 +53891,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -53745,7 +53917,7 @@
     </row>
     <row r="33" spans="7:19">
       <c r="G33" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -53754,7 +53926,7 @@
     <row r="34" spans="7:19">
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -53762,7 +53934,7 @@
     <row r="35" spans="7:19">
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -53812,7 +53984,7 @@
     </row>
     <row r="41" spans="7:19">
       <c r="G41" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -53827,7 +53999,7 @@
     <row r="42" spans="7:19">
       <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -53838,7 +54010,7 @@
     <row r="43" spans="7:19">
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -53849,7 +54021,7 @@
     <row r="44" spans="7:19">
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -53860,7 +54032,7 @@
     <row r="45" spans="7:19">
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -53872,7 +54044,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -53884,12 +54056,12 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="7:19">
       <c r="J48" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -53902,7 +54074,7 @@
     <row r="49" spans="1:18">
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -53913,18 +54085,18 @@
     </row>
     <row r="51" spans="1:18">
       <c r="H51" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="49.5">
       <c r="A52" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -53939,14 +54111,14 @@
     </row>
     <row r="53" spans="1:18" ht="33">
       <c r="A53" s="44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -53960,7 +54132,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -53979,7 +54151,7 @@
     </row>
     <row r="55" spans="1:18" ht="49.5">
       <c r="A55" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -54031,7 +54203,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -54403,7 +54575,7 @@
       <c r="I75" s="53"/>
       <c r="J75" s="53"/>
       <c r="K75" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L75" s="53"/>
       <c r="M75" s="53"/>
@@ -54561,7 +54733,7 @@
       <c r="I81" s="53"/>
       <c r="J81" s="53"/>
       <c r="K81" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L81" s="53"/>
       <c r="M81" s="53"/>
@@ -54599,7 +54771,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -54607,12 +54779,12 @@
     </row>
     <row r="87" spans="1:25">
       <c r="I87" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="J88" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -54622,33 +54794,33 @@
     </row>
     <row r="89" spans="1:25">
       <c r="J89" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="33">
       <c r="A90" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="L92" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="K93" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L93" s="34"/>
       <c r="M93" s="34"/>
@@ -54658,14 +54830,14 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="K94" s="34"/>
       <c r="L94" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M94" s="34"/>
       <c r="N94" s="34"/>
@@ -54674,11 +54846,11 @@
     </row>
     <row r="95" spans="1:25" ht="33">
       <c r="A95" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K95" s="34"/>
       <c r="L95" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -54687,10 +54859,10 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="K96" s="50" t="s">
         <v>406</v>
-      </c>
-      <c r="K96" s="50" t="s">
-        <v>407</v>
       </c>
       <c r="L96" s="50"/>
       <c r="M96" s="50"/>
@@ -54701,7 +54873,7 @@
     <row r="97" spans="1:23">
       <c r="K97" s="50"/>
       <c r="L97" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M97" s="50"/>
       <c r="N97" s="50"/>
@@ -54711,7 +54883,7 @@
     <row r="98" spans="1:23">
       <c r="K98" s="50"/>
       <c r="L98" s="50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M98" s="50"/>
       <c r="N98" s="50"/>
@@ -54720,35 +54892,35 @@
     </row>
     <row r="100" spans="1:23">
       <c r="I100" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="J101" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="33">
       <c r="A102" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="15"/>
       <c r="K103" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="15"/>
       <c r="K104" s="112" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L104" s="112" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -54757,16 +54929,16 @@
         <v>0</v>
       </c>
       <c r="L105" s="112" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="15"/>
       <c r="K106" s="113" t="s">
+        <v>986</v>
+      </c>
+      <c r="L106" s="112" t="s">
         <v>987</v>
-      </c>
-      <c r="L106" s="112" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -54775,59 +54947,59 @@
         <v>4</v>
       </c>
       <c r="L107" s="112" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="15"/>
       <c r="K108" s="113" t="s">
+        <v>989</v>
+      </c>
+      <c r="L108" s="112" t="s">
         <v>990</v>
-      </c>
-      <c r="L108" s="112" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="15"/>
       <c r="K109" s="113" t="s">
+        <v>991</v>
+      </c>
+      <c r="L109" s="112" t="s">
         <v>992</v>
-      </c>
-      <c r="L109" s="112" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="33">
       <c r="A110" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="W110"/>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="S113" s="20"/>
     </row>
@@ -54836,16 +55008,16 @@
     </row>
     <row r="115" spans="1:21" ht="33">
       <c r="A115" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -54878,7 +55050,7 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -54900,7 +55072,7 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -54919,7 +55091,7 @@
     <row r="124" spans="1:21">
       <c r="I124" s="4"/>
       <c r="J124" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -54932,7 +55104,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -54959,7 +55131,7 @@
     </row>
     <row r="127" spans="1:21" ht="33">
       <c r="A127" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G127" s="49"/>
       <c r="H127" s="50"/>
@@ -54979,15 +55151,15 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B128" s="51" t="s">
         <v>425</v>
-      </c>
-      <c r="B128" s="51" t="s">
-        <v>426</v>
       </c>
       <c r="G128" s="49"/>
       <c r="H128" s="49"/>
       <c r="I128" s="50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J128" s="50"/>
       <c r="K128" s="50"/>
@@ -55004,15 +55176,15 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B129" s="51" t="s">
         <v>428</v>
-      </c>
-      <c r="B129" s="51" t="s">
-        <v>429</v>
       </c>
       <c r="G129" s="49"/>
       <c r="H129" s="50"/>
       <c r="I129" s="49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J129" s="50"/>
       <c r="K129" s="50"/>
@@ -55029,7 +55201,7 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B130" s="52"/>
       <c r="G130" s="49"/>
@@ -55057,7 +55229,7 @@
       <c r="H131" s="50"/>
       <c r="I131" s="56"/>
       <c r="J131" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K131" s="56"/>
       <c r="L131" s="50"/>
@@ -55122,7 +55294,7 @@
       <c r="H134" s="50"/>
       <c r="I134" s="56"/>
       <c r="J134" s="56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K134" s="56" t="s">
         <v>68</v>
@@ -55144,7 +55316,7 @@
       <c r="G135" s="49"/>
       <c r="H135" s="50"/>
       <c r="I135" s="49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J135" s="49"/>
       <c r="K135" s="49"/>
@@ -55298,7 +55470,7 @@
       <c r="G143" s="49"/>
       <c r="H143" s="50"/>
       <c r="I143" s="56" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J143" s="56"/>
       <c r="K143" s="56"/>
@@ -55320,7 +55492,7 @@
       <c r="H144" s="50"/>
       <c r="I144" s="56"/>
       <c r="J144" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K144" s="56"/>
       <c r="L144" s="56"/>
@@ -55340,7 +55512,7 @@
       <c r="G145" s="49"/>
       <c r="H145" s="50"/>
       <c r="I145" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J145" s="56"/>
       <c r="K145" s="49"/>
@@ -55362,7 +55534,7 @@
       <c r="H146" s="50"/>
       <c r="I146" s="56"/>
       <c r="J146" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K146" s="56"/>
       <c r="L146" s="56"/>
@@ -55382,7 +55554,7 @@
       <c r="G147" s="49"/>
       <c r="H147" s="50"/>
       <c r="I147" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J147" s="56"/>
       <c r="K147" s="56"/>
@@ -55405,7 +55577,7 @@
       <c r="I148" s="56"/>
       <c r="J148" s="56"/>
       <c r="K148" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L148" s="56"/>
       <c r="M148" s="56"/>
@@ -55443,7 +55615,7 @@
       <c r="I150" s="56"/>
       <c r="J150" s="56"/>
       <c r="K150" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L150" s="56"/>
       <c r="M150" s="56"/>
@@ -55461,7 +55633,7 @@
       <c r="H151" s="50"/>
       <c r="I151" s="56"/>
       <c r="J151" s="49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K151" s="56"/>
       <c r="L151" s="56"/>
@@ -55481,7 +55653,7 @@
       <c r="I152" s="56"/>
       <c r="J152" s="49"/>
       <c r="K152" s="56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L152" s="56"/>
       <c r="M152" s="56"/>
@@ -55500,7 +55672,7 @@
       <c r="I153" s="56"/>
       <c r="J153" s="49"/>
       <c r="K153" s="56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L153" s="56"/>
       <c r="M153" s="56"/>
@@ -55534,7 +55706,7 @@
       <c r="G155" s="49"/>
       <c r="H155" s="50"/>
       <c r="I155" s="56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J155" s="56"/>
       <c r="K155" s="56"/>
@@ -55572,7 +55744,7 @@
       <c r="I157" s="56"/>
       <c r="J157" s="56"/>
       <c r="K157" s="56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L157" s="56"/>
       <c r="M157" s="56"/>
@@ -55612,7 +55784,7 @@
       <c r="I159" s="56"/>
       <c r="J159" s="56"/>
       <c r="K159" s="56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L159" s="56"/>
       <c r="M159" s="56"/>
@@ -55646,10 +55818,10 @@
     </row>
     <row r="161" spans="1:21" ht="33">
       <c r="A161" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G161" s="20" t="s">
         <v>446</v>
-      </c>
-      <c r="G161" s="20" t="s">
-        <v>447</v>
       </c>
       <c r="H161" s="20"/>
       <c r="I161" s="20"/>
@@ -55668,29 +55840,29 @@
     </row>
     <row r="162" spans="1:21" ht="33">
       <c r="A162" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="33">
       <c r="A163" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I163" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="33">
       <c r="A164" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="I164" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -55702,7 +55874,7 @@
     <row r="165" spans="1:21">
       <c r="A165" s="46"/>
       <c r="I165" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
@@ -55714,7 +55886,7 @@
     <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="I166" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -55726,7 +55898,7 @@
     <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="I167" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -55738,7 +55910,7 @@
     <row r="168" spans="1:21" s="20" customFormat="1">
       <c r="A168" s="46"/>
       <c r="I168" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -55754,18 +55926,18 @@
     <row r="170" spans="1:21">
       <c r="A170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:21">
       <c r="I171" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U171" s="34"/>
     </row>
     <row r="172" spans="1:21">
       <c r="I172" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -55780,7 +55952,7 @@
     </row>
     <row r="174" spans="1:21">
       <c r="I174" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J174" s="34"/>
       <c r="K174" s="34"/>
@@ -55798,7 +55970,7 @@
     <row r="175" spans="1:21">
       <c r="I175" s="34"/>
       <c r="J175" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K175" s="34"/>
       <c r="L175" s="34"/>
@@ -55815,7 +55987,7 @@
     <row r="176" spans="1:21">
       <c r="I176" s="34"/>
       <c r="J176" s="55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K176" s="55"/>
       <c r="L176" s="55"/>
@@ -55833,7 +56005,7 @@
       <c r="I177" s="34"/>
       <c r="J177" s="55"/>
       <c r="K177" s="55" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L177" s="55"/>
       <c r="M177" s="55"/>
@@ -55848,11 +56020,11 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I178" s="34"/>
       <c r="L178" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M178" s="34"/>
       <c r="N178" s="34"/>
@@ -55870,7 +56042,7 @@
       <c r="I179" s="34"/>
       <c r="L179" s="34"/>
       <c r="M179" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N179" s="34"/>
       <c r="O179" s="34"/>
@@ -55885,13 +56057,13 @@
     </row>
     <row r="180" spans="1:24" ht="49.5">
       <c r="A180" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I180" s="34"/>
       <c r="L180" s="34"/>
       <c r="M180" s="34"/>
       <c r="N180" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O180" s="34"/>
       <c r="P180" s="34"/>
@@ -55907,7 +56079,7 @@
       <c r="I181" s="34"/>
       <c r="L181" s="34"/>
       <c r="M181" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N181" s="34"/>
       <c r="O181" s="34"/>
@@ -55926,7 +56098,7 @@
       <c r="L182" s="34"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O182" s="34"/>
       <c r="P182" s="34"/>
@@ -55943,7 +56115,7 @@
       <c r="L183" s="34"/>
       <c r="M183" s="34"/>
       <c r="N183" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O183" s="34"/>
       <c r="P183" s="34"/>
@@ -55960,7 +56132,7 @@
       <c r="L184" s="34"/>
       <c r="M184" s="34"/>
       <c r="N184" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O184" s="34"/>
       <c r="P184" s="34"/>
@@ -55975,7 +56147,7 @@
     <row r="185" spans="1:24">
       <c r="I185" s="34"/>
       <c r="K185" s="55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L185" s="55"/>
       <c r="M185" s="55"/>
@@ -55994,7 +56166,7 @@
       <c r="I186" s="34"/>
       <c r="K186" s="55"/>
       <c r="L186" s="55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M186" s="55"/>
       <c r="N186" s="55"/>
@@ -56012,7 +56184,7 @@
       <c r="I187" s="34"/>
       <c r="K187" s="4"/>
       <c r="L187" s="55" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M187" s="55"/>
       <c r="N187" s="55"/>
@@ -56043,7 +56215,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="I189" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J189" s="34"/>
       <c r="K189" s="34"/>
@@ -56061,7 +56233,7 @@
       <c r="B190" s="35"/>
       <c r="I190" s="34"/>
       <c r="J190" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K190" s="34"/>
       <c r="L190" s="34"/>
@@ -56077,7 +56249,7 @@
     <row r="191" spans="1:24">
       <c r="I191" s="34"/>
       <c r="J191" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
@@ -56092,10 +56264,10 @@
     </row>
     <row r="192" spans="1:24" ht="33">
       <c r="A192" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="I192" s="55" t="s">
         <v>477</v>
-      </c>
-      <c r="I192" s="55" t="s">
-        <v>478</v>
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
@@ -56110,7 +56282,7 @@
     </row>
     <row r="193" spans="1:34">
       <c r="J193" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K193" s="34"/>
       <c r="L193" s="34"/>
@@ -56119,10 +56291,10 @@
     </row>
     <row r="194" spans="1:34" ht="49.5">
       <c r="A194" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="J194" s="34" t="s">
         <v>480</v>
-      </c>
-      <c r="J194" s="34" t="s">
-        <v>481</v>
       </c>
       <c r="K194" s="34"/>
       <c r="L194" s="34"/>
@@ -56131,10 +56303,10 @@
     </row>
     <row r="195" spans="1:34" ht="33">
       <c r="A195" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="J195" s="34" t="s">
         <v>482</v>
-      </c>
-      <c r="J195" s="34" t="s">
-        <v>483</v>
       </c>
       <c r="K195" s="34"/>
       <c r="L195" s="34"/>
@@ -56167,11 +56339,11 @@
     </row>
     <row r="199" spans="1:34" ht="33">
       <c r="A199" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I199" s="49"/>
       <c r="J199" s="49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K199" s="49"/>
       <c r="L199" s="49"/>
@@ -56184,7 +56356,7 @@
     <row r="200" spans="1:34">
       <c r="I200" s="49"/>
       <c r="J200" s="50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K200" s="49"/>
       <c r="L200" s="49"/>
@@ -56195,12 +56367,12 @@
     </row>
     <row r="201" spans="1:34">
       <c r="A201" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I201" s="49"/>
       <c r="J201" s="49"/>
       <c r="K201" s="50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L201" s="49"/>
       <c r="M201" s="49"/>
@@ -56210,12 +56382,12 @@
     </row>
     <row r="202" spans="1:34">
       <c r="A202" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I202" s="49"/>
       <c r="J202" s="49"/>
       <c r="K202" s="50" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L202" s="49"/>
       <c r="M202" s="49"/>
@@ -56228,7 +56400,7 @@
     </row>
     <row r="204" spans="1:34">
       <c r="H204" s="91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I204" s="91"/>
       <c r="J204" s="91"/>
@@ -56252,7 +56424,7 @@
     <row r="205" spans="1:34">
       <c r="H205" s="91"/>
       <c r="I205" s="91" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J205" s="91"/>
       <c r="K205" s="91"/>
@@ -56276,11 +56448,11 @@
     </row>
     <row r="206" spans="1:34" ht="33">
       <c r="A206" s="58" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H206" s="91"/>
       <c r="I206" s="91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J206" s="91"/>
       <c r="K206" s="91"/>
@@ -56302,7 +56474,7 @@
     <row r="207" spans="1:34">
       <c r="H207" s="91"/>
       <c r="I207" s="91" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J207" s="91"/>
       <c r="K207" s="91"/>
@@ -56324,7 +56496,7 @@
     <row r="208" spans="1:34">
       <c r="H208" s="91"/>
       <c r="I208" s="91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J208" s="91"/>
       <c r="K208" s="91"/>
@@ -56347,7 +56519,7 @@
       <c r="H209" s="91"/>
       <c r="I209" s="91"/>
       <c r="J209" s="91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K209" s="91"/>
       <c r="L209" s="91"/>
@@ -56370,7 +56542,7 @@
       <c r="I210" s="91"/>
       <c r="J210" s="91"/>
       <c r="K210" s="91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L210" s="91"/>
       <c r="M210" s="91"/>
@@ -56389,13 +56561,13 @@
     </row>
     <row r="211" spans="1:28">
       <c r="A211" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H211" s="91"/>
       <c r="I211" s="91"/>
       <c r="J211" s="91"/>
       <c r="K211" s="91" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L211" s="91"/>
       <c r="M211" s="91"/>
@@ -56425,10 +56597,10 @@
       <c r="Q212" s="91"/>
       <c r="R212" s="91"/>
       <c r="S212" s="92" t="s">
+        <v>498</v>
+      </c>
+      <c r="T212" s="92" t="s">
         <v>499</v>
-      </c>
-      <c r="T212" s="92" t="s">
-        <v>500</v>
       </c>
       <c r="U212" s="92"/>
       <c r="V212" s="91"/>
@@ -56438,7 +56610,7 @@
     </row>
     <row r="213" spans="1:28" ht="33">
       <c r="A213" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H213" s="91"/>
       <c r="I213" s="91"/>
@@ -56453,7 +56625,7 @@
       <c r="R213" s="91"/>
       <c r="S213" s="92"/>
       <c r="T213" s="92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U213" s="92"/>
       <c r="V213" s="91"/>
@@ -56463,7 +56635,7 @@
     </row>
     <row r="214" spans="1:28" ht="33">
       <c r="A214" s="44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H214" s="91"/>
       <c r="I214" s="91"/>
@@ -56500,10 +56672,10 @@
       <c r="R215" s="91"/>
       <c r="S215" s="92"/>
       <c r="T215" s="92" t="s">
+        <v>503</v>
+      </c>
+      <c r="U215" s="92" t="s">
         <v>504</v>
-      </c>
-      <c r="U215" s="92" t="s">
-        <v>505</v>
       </c>
       <c r="V215" s="91"/>
       <c r="W215" s="91"/>
@@ -56545,10 +56717,10 @@
       <c r="Q217" s="91"/>
       <c r="R217" s="91"/>
       <c r="S217" s="92" t="s">
+        <v>505</v>
+      </c>
+      <c r="T217" s="92" t="s">
         <v>506</v>
-      </c>
-      <c r="T217" s="92" t="s">
-        <v>507</v>
       </c>
       <c r="U217" s="92"/>
       <c r="V217" s="91"/>
@@ -56571,7 +56743,7 @@
       <c r="R218" s="91"/>
       <c r="S218" s="92"/>
       <c r="T218" s="92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U218" s="92"/>
       <c r="V218" s="91"/>
@@ -56603,7 +56775,7 @@
     </row>
     <row r="220" spans="1:28">
       <c r="I220" s="57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J220" s="57"/>
       <c r="K220" s="57"/>
@@ -56623,7 +56795,7 @@
       <c r="B221" s="44"/>
       <c r="I221" s="57"/>
       <c r="J221" s="57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K221" s="57"/>
       <c r="L221" s="57"/>
@@ -56640,12 +56812,12 @@
     </row>
     <row r="222" spans="1:28">
       <c r="A222" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I222" s="57"/>
       <c r="J222" s="57"/>
       <c r="K222" s="57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L222" s="57"/>
       <c r="M222" s="57"/>
@@ -56663,7 +56835,7 @@
       <c r="H223" s="6"/>
       <c r="I223" s="57"/>
       <c r="J223" s="57" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K223" s="57"/>
       <c r="L223" s="57"/>
@@ -56682,7 +56854,7 @@
       <c r="I224" s="57"/>
       <c r="J224" s="57"/>
       <c r="K224" s="57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L224" s="57"/>
       <c r="M224" s="57"/>
@@ -56697,13 +56869,13 @@
     </row>
     <row r="225" spans="1:21">
       <c r="A225" s="59" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B225" s="60"/>
       <c r="I225" s="57"/>
       <c r="J225" s="57"/>
       <c r="K225" s="57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L225" s="57"/>
       <c r="M225" s="57"/>
@@ -56718,12 +56890,12 @@
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="59" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B226" s="60"/>
       <c r="I226" s="57"/>
       <c r="J226" s="57" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K226" s="57"/>
       <c r="L226" s="57"/>
@@ -56739,12 +56911,12 @@
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B227" s="60"/>
       <c r="I227" s="57"/>
       <c r="J227" s="57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K227" s="57"/>
       <c r="L227" s="57"/>
@@ -56760,7 +56932,7 @@
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B228" s="60"/>
       <c r="I228" s="49"/>
@@ -56779,12 +56951,12 @@
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="59" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B229" s="60"/>
       <c r="I229" s="49"/>
       <c r="J229" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K229" s="49"/>
       <c r="L229" s="49"/>
@@ -56800,13 +56972,13 @@
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B230" s="60"/>
       <c r="I230" s="49"/>
       <c r="J230" s="49"/>
       <c r="K230" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L230" s="49"/>
       <c r="M230" s="49"/>
@@ -56821,13 +56993,13 @@
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B231" s="60"/>
       <c r="I231" s="49"/>
       <c r="J231" s="49"/>
       <c r="K231" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L231" s="49"/>
       <c r="M231" s="49"/>
@@ -56842,7 +57014,7 @@
     </row>
     <row r="232" spans="1:21">
       <c r="A232" s="59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B232" s="60"/>
       <c r="I232" s="49"/>
@@ -56861,12 +57033,12 @@
     </row>
     <row r="233" spans="1:21">
       <c r="A233" s="61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B233" s="60"/>
       <c r="I233" s="49"/>
       <c r="J233" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K233" s="57"/>
       <c r="L233" s="57"/>
@@ -56882,12 +57054,12 @@
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B234" s="60"/>
       <c r="I234" s="49"/>
       <c r="J234" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K234" s="57"/>
       <c r="L234" s="57"/>
@@ -56903,7 +57075,7 @@
     </row>
     <row r="235" spans="1:21">
       <c r="A235" s="59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B235" s="60"/>
       <c r="I235" s="49"/>
@@ -56924,7 +57096,7 @@
       <c r="A236" s="1"/>
       <c r="I236" s="49"/>
       <c r="J236" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K236" s="57"/>
       <c r="L236" s="57"/>
@@ -56940,12 +57112,12 @@
     </row>
     <row r="237" spans="1:21">
       <c r="A237" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I237" s="49"/>
       <c r="J237" s="57"/>
       <c r="K237" s="57" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L237" s="57"/>
       <c r="M237" s="57"/>
@@ -56963,7 +57135,7 @@
       <c r="I238" s="49"/>
       <c r="J238" s="57"/>
       <c r="K238" s="57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L238" s="57"/>
       <c r="M238" s="57"/>
@@ -56978,12 +57150,12 @@
     </row>
     <row r="239" spans="1:21">
       <c r="A239" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I239" s="49"/>
       <c r="J239" s="57"/>
       <c r="K239" s="57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L239" s="57"/>
       <c r="M239" s="57"/>
@@ -57000,7 +57172,7 @@
       <c r="I240" s="49"/>
       <c r="J240" s="57"/>
       <c r="K240" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L240" s="57"/>
       <c r="M240" s="57"/>
@@ -57026,7 +57198,7 @@
     <row r="242" spans="1:25" s="20" customFormat="1">
       <c r="A242" s="46"/>
       <c r="I242" s="91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J242" s="93"/>
       <c r="K242" s="93"/>
@@ -57049,7 +57221,7 @@
       <c r="A243" s="46"/>
       <c r="I243" s="91"/>
       <c r="J243" s="93" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K243" s="93"/>
       <c r="L243" s="93"/>
@@ -57072,7 +57244,7 @@
       <c r="I244" s="91"/>
       <c r="J244" s="93"/>
       <c r="K244" s="93" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L244" s="93"/>
       <c r="M244" s="93"/>
@@ -57094,7 +57266,7 @@
       <c r="I245" s="91"/>
       <c r="J245" s="93"/>
       <c r="K245" s="93" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L245" s="93"/>
       <c r="M245" s="93"/>
@@ -57135,7 +57307,7 @@
       <c r="A247" s="46"/>
       <c r="I247" s="91"/>
       <c r="J247" s="93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K247" s="93"/>
       <c r="L247" s="93"/>
@@ -57177,7 +57349,7 @@
       <c r="A249" s="46"/>
       <c r="I249" s="91"/>
       <c r="J249" s="93" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K249" s="93"/>
       <c r="L249" s="93"/>
@@ -57221,7 +57393,7 @@
       <c r="A251" s="46"/>
       <c r="I251" s="91"/>
       <c r="J251" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K251" s="93"/>
       <c r="L251" s="93"/>
@@ -57244,7 +57416,7 @@
       <c r="I252" s="91"/>
       <c r="J252" s="93"/>
       <c r="K252" s="93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L252" s="93"/>
       <c r="M252" s="93"/>
@@ -57266,7 +57438,7 @@
       <c r="I253" s="91"/>
       <c r="J253" s="93"/>
       <c r="K253" s="93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L253" s="93"/>
       <c r="M253" s="93"/>
@@ -57291,7 +57463,7 @@
       <c r="L254" s="93"/>
       <c r="M254" s="93"/>
       <c r="N254" s="93" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O254" s="93"/>
       <c r="P254" s="93"/>
@@ -57333,7 +57505,7 @@
       <c r="L256" s="91"/>
       <c r="M256" s="93"/>
       <c r="N256" s="93" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O256" s="93"/>
       <c r="P256" s="93"/>
@@ -57371,7 +57543,7 @@
       <c r="J258" s="91"/>
       <c r="K258" s="91"/>
       <c r="L258" s="93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M258" s="91"/>
       <c r="N258" s="91"/>
@@ -57408,12 +57580,12 @@
     </row>
     <row r="260" spans="1:25">
       <c r="G260" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="1:25">
       <c r="H261" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I261" s="34"/>
       <c r="J261" s="34"/>
@@ -57423,7 +57595,7 @@
     <row r="262" spans="1:25">
       <c r="H262" s="34"/>
       <c r="I262" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J262" s="34"/>
       <c r="K262" s="34"/>
@@ -57433,7 +57605,7 @@
       <c r="H263" s="34"/>
       <c r="I263" s="34"/>
       <c r="K263" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L263" s="34"/>
     </row>
@@ -57447,7 +57619,7 @@
       <c r="H265" s="34"/>
       <c r="I265" s="34"/>
       <c r="K265" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L265" s="34"/>
     </row>
@@ -57455,7 +57627,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
       <c r="K267" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="268" spans="1:25">
@@ -57465,31 +57637,31 @@
     </row>
     <row r="270" spans="1:25" s="91" customFormat="1">
       <c r="A270" s="91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I270" s="91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="271" spans="1:25" s="91" customFormat="1">
       <c r="J271" s="91" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:25" s="91" customFormat="1">
       <c r="A272" s="91" t="s">
+        <v>554</v>
+      </c>
+      <c r="J272" s="91" t="s">
         <v>555</v>
-      </c>
-      <c r="J272" s="91" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="91" customFormat="1">
       <c r="A273" s="91" t="s">
+        <v>556</v>
+      </c>
+      <c r="J273" s="91" t="s">
         <v>557</v>
-      </c>
-      <c r="J273" s="91" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="274" spans="1:24" s="91" customFormat="1">
@@ -57501,10 +57673,10 @@
     <row r="275" spans="1:24" s="91" customFormat="1">
       <c r="A275" s="94"/>
       <c r="T275" s="92" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U275" s="95" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V275" s="96"/>
       <c r="W275" s="93"/>
@@ -57514,7 +57686,7 @@
       <c r="A276" s="94"/>
       <c r="T276" s="92"/>
       <c r="U276" s="92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V276" s="92"/>
     </row>
@@ -57530,20 +57702,20 @@
       <c r="A278" s="94"/>
       <c r="T278" s="92"/>
       <c r="U278" s="92" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V278" s="92" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="279" spans="1:24" s="91" customFormat="1">
       <c r="A279" s="94"/>
       <c r="T279" s="92"/>
       <c r="U279" s="92" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V279" s="91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="280" spans="1:24" s="91" customFormat="1">
@@ -57553,10 +57725,10 @@
     <row r="281" spans="1:24" s="91" customFormat="1">
       <c r="A281" s="94"/>
       <c r="T281" s="92" t="s">
+        <v>505</v>
+      </c>
+      <c r="U281" s="92" t="s">
         <v>506</v>
-      </c>
-      <c r="U281" s="92" t="s">
-        <v>507</v>
       </c>
       <c r="V281" s="92"/>
     </row>
@@ -57564,7 +57736,7 @@
       <c r="A282" s="94"/>
       <c r="T282" s="92"/>
       <c r="U282" s="92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="283" spans="1:24" s="91" customFormat="1">
@@ -57576,7 +57748,7 @@
         <v>189</v>
       </c>
       <c r="U284" s="91" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="1:24" s="91" customFormat="1">
@@ -57586,7 +57758,7 @@
       <c r="A286" s="94"/>
       <c r="G286" s="93"/>
       <c r="H286" s="93" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I286" s="93"/>
       <c r="J286" s="93"/>
@@ -57602,7 +57774,7 @@
       <c r="G287" s="93"/>
       <c r="H287" s="96"/>
       <c r="I287" s="92" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J287" s="96"/>
       <c r="K287" s="96"/>
@@ -57618,7 +57790,7 @@
       <c r="H288" s="96"/>
       <c r="I288" s="96"/>
       <c r="J288" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K288" s="96"/>
       <c r="L288" s="96"/>
@@ -57645,7 +57817,7 @@
       <c r="G290" s="93"/>
       <c r="H290" s="96"/>
       <c r="I290" s="91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J290" s="96"/>
       <c r="K290" s="96"/>
@@ -57661,7 +57833,7 @@
       <c r="H291" s="96"/>
       <c r="I291" s="96"/>
       <c r="J291" s="96" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K291" s="96"/>
       <c r="L291" s="96"/>
@@ -57685,7 +57857,7 @@
     <row r="293" spans="1:21" s="91" customFormat="1">
       <c r="A293" s="94"/>
       <c r="H293" s="96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J293" s="96"/>
       <c r="K293" s="96"/>
@@ -57699,7 +57871,7 @@
       <c r="A294" s="94"/>
       <c r="H294" s="93"/>
       <c r="I294" s="96" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J294" s="96"/>
       <c r="K294" s="96"/>
@@ -57714,7 +57886,7 @@
       <c r="G295" s="93"/>
       <c r="H295" s="96"/>
       <c r="I295" s="96" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J295" s="96"/>
       <c r="K295" s="96"/>
@@ -57727,7 +57899,7 @@
     <row r="296" spans="1:21" s="91" customFormat="1">
       <c r="A296" s="94"/>
       <c r="G296" s="96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I296" s="96"/>
       <c r="J296" s="96"/>
@@ -57742,7 +57914,7 @@
       <c r="A297" s="94"/>
       <c r="G297" s="93"/>
       <c r="H297" s="96" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I297" s="96"/>
       <c r="J297" s="96"/>
@@ -57758,7 +57930,7 @@
       <c r="G298" s="93"/>
       <c r="H298" s="93"/>
       <c r="I298" s="91" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P298" s="93"/>
     </row>
@@ -57767,7 +57939,7 @@
       <c r="G299" s="93"/>
       <c r="H299" s="93"/>
       <c r="I299" s="93" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J299" s="93"/>
       <c r="K299" s="93"/>
@@ -57783,7 +57955,7 @@
       <c r="H300" s="93"/>
       <c r="I300" s="93"/>
       <c r="J300" s="93" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K300" s="93"/>
       <c r="L300" s="93"/>
@@ -57795,7 +57967,7 @@
       <c r="A301" s="94"/>
       <c r="G301" s="93"/>
       <c r="H301" s="91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L301" s="93"/>
       <c r="M301" s="93"/>
@@ -57804,10 +57976,10 @@
     <row r="302" spans="1:21" s="91" customFormat="1">
       <c r="A302" s="94"/>
       <c r="Q302" s="92" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R302" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S302" s="96"/>
       <c r="T302" s="93"/>
@@ -57817,7 +57989,7 @@
       <c r="A303" s="94"/>
       <c r="Q303" s="92"/>
       <c r="R303" s="92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S303" s="92"/>
     </row>
@@ -57833,10 +58005,10 @@
       <c r="A305" s="94"/>
       <c r="Q305" s="92"/>
       <c r="R305" s="92" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S305" s="91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="306" spans="1:21" s="91" customFormat="1">
@@ -57846,10 +58018,10 @@
     <row r="307" spans="1:21" s="91" customFormat="1">
       <c r="A307" s="94"/>
       <c r="Q307" s="92" t="s">
+        <v>505</v>
+      </c>
+      <c r="R307" s="92" t="s">
         <v>506</v>
-      </c>
-      <c r="R307" s="92" t="s">
-        <v>507</v>
       </c>
       <c r="S307" s="92"/>
     </row>
@@ -57857,7 +58029,7 @@
       <c r="A308" s="94"/>
       <c r="Q308" s="92"/>
       <c r="R308" s="92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S308" s="92"/>
     </row>
@@ -57870,7 +58042,7 @@
         <v>189</v>
       </c>
       <c r="R310" s="91" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="311" spans="1:21" s="91" customFormat="1">
@@ -57879,7 +58051,7 @@
     <row r="312" spans="1:21" s="91" customFormat="1">
       <c r="A312" s="94"/>
       <c r="H312" s="96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" spans="1:21" s="91" customFormat="1">
@@ -57888,7 +58060,7 @@
     <row r="314" spans="1:21" s="91" customFormat="1">
       <c r="A314" s="94"/>
       <c r="H314" s="91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:21" s="91" customFormat="1">
@@ -57897,10 +58069,10 @@
     <row r="316" spans="1:21" s="91" customFormat="1">
       <c r="A316" s="94"/>
       <c r="Q316" s="92" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R316" s="91" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S316" s="96"/>
       <c r="T316" s="93"/>
@@ -57910,7 +58082,7 @@
       <c r="A317" s="94"/>
       <c r="Q317" s="92"/>
       <c r="R317" s="92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S317" s="92"/>
     </row>
@@ -57926,10 +58098,10 @@
       <c r="A319" s="94"/>
       <c r="Q319" s="92"/>
       <c r="R319" s="92" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S319" s="91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="320" spans="1:21" s="91" customFormat="1">
@@ -57939,10 +58111,10 @@
     <row r="321" spans="1:19" s="91" customFormat="1">
       <c r="A321" s="94"/>
       <c r="Q321" s="92" t="s">
+        <v>505</v>
+      </c>
+      <c r="R321" s="92" t="s">
         <v>506</v>
-      </c>
-      <c r="R321" s="92" t="s">
-        <v>507</v>
       </c>
       <c r="S321" s="92"/>
     </row>
@@ -57950,7 +58122,7 @@
       <c r="A322" s="94"/>
       <c r="Q322" s="92"/>
       <c r="R322" s="92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S322" s="92"/>
     </row>
@@ -57963,7 +58135,7 @@
         <v>189</v>
       </c>
       <c r="R324" s="91" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="325" spans="1:19" s="91" customFormat="1">
@@ -57984,10 +58156,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E10" sqref="E10:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -57997,7 +58169,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -58022,7 +58194,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -58135,7 +58307,7 @@
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -58160,7 +58332,7 @@
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -58185,7 +58357,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -58208,10 +58380,10 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="F10" s="34"/>
+      <c r="E10" s="115" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F10" s="115"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -58231,11 +58403,11 @@
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
-        <v>580</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116" t="s">
+        <v>578</v>
+      </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -58256,14 +58428,12 @@
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="34" t="s">
-        <v>581</v>
-      </c>
-      <c r="F12" s="34"/>
+      <c r="E12" s="115" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F12" s="116"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="34" t="s">
-        <v>582</v>
-      </c>
+      <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -58282,10 +58452,10 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="F13" s="34"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116" t="s">
+        <v>1046</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -58305,9 +58475,7 @@
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
-      <c r="D14" s="34" t="s">
-        <v>583</v>
-      </c>
+      <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -58329,10 +58497,10 @@
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34" t="s">
-        <v>584</v>
-      </c>
+      <c r="D15" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
@@ -58355,11 +58523,13 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="H16" s="34" t="s">
+        <v>581</v>
+      </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -58379,161 +58549,257 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>588</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>591</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>598</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>601</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34">
+      <c r="D18" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F22" s="34">
         <v>1</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G22" s="34">
         <v>2</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H22" s="34">
         <v>3</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I22" s="34">
         <v>4</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J22" s="34">
         <v>5</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K22" s="34">
         <v>6</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L22" s="34">
         <v>7</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M22" s="34">
         <v>8</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N22" s="34">
         <v>9</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O22" s="34">
         <v>10</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P22" s="34">
         <v>11</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q22" s="34">
         <v>12</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R22" s="34">
         <v>13</v>
       </c>
-      <c r="S18" s="34">
+      <c r="S22" s="34">
         <v>14</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T22" s="34">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="D19" s="1" t="s">
+    <row r="23" spans="1:20">
+      <c r="D23" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="E24" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="E20" s="1" t="s">
+    <row r="25" spans="1:20">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="E29" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="E25" s="1" t="s">
+    <row r="34" spans="4:5">
+      <c r="D34" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="D30" s="1" t="s">
+    <row r="35" spans="4:5">
+      <c r="E35" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="E31" s="1" t="s">
+    <row r="39" spans="4:5">
+      <c r="D39" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="1" t="s">
+    <row r="40" spans="4:5">
+      <c r="E40" s="1" t="s">
         <v>607</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="E36" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -58548,8 +58814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView topLeftCell="C202" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView topLeftCell="C156" workbookViewId="0">
+      <selection activeCell="S182" sqref="S182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -58562,19 +58828,19 @@
     <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="A1" s="1"/>
       <c r="C1" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -58583,10 +58849,10 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1">
       <c r="A4" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -58596,7 +58862,7 @@
     <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="10"/>
       <c r="E5" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -58606,7 +58872,7 @@
     <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="10"/>
       <c r="E6" s="21" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -58615,10 +58881,10 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -58628,10 +58894,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -58640,31 +58906,31 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -58673,7 +58939,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -58682,7 +58948,7 @@
     <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -58693,19 +58959,19 @@
     <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -58717,25 +58983,25 @@
     <row r="16" spans="1:10">
       <c r="C16" s="3"/>
       <c r="G16" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="C17" s="3"/>
       <c r="F17" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -58748,12 +59014,12 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -58797,7 +59063,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="6"/>
@@ -58829,7 +59095,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -58939,7 +59205,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -58969,7 +59235,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -58987,7 +59253,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -59004,7 +59270,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="39" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -59021,7 +59287,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -59038,7 +59304,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -59081,7 +59347,7 @@
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="42" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="39"/>
@@ -59100,7 +59366,7 @@
       <c r="I38" s="40"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="39"/>
@@ -59113,7 +59379,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
@@ -59225,7 +59491,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
@@ -59254,55 +59520,55 @@
     <row r="47" spans="2:15">
       <c r="C47" s="3"/>
       <c r="E47" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C48" s="3"/>
       <c r="F48" s="41" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="B49" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C49" s="3"/>
       <c r="F49" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="B50" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>650</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>653</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:24">
       <c r="B52" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52" s="105" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G52" s="104"/>
       <c r="H52" s="104"/>
@@ -59314,16 +59580,16 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -59374,7 +59640,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I62" s="43"/>
       <c r="J62" s="6"/>
@@ -59422,7 +59688,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="102"/>
       <c r="H64" s="104" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I64" s="104"/>
       <c r="J64" s="104"/>
@@ -59447,7 +59713,7 @@
       <c r="G65" s="102"/>
       <c r="H65" s="104"/>
       <c r="I65" s="105" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J65" s="104"/>
       <c r="K65" s="103"/>
@@ -59470,7 +59736,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="102"/>
       <c r="H66" s="104" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I66" s="104"/>
       <c r="J66" s="104"/>
@@ -59495,7 +59761,7 @@
       <c r="G67" s="102"/>
       <c r="H67" s="104"/>
       <c r="I67" s="104" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J67" s="104"/>
       <c r="K67" s="104"/>
@@ -59519,7 +59785,7 @@
       <c r="H68" s="105"/>
       <c r="I68" s="103"/>
       <c r="J68" s="105" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="89"/>
@@ -59541,7 +59807,7 @@
       <c r="G69" s="102"/>
       <c r="H69" s="105"/>
       <c r="I69" s="102" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J69" s="104"/>
       <c r="K69" s="103"/>
@@ -59566,7 +59832,7 @@
       <c r="H70" s="105"/>
       <c r="I70" s="102"/>
       <c r="J70" s="105" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="89"/>
@@ -59590,7 +59856,7 @@
       <c r="H71" s="105"/>
       <c r="I71" s="103"/>
       <c r="J71" s="105" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K71" s="105"/>
       <c r="L71" s="103"/>
@@ -59687,7 +59953,7 @@
       <c r="C75" s="3"/>
       <c r="F75" s="6"/>
       <c r="G75" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -59698,7 +59964,7 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
@@ -59751,7 +60017,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -59764,7 +60030,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W77" s="9"/>
       <c r="X77" s="6"/>
@@ -59805,7 +60071,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -59818,7 +60084,7 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
@@ -59988,7 +60254,7 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
@@ -60003,7 +60269,7 @@
     <row r="87" spans="2:24">
       <c r="C87" s="3"/>
       <c r="H87" s="32" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="88" spans="2:24">
@@ -60011,16 +60277,16 @@
     </row>
     <row r="89" spans="2:24">
       <c r="B89" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="90" spans="2:24">
       <c r="B90" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C90" s="3"/>
     </row>
@@ -60072,7 +60338,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J98" s="43"/>
       <c r="K98" s="6"/>
@@ -60119,13 +60385,13 @@
     </row>
     <row r="100" spans="2:26">
       <c r="B100" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C100" s="3"/>
       <c r="G100" s="6"/>
       <c r="H100" s="9"/>
       <c r="I100" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J100" s="43"/>
       <c r="K100" s="6"/>
@@ -60147,7 +60413,7 @@
     </row>
     <row r="101" spans="2:26">
       <c r="B101" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C101" s="3"/>
       <c r="G101" s="6"/>
@@ -60231,7 +60497,7 @@
       <c r="C104" s="3"/>
       <c r="G104" s="6"/>
       <c r="H104" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -60242,7 +60508,7 @@
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
@@ -60297,7 +60563,7 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
@@ -60310,7 +60576,7 @@
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
       <c r="W106" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="6"/>
@@ -60353,7 +60619,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -60366,7 +60632,7 @@
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
       <c r="S108" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
@@ -60542,7 +60808,7 @@
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
       <c r="S114" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
@@ -60555,7 +60821,7 @@
     <row r="115" spans="2:26">
       <c r="C115" s="3"/>
       <c r="F115" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G115" s="6"/>
       <c r="I115" s="6"/>
@@ -60626,23 +60892,23 @@
     <row r="118" spans="2:26">
       <c r="C118" s="3"/>
       <c r="F118" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="2:26">
       <c r="C119" s="3"/>
       <c r="F119" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="125" spans="2:26">
       <c r="B125" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="126" spans="2:26">
       <c r="B126" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="144" spans="7:7">
@@ -60652,58 +60918,58 @@
     </row>
     <row r="145" spans="2:10">
       <c r="H145" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="2:10">
       <c r="G146" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="2:10">
       <c r="H147" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="2:10">
       <c r="H148" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="2:10">
       <c r="I149" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="150" spans="2:10">
       <c r="H150" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151" spans="2:10">
       <c r="I151" s="32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="152" spans="2:10">
       <c r="I152" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="155" spans="2:10">
@@ -60713,81 +60979,81 @@
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="B161" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="B162" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J162" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="B163" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="J163" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="K164" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="K165" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="J166" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="K167" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="K168" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="J169" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="K170" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="K171" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="J172" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="K173" s="6" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -60795,25 +61061,25 @@
         <v>54</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="K175" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="B176" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="K176" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="177" spans="2:17">
       <c r="B177" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -60832,7 +61098,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
       <c r="I178" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J178" s="32"/>
       <c r="K178" s="32"/>
@@ -60850,7 +61116,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="32"/>
       <c r="J179" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K179" s="32"/>
       <c r="L179" s="32"/>
@@ -60867,7 +61133,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="32"/>
       <c r="J180" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K180" s="32"/>
       <c r="L180" s="32"/>
@@ -60956,7 +61222,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="32"/>
       <c r="J186" s="32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K186" s="32"/>
       <c r="L186" s="32"/>
@@ -60972,7 +61238,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="32"/>
       <c r="J187" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K187" s="32"/>
       <c r="L187" s="32"/>
@@ -60989,7 +61255,7 @@
       <c r="I188" s="32"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L188" s="32"/>
       <c r="M188" s="32"/>
@@ -61004,7 +61270,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="32"/>
       <c r="J189" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K189" s="32"/>
       <c r="L189" s="32"/>
@@ -61021,7 +61287,7 @@
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L190" s="32"/>
       <c r="M190" s="32"/>
@@ -61037,7 +61303,7 @@
       <c r="I191" s="32"/>
       <c r="J191" s="32"/>
       <c r="K191" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L191" s="32"/>
       <c r="M191" s="32"/>
@@ -61053,7 +61319,7 @@
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L192" s="32"/>
       <c r="M192" s="32"/>
@@ -61069,7 +61335,7 @@
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
       <c r="K193" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L193" s="32"/>
       <c r="M193" s="32"/>
@@ -61081,7 +61347,7 @@
     <row r="194" spans="6:17">
       <c r="F194" s="6"/>
       <c r="G194" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H194" s="6"/>
       <c r="J194" s="6"/>
@@ -61119,7 +61385,7 @@
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
       <c r="M196" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N196" s="9"/>
       <c r="O196" s="6"/>
@@ -61237,7 +61503,7 @@
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -61261,7 +61527,7 @@
     <row r="206" spans="6:17">
       <c r="F206" s="6"/>
       <c r="G206" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
@@ -61276,7 +61542,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -61288,22 +61554,22 @@
     </row>
     <row r="208" spans="6:17">
       <c r="H208" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -61318,8 +61584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -61345,75 +61611,75 @@
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="S2" s="35" t="s">
         <v>717</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>718</v>
       </c>
       <c r="T2" s="35"/>
     </row>
     <row r="3" spans="1:30">
       <c r="C3" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>235</v>
       </c>
       <c r="L3" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="34" t="s">
         <v>730</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>731</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="35"/>
       <c r="Y3" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Z3" s="37"/>
       <c r="AA3" s="37"/>
@@ -61423,102 +61689,102 @@
     </row>
     <row r="4" spans="1:30" ht="33">
       <c r="A4" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="O4" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="P4" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>747</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="T4" s="36" t="s">
         <v>750</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="U4" s="36" t="s">
         <v>751</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="V4" s="36" t="s">
         <v>752</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="W4" s="36" t="s">
         <v>753</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="X4" s="36" t="s">
         <v>754</v>
       </c>
-      <c r="X4" s="36" t="s">
-        <v>755</v>
-      </c>
       <c r="Y4" s="38" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z4" s="38" t="s">
         <v>750</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="AA4" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AB4" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AC4" s="38" t="s">
         <v>753</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AD4" s="38" t="s">
         <v>754</v>
-      </c>
-      <c r="AD4" s="38" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -61536,10 +61802,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>759</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>760</v>
       </c>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
@@ -61553,7 +61819,7 @@
     <row r="6" spans="1:30">
       <c r="A6" s="10"/>
       <c r="H6" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
@@ -61564,10 +61830,10 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>54</v>
@@ -61580,10 +61846,10 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>763</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>764</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -61593,20 +61859,20 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>765</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="I10" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="B12" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -61615,13 +61881,13 @@
     <row r="13" spans="1:30">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -61630,7 +61896,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -61642,7 +61908,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E15" s="6">
         <v>10</v>
@@ -61654,7 +61920,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E16" s="6">
         <v>20</v>
@@ -61662,7 +61928,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -61670,10 +61936,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="C18" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -61838,15 +62104,15 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -62032,7 +62298,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -62069,7 +62335,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -62079,48 +62345,48 @@
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>780</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>781</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>786</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>791</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>792</v>
       </c>
       <c r="E3" s="29">
         <v>1</v>

--- a/gd/副本系统/副本入口设计.xlsx
+++ b/gd/副本系统/副本入口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -1313,9 +1313,6 @@
     <t>展示己方阵容与敌方阵容，己方阵容需区分上阵与后备阵容；敌方阵容只显示此副本中可能会出现的怪，最多可以同时显示6个头像</t>
   </si>
   <si>
-    <t>敌方阵容通过副本读取insrance中会出现怪物ID显示，优先显示小怪最后显示boss</t>
-  </si>
-  <si>
     <t>显示已上阵伙伴的头像，icon具体规则见 宠物界面文档 玩家上阵宠物界面分页</t>
   </si>
   <si>
@@ -3531,6 +3528,10 @@
   </si>
   <si>
     <t>敌方阵容等级规则补充</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方阵容通过副本读取insrance中会出现怪物ID显示，显示顺序根据配置表配置顺序而定（暂定需要将boss配置在小怪后）</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -38819,8 +38820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -39362,7 +39363,7 @@
         <v>42</v>
       </c>
       <c r="H32" s="78" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I32" s="83"/>
       <c r="J32" s="83"/>
@@ -39379,7 +39380,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="78" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -39394,7 +39395,7 @@
       <c r="F34" s="75"/>
       <c r="G34" s="74"/>
       <c r="H34" s="78" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="74"/>
@@ -39409,7 +39410,7 @@
       <c r="F35" s="75"/>
       <c r="G35" s="74"/>
       <c r="H35" s="78" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I35" s="74"/>
       <c r="J35" s="74"/>
@@ -39424,7 +39425,7 @@
       <c r="F36" s="75"/>
       <c r="G36" s="74"/>
       <c r="H36" s="78" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I36" s="74"/>
       <c r="J36" s="74"/>
@@ -39439,7 +39440,7 @@
       <c r="F37" s="75"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I37" s="74"/>
       <c r="J37" s="74"/>
@@ -39456,7 +39457,7 @@
       <c r="F38" s="75"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I38" s="74"/>
       <c r="J38" s="74"/>
@@ -39471,7 +39472,7 @@
       <c r="F39" s="75"/>
       <c r="G39" s="74"/>
       <c r="H39" s="78" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I39" s="74"/>
       <c r="J39" s="74"/>
@@ -39486,7 +39487,7 @@
       <c r="F40" s="75"/>
       <c r="G40" s="74"/>
       <c r="H40" s="78" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I40" s="74"/>
       <c r="J40" s="74"/>
@@ -39501,7 +39502,7 @@
       <c r="F41" s="75"/>
       <c r="G41" s="74"/>
       <c r="H41" s="78" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
@@ -39653,27 +39654,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="C28" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -39681,92 +39682,92 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="C66" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="C79" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="C138" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="19" customFormat="1">
       <c r="A154" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="19" customFormat="1">
       <c r="B155" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="19" customFormat="1">
       <c r="C156" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="19" customFormat="1"/>
@@ -39794,12 +39795,12 @@
     <row r="179" spans="2:3" s="19" customFormat="1"/>
     <row r="180" spans="2:3" s="19" customFormat="1">
       <c r="B180" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="181" spans="2:3" s="19" customFormat="1">
       <c r="C181" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="182" spans="2:3" s="19" customFormat="1"/>
@@ -39823,12 +39824,12 @@
     <row r="200" spans="2:3" s="19" customFormat="1"/>
     <row r="201" spans="2:3" s="19" customFormat="1">
       <c r="B201" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="202" spans="2:3" s="19" customFormat="1">
       <c r="C202" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="203" spans="2:3" s="19" customFormat="1"/>
@@ -39847,12 +39848,12 @@
     <row r="216" spans="2:3" s="19" customFormat="1"/>
     <row r="217" spans="2:3" s="19" customFormat="1">
       <c r="B217" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="218" spans="2:3" s="19" customFormat="1">
       <c r="C218" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="219" spans="2:3" s="19" customFormat="1"/>
@@ -39865,7 +39866,7 @@
     <row r="226" spans="1:3" s="19" customFormat="1"/>
     <row r="227" spans="1:3" s="19" customFormat="1">
       <c r="B227" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="19" customFormat="1"/>
@@ -39879,12 +39880,12 @@
     </row>
     <row r="233" spans="1:3" s="20" customFormat="1">
       <c r="B233" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="20" customFormat="1">
       <c r="C234" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="235" spans="1:3" s="20" customFormat="1"/>
@@ -39912,12 +39913,12 @@
     <row r="257" spans="2:3" s="20" customFormat="1"/>
     <row r="258" spans="2:3" s="20" customFormat="1">
       <c r="B258" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="259" spans="2:3" s="20" customFormat="1">
       <c r="C259" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="260" spans="2:3" s="20" customFormat="1"/>
@@ -39934,12 +39935,12 @@
     <row r="271" spans="2:3" s="20" customFormat="1"/>
     <row r="272" spans="2:3" s="20" customFormat="1">
       <c r="B272" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="273" spans="2:3" s="20" customFormat="1">
       <c r="C273" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="274" spans="2:3" s="20" customFormat="1"/>
@@ -39952,7 +39953,7 @@
     <row r="281" spans="2:3" s="20" customFormat="1"/>
     <row r="282" spans="2:3" s="20" customFormat="1">
       <c r="B282" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="283" spans="2:3" s="20" customFormat="1"/>
@@ -39964,7 +39965,7 @@
     <row r="289" spans="2:7" s="20" customFormat="1"/>
     <row r="290" spans="2:7" s="20" customFormat="1">
       <c r="B290" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -39974,7 +39975,7 @@
     </row>
     <row r="291" spans="2:7" s="91" customFormat="1">
       <c r="C291" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="292" spans="2:7" s="91" customFormat="1"/>
@@ -40016,12 +40017,12 @@
     <row r="328" spans="2:3" s="91" customFormat="1"/>
     <row r="329" spans="2:3" s="20" customFormat="1">
       <c r="B329" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="330" spans="2:3" s="20" customFormat="1">
       <c r="C330" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="331" spans="2:3" s="20" customFormat="1"/>
@@ -40036,37 +40037,37 @@
     <row r="340" spans="1:3" s="20" customFormat="1"/>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="B342" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="C343" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="368" spans="2:2">
       <c r="B368" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="391" spans="2:3" s="91" customFormat="1">
       <c r="B391" s="91" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="392" spans="2:3" s="91" customFormat="1">
       <c r="C392" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="393" spans="2:3" s="91" customFormat="1"/>
@@ -40081,12 +40082,12 @@
     <row r="402" spans="2:3" s="91" customFormat="1"/>
     <row r="403" spans="2:3" s="91" customFormat="1">
       <c r="B403" s="91" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="404" spans="2:3" s="91" customFormat="1">
       <c r="C404" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="405" spans="2:3" s="91" customFormat="1"/>
@@ -40100,12 +40101,12 @@
     <row r="413" spans="2:3" s="91" customFormat="1"/>
     <row r="414" spans="2:3" s="91" customFormat="1">
       <c r="B414" s="91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="415" spans="2:3" s="91" customFormat="1">
       <c r="C415" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="416" spans="2:3" s="91" customFormat="1"/>
@@ -40120,12 +40121,12 @@
     <row r="425" spans="2:3" s="91" customFormat="1"/>
     <row r="426" spans="2:3" s="91" customFormat="1">
       <c r="B426" s="91" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="427" spans="2:3" s="91" customFormat="1">
       <c r="C427" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="428" spans="2:3" s="91" customFormat="1"/>
@@ -40139,12 +40140,12 @@
     <row r="436" spans="2:3" s="91" customFormat="1"/>
     <row r="437" spans="2:3" s="91" customFormat="1">
       <c r="B437" s="91" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="438" spans="2:3" s="91" customFormat="1">
       <c r="C438" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="439" spans="2:3" s="91" customFormat="1"/>
@@ -40157,12 +40158,12 @@
     <row r="446" spans="2:3" s="91" customFormat="1"/>
     <row r="447" spans="2:3" s="91" customFormat="1">
       <c r="B447" s="91" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="448" spans="2:3" s="91" customFormat="1">
       <c r="C448" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="449" spans="2:3" s="91" customFormat="1"/>
@@ -40177,12 +40178,12 @@
     <row r="458" spans="2:3" s="91" customFormat="1"/>
     <row r="459" spans="2:3" s="91" customFormat="1">
       <c r="B459" s="91" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="460" spans="2:3" s="91" customFormat="1">
       <c r="C460" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="461" spans="2:3" s="91" customFormat="1"/>
@@ -40217,10 +40218,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" s="106" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>947</v>
-      </c>
-      <c r="B1" s="107" t="s">
-        <v>948</v>
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
@@ -40228,13 +40229,13 @@
       <c r="F1" s="107"/>
       <c r="G1" s="107"/>
       <c r="K1" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="L1" s="110" t="s">
+        <v>979</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>981</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>980</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
@@ -40243,7 +40244,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D2" s="107">
         <v>1</v>
@@ -40252,7 +40253,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G2" s="107"/>
       <c r="K2" s="111"/>
@@ -40269,7 +40270,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D3" s="107">
         <v>3</v>
@@ -40278,10 +40279,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K3" s="111"/>
       <c r="L3" s="111">
@@ -40297,7 +40298,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D4" s="107">
         <v>3</v>
@@ -40306,10 +40307,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K4" s="111"/>
       <c r="L4" s="111">
@@ -40325,7 +40326,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D5" s="107">
         <v>0.5</v>
@@ -40334,14 +40335,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K5" s="111"/>
       <c r="L5" s="111" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M5" s="111">
         <v>0.5</v>
@@ -40353,7 +40354,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D6" s="107">
         <v>0.5</v>
@@ -40362,10 +40363,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K6" s="111"/>
       <c r="L6" s="111"/>
@@ -40377,7 +40378,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D7" s="107">
         <v>1</v>
@@ -40386,17 +40387,17 @@
         <v>1</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18">
       <c r="A8" s="106"/>
       <c r="B8" s="107"/>
       <c r="C8" s="108" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D8" s="106">
         <f>SUM(D2:D7)</f>
@@ -40418,7 +40419,7 @@
     <row r="10" spans="1:13" ht="18">
       <c r="A10" s="106"/>
       <c r="B10" s="107" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C10" s="107"/>
       <c r="D10" s="107"/>
@@ -40432,7 +40433,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D11" s="107">
         <v>2</v>
@@ -40441,10 +40442,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="107" t="s">
+        <v>963</v>
+      </c>
+      <c r="G11" s="107" t="s">
         <v>964</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
@@ -40453,7 +40454,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D12" s="107">
         <v>2</v>
@@ -40462,10 +40463,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18">
@@ -40474,7 +40475,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D13" s="107">
         <v>0.5</v>
@@ -40483,10 +40484,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18">
@@ -40495,7 +40496,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D14" s="109">
         <v>1.5</v>
@@ -40504,10 +40505,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18">
@@ -40516,7 +40517,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D15" s="109">
         <v>1.5</v>
@@ -40525,10 +40526,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18">
@@ -40537,17 +40538,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D16" s="109"/>
       <c r="E16" s="109">
         <v>2</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
@@ -40556,17 +40557,17 @@
         <v>7</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="109">
         <v>2</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18">
@@ -40575,24 +40576,24 @@
         <v>8</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D18" s="109"/>
       <c r="E18" s="109">
         <v>2</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
       <c r="A19" s="106"/>
       <c r="B19" s="107"/>
       <c r="C19" s="108" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D19" s="106">
         <f>SUM(D11:D18)</f>
@@ -40604,7 +40605,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="B21" s="107" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
@@ -40616,7 +40617,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D22" s="107">
         <v>3</v>
@@ -40625,7 +40626,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25">
@@ -40633,7 +40634,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D23" s="107">
         <v>0.5</v>
@@ -40642,7 +40643,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25">
@@ -40650,7 +40651,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D24" s="107">
         <v>0.5</v>
@@ -40659,7 +40660,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25">
@@ -40667,7 +40668,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D25" s="107">
         <v>1</v>
@@ -40676,7 +40677,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25">
@@ -40684,7 +40685,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D26" s="107">
         <v>1</v>
@@ -40693,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25">
@@ -40701,7 +40702,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D27" s="107">
         <v>1</v>
@@ -40710,7 +40711,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25">
@@ -40718,7 +40719,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D28" s="107">
         <v>0.5</v>
@@ -40727,7 +40728,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25">
@@ -40735,7 +40736,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D29" s="107">
         <v>0.5</v>
@@ -40744,7 +40745,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25">
@@ -40752,7 +40753,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D30" s="107">
         <v>1</v>
@@ -40761,7 +40762,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25">
@@ -40769,7 +40770,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D31" s="107">
         <v>0.5</v>
@@ -40778,7 +40779,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25">
@@ -40786,7 +40787,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D32" s="107">
         <v>2</v>
@@ -40795,7 +40796,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25">
@@ -40803,7 +40804,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D33" s="107">
         <v>0.5</v>
@@ -40812,7 +40813,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25">
@@ -40820,7 +40821,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D34" s="107">
         <v>1</v>
@@ -40829,7 +40830,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25">
@@ -40837,7 +40838,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D35" s="109">
         <v>3</v>
@@ -40846,13 +40847,13 @@
         <v>2</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18">
       <c r="B36" s="107"/>
       <c r="C36" s="108" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D36" s="106">
         <f>SUM(D22:D35)</f>
@@ -40882,132 +40883,132 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="114" customFormat="1"/>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="114" customFormat="1"/>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -41054,7 +41055,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="21">
       <c r="C1" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -41114,14 +41115,14 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -41214,7 +41215,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -41268,7 +41269,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -41394,7 +41395,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -41408,14 +41409,14 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -41429,14 +41430,14 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -41454,7 +41455,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -41472,7 +41473,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -41486,14 +41487,14 @@
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -41507,7 +41508,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -41530,7 +41531,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -41576,7 +41577,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="6"/>
@@ -41610,7 +41611,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -41684,7 +41685,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -41705,7 +41706,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -41732,7 +41733,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -41763,7 +41764,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -41782,7 +41783,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -41796,14 +41797,14 @@
     </row>
     <row r="61" spans="1:16" ht="33">
       <c r="A61" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -41817,17 +41818,17 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>869</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>870</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -41841,7 +41842,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="B63" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -41849,7 +41850,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -41862,7 +41863,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="B64" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -41871,7 +41872,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -41883,7 +41884,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="B65" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -41891,7 +41892,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -41909,7 +41910,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -41925,7 +41926,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -41938,7 +41939,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="B68" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -41947,7 +41948,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -41958,7 +41959,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="B69" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -41966,7 +41967,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -41978,7 +41979,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="B70" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -41986,7 +41987,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -41997,17 +41998,17 @@
     </row>
     <row r="71" spans="1:18" ht="33">
       <c r="A71" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>885</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>886</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -42019,7 +42020,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -42027,7 +42028,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -42038,13 +42039,13 @@
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -42057,16 +42058,16 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>891</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>892</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -42080,7 +42081,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -42101,7 +42102,7 @@
       <c r="D76" s="3"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -42119,7 +42120,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -42132,7 +42133,7 @@
     </row>
     <row r="78" spans="1:18" ht="33">
       <c r="B78" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -42141,7 +42142,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -42153,10 +42154,10 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>896</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -42164,7 +42165,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -42179,10 +42180,10 @@
         <v>332</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>897</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>898</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
@@ -42190,7 +42191,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -42202,7 +42203,7 @@
     <row r="81" spans="1:15">
       <c r="A81" s="5"/>
       <c r="B81" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>332</v>
@@ -42213,7 +42214,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -42229,7 +42230,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -42246,7 +42247,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -42272,66 +42273,66 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="G85" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="H86" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="H87" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="66">
       <c r="B88" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>903</v>
       </c>
       <c r="D88" s="3"/>
       <c r="H88" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="B90" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="H90" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="H91" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -42348,14 +42349,14 @@
     </row>
     <row r="95" spans="1:15">
       <c r="B95" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:15">
       <c r="B96" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -42465,7 +42466,7 @@
     </row>
     <row r="110" spans="2:25">
       <c r="B110" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="7"/>
@@ -42475,7 +42476,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="9"/>
       <c r="J110" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="6"/>
@@ -42495,7 +42496,7 @@
     </row>
     <row r="111" spans="2:25">
       <c r="B111" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="7"/>
@@ -42672,7 +42673,7 @@
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y116" s="9"/>
     </row>
@@ -42920,7 +42921,7 @@
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
       <c r="T124" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
@@ -43138,7 +43139,7 @@
         <v>174</v>
       </c>
       <c r="M132" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -43168,7 +43169,7 @@
         <v>176</v>
       </c>
       <c r="M133" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
@@ -43241,7 +43242,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -43287,11 +43288,11 @@
     </row>
     <row r="138" spans="2:25">
       <c r="B138" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -43321,7 +43322,7 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -43346,7 +43347,7 @@
     <row r="140" spans="2:25">
       <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -43358,7 +43359,7 @@
     <row r="141" spans="2:25">
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -43370,7 +43371,7 @@
     <row r="142" spans="2:25">
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -43401,8 +43402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -45028,8 +45029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y329"/>
   <sheetViews>
-    <sheetView topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView topLeftCell="B89" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -46133,7 +46134,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="115" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -47003,7 +47004,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="7"/>
       <c r="G94" s="115" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
@@ -48059,7 +48060,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
@@ -48089,7 +48090,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="89" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F133" s="89"/>
       <c r="G133" s="89"/>
@@ -48118,7 +48119,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="89"/>
       <c r="F134" s="89" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G134" s="89"/>
       <c r="H134" s="89"/>
@@ -53876,8 +53877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH325"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -54010,7 +54011,7 @@
     <row r="43" spans="7:19">
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>378</v>
+        <v>1047</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -54021,7 +54022,7 @@
     <row r="44" spans="7:19">
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -54032,7 +54033,7 @@
     <row r="45" spans="7:19">
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -54044,7 +54045,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -54056,7 +54057,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="7:19">
@@ -54085,18 +54086,18 @@
     </row>
     <row r="51" spans="1:18">
       <c r="H51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="49.5">
       <c r="A52" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="21" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -54111,14 +54112,14 @@
     </row>
     <row r="53" spans="1:18" ht="33">
       <c r="A53" s="44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -54132,7 +54133,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -54151,7 +54152,7 @@
     </row>
     <row r="55" spans="1:18" ht="49.5">
       <c r="A55" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -54203,7 +54204,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -54575,7 +54576,7 @@
       <c r="I75" s="53"/>
       <c r="J75" s="53"/>
       <c r="K75" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L75" s="53"/>
       <c r="M75" s="53"/>
@@ -54733,7 +54734,7 @@
       <c r="I81" s="53"/>
       <c r="J81" s="53"/>
       <c r="K81" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L81" s="53"/>
       <c r="M81" s="53"/>
@@ -54771,7 +54772,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -54779,12 +54780,12 @@
     </row>
     <row r="87" spans="1:25">
       <c r="I87" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="J88" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -54794,12 +54795,12 @@
     </row>
     <row r="89" spans="1:25">
       <c r="J89" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="33">
       <c r="A90" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>259</v>
@@ -54807,20 +54808,20 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="L92" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="K93" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L93" s="34"/>
       <c r="M93" s="34"/>
@@ -54830,14 +54831,14 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="K94" s="34"/>
       <c r="L94" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M94" s="34"/>
       <c r="N94" s="34"/>
@@ -54846,11 +54847,11 @@
     </row>
     <row r="95" spans="1:25" ht="33">
       <c r="A95" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K95" s="34"/>
       <c r="L95" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -54859,10 +54860,10 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="K96" s="50" t="s">
         <v>405</v>
-      </c>
-      <c r="K96" s="50" t="s">
-        <v>406</v>
       </c>
       <c r="L96" s="50"/>
       <c r="M96" s="50"/>
@@ -54873,7 +54874,7 @@
     <row r="97" spans="1:23">
       <c r="K97" s="50"/>
       <c r="L97" s="50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M97" s="50"/>
       <c r="N97" s="50"/>
@@ -54883,7 +54884,7 @@
     <row r="98" spans="1:23">
       <c r="K98" s="50"/>
       <c r="L98" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M98" s="50"/>
       <c r="N98" s="50"/>
@@ -54892,35 +54893,35 @@
     </row>
     <row r="100" spans="1:23">
       <c r="I100" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="J101" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="33">
       <c r="A102" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="15"/>
       <c r="K103" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="15"/>
       <c r="K104" s="112" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L104" s="112" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -54929,16 +54930,16 @@
         <v>0</v>
       </c>
       <c r="L105" s="112" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="15"/>
       <c r="K106" s="113" t="s">
+        <v>985</v>
+      </c>
+      <c r="L106" s="112" t="s">
         <v>986</v>
-      </c>
-      <c r="L106" s="112" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -54947,59 +54948,59 @@
         <v>4</v>
       </c>
       <c r="L107" s="112" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="15"/>
       <c r="K108" s="113" t="s">
+        <v>988</v>
+      </c>
+      <c r="L108" s="112" t="s">
         <v>989</v>
-      </c>
-      <c r="L108" s="112" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="15"/>
       <c r="K109" s="113" t="s">
+        <v>990</v>
+      </c>
+      <c r="L109" s="112" t="s">
         <v>991</v>
-      </c>
-      <c r="L109" s="112" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="33">
       <c r="A110" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="W110"/>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="S113" s="20"/>
     </row>
@@ -55008,16 +55009,16 @@
     </row>
     <row r="115" spans="1:21" ht="33">
       <c r="A115" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -55050,7 +55051,7 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -55072,7 +55073,7 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -55091,7 +55092,7 @@
     <row r="124" spans="1:21">
       <c r="I124" s="4"/>
       <c r="J124" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -55104,7 +55105,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -55131,7 +55132,7 @@
     </row>
     <row r="127" spans="1:21" ht="33">
       <c r="A127" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G127" s="49"/>
       <c r="H127" s="50"/>
@@ -55151,15 +55152,15 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B128" s="51" t="s">
         <v>424</v>
-      </c>
-      <c r="B128" s="51" t="s">
-        <v>425</v>
       </c>
       <c r="G128" s="49"/>
       <c r="H128" s="49"/>
       <c r="I128" s="50" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J128" s="50"/>
       <c r="K128" s="50"/>
@@ -55176,15 +55177,15 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B129" s="51" t="s">
         <v>427</v>
-      </c>
-      <c r="B129" s="51" t="s">
-        <v>428</v>
       </c>
       <c r="G129" s="49"/>
       <c r="H129" s="50"/>
       <c r="I129" s="49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J129" s="50"/>
       <c r="K129" s="50"/>
@@ -55201,7 +55202,7 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B130" s="52"/>
       <c r="G130" s="49"/>
@@ -55229,7 +55230,7 @@
       <c r="H131" s="50"/>
       <c r="I131" s="56"/>
       <c r="J131" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K131" s="56"/>
       <c r="L131" s="50"/>
@@ -55294,7 +55295,7 @@
       <c r="H134" s="50"/>
       <c r="I134" s="56"/>
       <c r="J134" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K134" s="56" t="s">
         <v>68</v>
@@ -55316,7 +55317,7 @@
       <c r="G135" s="49"/>
       <c r="H135" s="50"/>
       <c r="I135" s="49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J135" s="49"/>
       <c r="K135" s="49"/>
@@ -55470,7 +55471,7 @@
       <c r="G143" s="49"/>
       <c r="H143" s="50"/>
       <c r="I143" s="56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J143" s="56"/>
       <c r="K143" s="56"/>
@@ -55492,7 +55493,7 @@
       <c r="H144" s="50"/>
       <c r="I144" s="56"/>
       <c r="J144" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K144" s="56"/>
       <c r="L144" s="56"/>
@@ -55512,7 +55513,7 @@
       <c r="G145" s="49"/>
       <c r="H145" s="50"/>
       <c r="I145" s="56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J145" s="56"/>
       <c r="K145" s="49"/>
@@ -55534,7 +55535,7 @@
       <c r="H146" s="50"/>
       <c r="I146" s="56"/>
       <c r="J146" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K146" s="56"/>
       <c r="L146" s="56"/>
@@ -55554,7 +55555,7 @@
       <c r="G147" s="49"/>
       <c r="H147" s="50"/>
       <c r="I147" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J147" s="56"/>
       <c r="K147" s="56"/>
@@ -55577,7 +55578,7 @@
       <c r="I148" s="56"/>
       <c r="J148" s="56"/>
       <c r="K148" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L148" s="56"/>
       <c r="M148" s="56"/>
@@ -55615,7 +55616,7 @@
       <c r="I150" s="56"/>
       <c r="J150" s="56"/>
       <c r="K150" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L150" s="56"/>
       <c r="M150" s="56"/>
@@ -55633,7 +55634,7 @@
       <c r="H151" s="50"/>
       <c r="I151" s="56"/>
       <c r="J151" s="49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K151" s="56"/>
       <c r="L151" s="56"/>
@@ -55653,7 +55654,7 @@
       <c r="I152" s="56"/>
       <c r="J152" s="49"/>
       <c r="K152" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L152" s="56"/>
       <c r="M152" s="56"/>
@@ -55672,7 +55673,7 @@
       <c r="I153" s="56"/>
       <c r="J153" s="49"/>
       <c r="K153" s="56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L153" s="56"/>
       <c r="M153" s="56"/>
@@ -55706,7 +55707,7 @@
       <c r="G155" s="49"/>
       <c r="H155" s="50"/>
       <c r="I155" s="56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J155" s="56"/>
       <c r="K155" s="56"/>
@@ -55744,7 +55745,7 @@
       <c r="I157" s="56"/>
       <c r="J157" s="56"/>
       <c r="K157" s="56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L157" s="56"/>
       <c r="M157" s="56"/>
@@ -55784,7 +55785,7 @@
       <c r="I159" s="56"/>
       <c r="J159" s="56"/>
       <c r="K159" s="56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L159" s="56"/>
       <c r="M159" s="56"/>
@@ -55818,10 +55819,10 @@
     </row>
     <row r="161" spans="1:21" ht="33">
       <c r="A161" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G161" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="G161" s="20" t="s">
-        <v>446</v>
       </c>
       <c r="H161" s="20"/>
       <c r="I161" s="20"/>
@@ -55840,29 +55841,29 @@
     </row>
     <row r="162" spans="1:21" ht="33">
       <c r="A162" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="33">
       <c r="A163" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I163" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="33">
       <c r="A164" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="I164" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -55874,7 +55875,7 @@
     <row r="165" spans="1:21">
       <c r="A165" s="46"/>
       <c r="I165" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
@@ -55886,7 +55887,7 @@
     <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="I166" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -55898,7 +55899,7 @@
     <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="I167" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -55910,7 +55911,7 @@
     <row r="168" spans="1:21" s="20" customFormat="1">
       <c r="A168" s="46"/>
       <c r="I168" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -55926,18 +55927,18 @@
     <row r="170" spans="1:21">
       <c r="A170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:21">
       <c r="I171" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U171" s="34"/>
     </row>
     <row r="172" spans="1:21">
       <c r="I172" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -55952,7 +55953,7 @@
     </row>
     <row r="174" spans="1:21">
       <c r="I174" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J174" s="34"/>
       <c r="K174" s="34"/>
@@ -55970,7 +55971,7 @@
     <row r="175" spans="1:21">
       <c r="I175" s="34"/>
       <c r="J175" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K175" s="34"/>
       <c r="L175" s="34"/>
@@ -55987,7 +55988,7 @@
     <row r="176" spans="1:21">
       <c r="I176" s="34"/>
       <c r="J176" s="55" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K176" s="55"/>
       <c r="L176" s="55"/>
@@ -56005,7 +56006,7 @@
       <c r="I177" s="34"/>
       <c r="J177" s="55"/>
       <c r="K177" s="55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L177" s="55"/>
       <c r="M177" s="55"/>
@@ -56020,11 +56021,11 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I178" s="34"/>
       <c r="L178" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M178" s="34"/>
       <c r="N178" s="34"/>
@@ -56042,7 +56043,7 @@
       <c r="I179" s="34"/>
       <c r="L179" s="34"/>
       <c r="M179" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N179" s="34"/>
       <c r="O179" s="34"/>
@@ -56057,13 +56058,13 @@
     </row>
     <row r="180" spans="1:24" ht="49.5">
       <c r="A180" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I180" s="34"/>
       <c r="L180" s="34"/>
       <c r="M180" s="34"/>
       <c r="N180" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O180" s="34"/>
       <c r="P180" s="34"/>
@@ -56079,7 +56080,7 @@
       <c r="I181" s="34"/>
       <c r="L181" s="34"/>
       <c r="M181" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N181" s="34"/>
       <c r="O181" s="34"/>
@@ -56098,7 +56099,7 @@
       <c r="L182" s="34"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O182" s="34"/>
       <c r="P182" s="34"/>
@@ -56115,7 +56116,7 @@
       <c r="L183" s="34"/>
       <c r="M183" s="34"/>
       <c r="N183" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O183" s="34"/>
       <c r="P183" s="34"/>
@@ -56132,7 +56133,7 @@
       <c r="L184" s="34"/>
       <c r="M184" s="34"/>
       <c r="N184" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O184" s="34"/>
       <c r="P184" s="34"/>
@@ -56147,7 +56148,7 @@
     <row r="185" spans="1:24">
       <c r="I185" s="34"/>
       <c r="K185" s="55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L185" s="55"/>
       <c r="M185" s="55"/>
@@ -56166,7 +56167,7 @@
       <c r="I186" s="34"/>
       <c r="K186" s="55"/>
       <c r="L186" s="55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M186" s="55"/>
       <c r="N186" s="55"/>
@@ -56184,7 +56185,7 @@
       <c r="I187" s="34"/>
       <c r="K187" s="4"/>
       <c r="L187" s="55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M187" s="55"/>
       <c r="N187" s="55"/>
@@ -56215,7 +56216,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="I189" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J189" s="34"/>
       <c r="K189" s="34"/>
@@ -56233,7 +56234,7 @@
       <c r="B190" s="35"/>
       <c r="I190" s="34"/>
       <c r="J190" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K190" s="34"/>
       <c r="L190" s="34"/>
@@ -56249,7 +56250,7 @@
     <row r="191" spans="1:24">
       <c r="I191" s="34"/>
       <c r="J191" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
@@ -56264,10 +56265,10 @@
     </row>
     <row r="192" spans="1:24" ht="33">
       <c r="A192" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="I192" s="55" t="s">
         <v>476</v>
-      </c>
-      <c r="I192" s="55" t="s">
-        <v>477</v>
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
@@ -56282,7 +56283,7 @@
     </row>
     <row r="193" spans="1:34">
       <c r="J193" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K193" s="34"/>
       <c r="L193" s="34"/>
@@ -56291,10 +56292,10 @@
     </row>
     <row r="194" spans="1:34" ht="49.5">
       <c r="A194" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="J194" s="34" t="s">
         <v>479</v>
-      </c>
-      <c r="J194" s="34" t="s">
-        <v>480</v>
       </c>
       <c r="K194" s="34"/>
       <c r="L194" s="34"/>
@@ -56303,10 +56304,10 @@
     </row>
     <row r="195" spans="1:34" ht="33">
       <c r="A195" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="J195" s="34" t="s">
         <v>481</v>
-      </c>
-      <c r="J195" s="34" t="s">
-        <v>482</v>
       </c>
       <c r="K195" s="34"/>
       <c r="L195" s="34"/>
@@ -56339,11 +56340,11 @@
     </row>
     <row r="199" spans="1:34" ht="33">
       <c r="A199" s="44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I199" s="49"/>
       <c r="J199" s="49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K199" s="49"/>
       <c r="L199" s="49"/>
@@ -56356,7 +56357,7 @@
     <row r="200" spans="1:34">
       <c r="I200" s="49"/>
       <c r="J200" s="50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K200" s="49"/>
       <c r="L200" s="49"/>
@@ -56367,12 +56368,12 @@
     </row>
     <row r="201" spans="1:34">
       <c r="A201" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I201" s="49"/>
       <c r="J201" s="49"/>
       <c r="K201" s="50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L201" s="49"/>
       <c r="M201" s="49"/>
@@ -56382,12 +56383,12 @@
     </row>
     <row r="202" spans="1:34">
       <c r="A202" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I202" s="49"/>
       <c r="J202" s="49"/>
       <c r="K202" s="50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L202" s="49"/>
       <c r="M202" s="49"/>
@@ -56400,7 +56401,7 @@
     </row>
     <row r="204" spans="1:34">
       <c r="H204" s="91" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I204" s="91"/>
       <c r="J204" s="91"/>
@@ -56424,7 +56425,7 @@
     <row r="205" spans="1:34">
       <c r="H205" s="91"/>
       <c r="I205" s="91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J205" s="91"/>
       <c r="K205" s="91"/>
@@ -56448,11 +56449,11 @@
     </row>
     <row r="206" spans="1:34" ht="33">
       <c r="A206" s="58" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H206" s="91"/>
       <c r="I206" s="91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J206" s="91"/>
       <c r="K206" s="91"/>
@@ -56474,7 +56475,7 @@
     <row r="207" spans="1:34">
       <c r="H207" s="91"/>
       <c r="I207" s="91" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J207" s="91"/>
       <c r="K207" s="91"/>
@@ -56496,7 +56497,7 @@
     <row r="208" spans="1:34">
       <c r="H208" s="91"/>
       <c r="I208" s="91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J208" s="91"/>
       <c r="K208" s="91"/>
@@ -56519,7 +56520,7 @@
       <c r="H209" s="91"/>
       <c r="I209" s="91"/>
       <c r="J209" s="91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K209" s="91"/>
       <c r="L209" s="91"/>
@@ -56542,7 +56543,7 @@
       <c r="I210" s="91"/>
       <c r="J210" s="91"/>
       <c r="K210" s="91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L210" s="91"/>
       <c r="M210" s="91"/>
@@ -56561,13 +56562,13 @@
     </row>
     <row r="211" spans="1:28">
       <c r="A211" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H211" s="91"/>
       <c r="I211" s="91"/>
       <c r="J211" s="91"/>
       <c r="K211" s="91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L211" s="91"/>
       <c r="M211" s="91"/>
@@ -56597,10 +56598,10 @@
       <c r="Q212" s="91"/>
       <c r="R212" s="91"/>
       <c r="S212" s="92" t="s">
+        <v>497</v>
+      </c>
+      <c r="T212" s="92" t="s">
         <v>498</v>
-      </c>
-      <c r="T212" s="92" t="s">
-        <v>499</v>
       </c>
       <c r="U212" s="92"/>
       <c r="V212" s="91"/>
@@ -56610,7 +56611,7 @@
     </row>
     <row r="213" spans="1:28" ht="33">
       <c r="A213" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H213" s="91"/>
       <c r="I213" s="91"/>
@@ -56625,7 +56626,7 @@
       <c r="R213" s="91"/>
       <c r="S213" s="92"/>
       <c r="T213" s="92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U213" s="92"/>
       <c r="V213" s="91"/>
@@ -56635,7 +56636,7 @@
     </row>
     <row r="214" spans="1:28" ht="33">
       <c r="A214" s="44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H214" s="91"/>
       <c r="I214" s="91"/>
@@ -56672,10 +56673,10 @@
       <c r="R215" s="91"/>
       <c r="S215" s="92"/>
       <c r="T215" s="92" t="s">
+        <v>502</v>
+      </c>
+      <c r="U215" s="92" t="s">
         <v>503</v>
-      </c>
-      <c r="U215" s="92" t="s">
-        <v>504</v>
       </c>
       <c r="V215" s="91"/>
       <c r="W215" s="91"/>
@@ -56717,10 +56718,10 @@
       <c r="Q217" s="91"/>
       <c r="R217" s="91"/>
       <c r="S217" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="T217" s="92" t="s">
         <v>505</v>
-      </c>
-      <c r="T217" s="92" t="s">
-        <v>506</v>
       </c>
       <c r="U217" s="92"/>
       <c r="V217" s="91"/>
@@ -56743,7 +56744,7 @@
       <c r="R218" s="91"/>
       <c r="S218" s="92"/>
       <c r="T218" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U218" s="92"/>
       <c r="V218" s="91"/>
@@ -56775,7 +56776,7 @@
     </row>
     <row r="220" spans="1:28">
       <c r="I220" s="57" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J220" s="57"/>
       <c r="K220" s="57"/>
@@ -56795,7 +56796,7 @@
       <c r="B221" s="44"/>
       <c r="I221" s="57"/>
       <c r="J221" s="57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K221" s="57"/>
       <c r="L221" s="57"/>
@@ -56812,12 +56813,12 @@
     </row>
     <row r="222" spans="1:28">
       <c r="A222" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I222" s="57"/>
       <c r="J222" s="57"/>
       <c r="K222" s="57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L222" s="57"/>
       <c r="M222" s="57"/>
@@ -56835,7 +56836,7 @@
       <c r="H223" s="6"/>
       <c r="I223" s="57"/>
       <c r="J223" s="57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K223" s="57"/>
       <c r="L223" s="57"/>
@@ -56854,7 +56855,7 @@
       <c r="I224" s="57"/>
       <c r="J224" s="57"/>
       <c r="K224" s="57" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L224" s="57"/>
       <c r="M224" s="57"/>
@@ -56869,13 +56870,13 @@
     </row>
     <row r="225" spans="1:21">
       <c r="A225" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B225" s="60"/>
       <c r="I225" s="57"/>
       <c r="J225" s="57"/>
       <c r="K225" s="57" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L225" s="57"/>
       <c r="M225" s="57"/>
@@ -56890,12 +56891,12 @@
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B226" s="60"/>
       <c r="I226" s="57"/>
       <c r="J226" s="57" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K226" s="57"/>
       <c r="L226" s="57"/>
@@ -56911,12 +56912,12 @@
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="61" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B227" s="60"/>
       <c r="I227" s="57"/>
       <c r="J227" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K227" s="57"/>
       <c r="L227" s="57"/>
@@ -56932,7 +56933,7 @@
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B228" s="60"/>
       <c r="I228" s="49"/>
@@ -56951,12 +56952,12 @@
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B229" s="60"/>
       <c r="I229" s="49"/>
       <c r="J229" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K229" s="49"/>
       <c r="L229" s="49"/>
@@ -56972,13 +56973,13 @@
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B230" s="60"/>
       <c r="I230" s="49"/>
       <c r="J230" s="49"/>
       <c r="K230" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L230" s="49"/>
       <c r="M230" s="49"/>
@@ -56993,13 +56994,13 @@
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B231" s="60"/>
       <c r="I231" s="49"/>
       <c r="J231" s="49"/>
       <c r="K231" s="49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L231" s="49"/>
       <c r="M231" s="49"/>
@@ -57014,7 +57015,7 @@
     </row>
     <row r="232" spans="1:21">
       <c r="A232" s="59" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B232" s="60"/>
       <c r="I232" s="49"/>
@@ -57033,12 +57034,12 @@
     </row>
     <row r="233" spans="1:21">
       <c r="A233" s="61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B233" s="60"/>
       <c r="I233" s="49"/>
       <c r="J233" s="57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K233" s="57"/>
       <c r="L233" s="57"/>
@@ -57054,12 +57055,12 @@
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="61" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B234" s="60"/>
       <c r="I234" s="49"/>
       <c r="J234" s="57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K234" s="57"/>
       <c r="L234" s="57"/>
@@ -57075,7 +57076,7 @@
     </row>
     <row r="235" spans="1:21">
       <c r="A235" s="59" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B235" s="60"/>
       <c r="I235" s="49"/>
@@ -57096,7 +57097,7 @@
       <c r="A236" s="1"/>
       <c r="I236" s="49"/>
       <c r="J236" s="57" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K236" s="57"/>
       <c r="L236" s="57"/>
@@ -57112,12 +57113,12 @@
     </row>
     <row r="237" spans="1:21">
       <c r="A237" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I237" s="49"/>
       <c r="J237" s="57"/>
       <c r="K237" s="57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L237" s="57"/>
       <c r="M237" s="57"/>
@@ -57135,7 +57136,7 @@
       <c r="I238" s="49"/>
       <c r="J238" s="57"/>
       <c r="K238" s="57" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L238" s="57"/>
       <c r="M238" s="57"/>
@@ -57150,12 +57151,12 @@
     </row>
     <row r="239" spans="1:21">
       <c r="A239" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I239" s="49"/>
       <c r="J239" s="57"/>
       <c r="K239" s="57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L239" s="57"/>
       <c r="M239" s="57"/>
@@ -57172,7 +57173,7 @@
       <c r="I240" s="49"/>
       <c r="J240" s="57"/>
       <c r="K240" s="57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L240" s="57"/>
       <c r="M240" s="57"/>
@@ -57198,7 +57199,7 @@
     <row r="242" spans="1:25" s="20" customFormat="1">
       <c r="A242" s="46"/>
       <c r="I242" s="91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J242" s="93"/>
       <c r="K242" s="93"/>
@@ -57221,7 +57222,7 @@
       <c r="A243" s="46"/>
       <c r="I243" s="91"/>
       <c r="J243" s="93" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K243" s="93"/>
       <c r="L243" s="93"/>
@@ -57244,7 +57245,7 @@
       <c r="I244" s="91"/>
       <c r="J244" s="93"/>
       <c r="K244" s="93" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L244" s="93"/>
       <c r="M244" s="93"/>
@@ -57266,7 +57267,7 @@
       <c r="I245" s="91"/>
       <c r="J245" s="93"/>
       <c r="K245" s="93" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L245" s="93"/>
       <c r="M245" s="93"/>
@@ -57307,7 +57308,7 @@
       <c r="A247" s="46"/>
       <c r="I247" s="91"/>
       <c r="J247" s="93" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K247" s="93"/>
       <c r="L247" s="93"/>
@@ -57349,7 +57350,7 @@
       <c r="A249" s="46"/>
       <c r="I249" s="91"/>
       <c r="J249" s="93" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K249" s="93"/>
       <c r="L249" s="93"/>
@@ -57393,7 +57394,7 @@
       <c r="A251" s="46"/>
       <c r="I251" s="91"/>
       <c r="J251" s="93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K251" s="93"/>
       <c r="L251" s="93"/>
@@ -57416,7 +57417,7 @@
       <c r="I252" s="91"/>
       <c r="J252" s="93"/>
       <c r="K252" s="93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L252" s="93"/>
       <c r="M252" s="93"/>
@@ -57438,7 +57439,7 @@
       <c r="I253" s="91"/>
       <c r="J253" s="93"/>
       <c r="K253" s="93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L253" s="93"/>
       <c r="M253" s="93"/>
@@ -57463,7 +57464,7 @@
       <c r="L254" s="93"/>
       <c r="M254" s="93"/>
       <c r="N254" s="93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O254" s="93"/>
       <c r="P254" s="93"/>
@@ -57505,7 +57506,7 @@
       <c r="L256" s="91"/>
       <c r="M256" s="93"/>
       <c r="N256" s="93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O256" s="93"/>
       <c r="P256" s="93"/>
@@ -57543,7 +57544,7 @@
       <c r="J258" s="91"/>
       <c r="K258" s="91"/>
       <c r="L258" s="93" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M258" s="91"/>
       <c r="N258" s="91"/>
@@ -57580,12 +57581,12 @@
     </row>
     <row r="260" spans="1:25">
       <c r="G260" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="261" spans="1:25">
       <c r="H261" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I261" s="34"/>
       <c r="J261" s="34"/>
@@ -57595,7 +57596,7 @@
     <row r="262" spans="1:25">
       <c r="H262" s="34"/>
       <c r="I262" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J262" s="34"/>
       <c r="K262" s="34"/>
@@ -57605,7 +57606,7 @@
       <c r="H263" s="34"/>
       <c r="I263" s="34"/>
       <c r="K263" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L263" s="34"/>
     </row>
@@ -57619,7 +57620,7 @@
       <c r="H265" s="34"/>
       <c r="I265" s="34"/>
       <c r="K265" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L265" s="34"/>
     </row>
@@ -57627,7 +57628,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
       <c r="K267" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="1:25">
@@ -57637,31 +57638,31 @@
     </row>
     <row r="270" spans="1:25" s="91" customFormat="1">
       <c r="A270" s="91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I270" s="91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:25" s="91" customFormat="1">
       <c r="J271" s="91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="272" spans="1:25" s="91" customFormat="1">
       <c r="A272" s="91" t="s">
+        <v>553</v>
+      </c>
+      <c r="J272" s="91" t="s">
         <v>554</v>
-      </c>
-      <c r="J272" s="91" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="91" customFormat="1">
       <c r="A273" s="91" t="s">
+        <v>555</v>
+      </c>
+      <c r="J273" s="91" t="s">
         <v>556</v>
-      </c>
-      <c r="J273" s="91" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="274" spans="1:24" s="91" customFormat="1">
@@ -57673,10 +57674,10 @@
     <row r="275" spans="1:24" s="91" customFormat="1">
       <c r="A275" s="94"/>
       <c r="T275" s="92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U275" s="95" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V275" s="96"/>
       <c r="W275" s="93"/>
@@ -57686,7 +57687,7 @@
       <c r="A276" s="94"/>
       <c r="T276" s="92"/>
       <c r="U276" s="92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V276" s="92"/>
     </row>
@@ -57702,10 +57703,10 @@
       <c r="A278" s="94"/>
       <c r="T278" s="92"/>
       <c r="U278" s="92" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V278" s="92" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="1:24" s="91" customFormat="1">
@@ -57715,7 +57716,7 @@
         <v>313</v>
       </c>
       <c r="V279" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="1:24" s="91" customFormat="1">
@@ -57725,10 +57726,10 @@
     <row r="281" spans="1:24" s="91" customFormat="1">
       <c r="A281" s="94"/>
       <c r="T281" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="U281" s="92" t="s">
         <v>505</v>
-      </c>
-      <c r="U281" s="92" t="s">
-        <v>506</v>
       </c>
       <c r="V281" s="92"/>
     </row>
@@ -57736,7 +57737,7 @@
       <c r="A282" s="94"/>
       <c r="T282" s="92"/>
       <c r="U282" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="283" spans="1:24" s="91" customFormat="1">
@@ -57748,7 +57749,7 @@
         <v>189</v>
       </c>
       <c r="U284" s="91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="285" spans="1:24" s="91" customFormat="1">
@@ -57758,7 +57759,7 @@
       <c r="A286" s="94"/>
       <c r="G286" s="93"/>
       <c r="H286" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I286" s="93"/>
       <c r="J286" s="93"/>
@@ -57774,7 +57775,7 @@
       <c r="G287" s="93"/>
       <c r="H287" s="96"/>
       <c r="I287" s="92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J287" s="96"/>
       <c r="K287" s="96"/>
@@ -57790,7 +57791,7 @@
       <c r="H288" s="96"/>
       <c r="I288" s="96"/>
       <c r="J288" s="96" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K288" s="96"/>
       <c r="L288" s="96"/>
@@ -57817,7 +57818,7 @@
       <c r="G290" s="93"/>
       <c r="H290" s="96"/>
       <c r="I290" s="91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J290" s="96"/>
       <c r="K290" s="96"/>
@@ -57833,7 +57834,7 @@
       <c r="H291" s="96"/>
       <c r="I291" s="96"/>
       <c r="J291" s="96" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K291" s="96"/>
       <c r="L291" s="96"/>
@@ -57857,7 +57858,7 @@
     <row r="293" spans="1:21" s="91" customFormat="1">
       <c r="A293" s="94"/>
       <c r="H293" s="96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J293" s="96"/>
       <c r="K293" s="96"/>
@@ -57871,7 +57872,7 @@
       <c r="A294" s="94"/>
       <c r="H294" s="93"/>
       <c r="I294" s="96" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J294" s="96"/>
       <c r="K294" s="96"/>
@@ -57886,7 +57887,7 @@
       <c r="G295" s="93"/>
       <c r="H295" s="96"/>
       <c r="I295" s="96" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J295" s="96"/>
       <c r="K295" s="96"/>
@@ -57899,7 +57900,7 @@
     <row r="296" spans="1:21" s="91" customFormat="1">
       <c r="A296" s="94"/>
       <c r="G296" s="96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I296" s="96"/>
       <c r="J296" s="96"/>
@@ -57914,7 +57915,7 @@
       <c r="A297" s="94"/>
       <c r="G297" s="93"/>
       <c r="H297" s="96" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I297" s="96"/>
       <c r="J297" s="96"/>
@@ -57930,7 +57931,7 @@
       <c r="G298" s="93"/>
       <c r="H298" s="93"/>
       <c r="I298" s="91" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P298" s="93"/>
     </row>
@@ -57939,7 +57940,7 @@
       <c r="G299" s="93"/>
       <c r="H299" s="93"/>
       <c r="I299" s="93" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J299" s="93"/>
       <c r="K299" s="93"/>
@@ -57955,7 +57956,7 @@
       <c r="H300" s="93"/>
       <c r="I300" s="93"/>
       <c r="J300" s="93" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K300" s="93"/>
       <c r="L300" s="93"/>
@@ -57967,7 +57968,7 @@
       <c r="A301" s="94"/>
       <c r="G301" s="93"/>
       <c r="H301" s="91" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L301" s="93"/>
       <c r="M301" s="93"/>
@@ -57976,10 +57977,10 @@
     <row r="302" spans="1:21" s="91" customFormat="1">
       <c r="A302" s="94"/>
       <c r="Q302" s="92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R302" s="91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S302" s="96"/>
       <c r="T302" s="93"/>
@@ -57989,7 +57990,7 @@
       <c r="A303" s="94"/>
       <c r="Q303" s="92"/>
       <c r="R303" s="92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S303" s="92"/>
     </row>
@@ -58005,10 +58006,10 @@
       <c r="A305" s="94"/>
       <c r="Q305" s="92"/>
       <c r="R305" s="92" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S305" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="306" spans="1:21" s="91" customFormat="1">
@@ -58018,10 +58019,10 @@
     <row r="307" spans="1:21" s="91" customFormat="1">
       <c r="A307" s="94"/>
       <c r="Q307" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="R307" s="92" t="s">
         <v>505</v>
-      </c>
-      <c r="R307" s="92" t="s">
-        <v>506</v>
       </c>
       <c r="S307" s="92"/>
     </row>
@@ -58029,7 +58030,7 @@
       <c r="A308" s="94"/>
       <c r="Q308" s="92"/>
       <c r="R308" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S308" s="92"/>
     </row>
@@ -58042,7 +58043,7 @@
         <v>189</v>
       </c>
       <c r="R310" s="91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="311" spans="1:21" s="91" customFormat="1">
@@ -58051,7 +58052,7 @@
     <row r="312" spans="1:21" s="91" customFormat="1">
       <c r="A312" s="94"/>
       <c r="H312" s="96" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="313" spans="1:21" s="91" customFormat="1">
@@ -58060,7 +58061,7 @@
     <row r="314" spans="1:21" s="91" customFormat="1">
       <c r="A314" s="94"/>
       <c r="H314" s="91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:21" s="91" customFormat="1">
@@ -58069,10 +58070,10 @@
     <row r="316" spans="1:21" s="91" customFormat="1">
       <c r="A316" s="94"/>
       <c r="Q316" s="92" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R316" s="91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S316" s="96"/>
       <c r="T316" s="93"/>
@@ -58082,7 +58083,7 @@
       <c r="A317" s="94"/>
       <c r="Q317" s="92"/>
       <c r="R317" s="92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S317" s="92"/>
     </row>
@@ -58098,10 +58099,10 @@
       <c r="A319" s="94"/>
       <c r="Q319" s="92"/>
       <c r="R319" s="92" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S319" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="320" spans="1:21" s="91" customFormat="1">
@@ -58111,10 +58112,10 @@
     <row r="321" spans="1:19" s="91" customFormat="1">
       <c r="A321" s="94"/>
       <c r="Q321" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="R321" s="92" t="s">
         <v>505</v>
-      </c>
-      <c r="R321" s="92" t="s">
-        <v>506</v>
       </c>
       <c r="S321" s="92"/>
     </row>
@@ -58122,7 +58123,7 @@
       <c r="A322" s="94"/>
       <c r="Q322" s="92"/>
       <c r="R322" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S322" s="92"/>
     </row>
@@ -58135,7 +58136,7 @@
         <v>189</v>
       </c>
       <c r="R324" s="91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="325" spans="1:19" s="91" customFormat="1">
@@ -58159,7 +58160,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F13"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -58169,7 +58170,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -58194,7 +58195,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -58307,7 +58308,7 @@
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -58332,7 +58333,7 @@
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -58357,7 +58358,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -58381,7 +58382,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="115" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F10" s="115"/>
       <c r="G10" s="34"/>
@@ -58406,7 +58407,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="115"/>
       <c r="F11" s="116" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -58429,7 +58430,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="115" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F12" s="116"/>
       <c r="G12" s="34"/>
@@ -58454,7 +58455,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -58498,7 +58499,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -58523,12 +58524,12 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
@@ -58549,7 +58550,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -58572,7 +58573,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -58597,7 +58598,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -58621,7 +58622,7 @@
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -58645,52 +58646,52 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="G21" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="H21" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="I21" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="J21" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="K21" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="L21" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="M21" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="N21" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="O21" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="P21" s="34" t="s">
         <v>595</v>
       </c>
-      <c r="P21" s="34" t="s">
+      <c r="Q21" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="R21" s="34" t="s">
         <v>597</v>
       </c>
-      <c r="R21" s="34" t="s">
+      <c r="S21" s="34" t="s">
         <v>598</v>
       </c>
-      <c r="S21" s="34" t="s">
+      <c r="T21" s="34" t="s">
         <v>599</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -58749,12 +58750,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="D23" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="E24" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -58779,27 +58780,27 @@
     </row>
     <row r="29" spans="1:20">
       <c r="E29" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="E35" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="E40" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -58828,19 +58829,19 @@
     <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="A1" s="1"/>
       <c r="C1" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -58849,10 +58850,10 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1">
       <c r="A4" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -58862,7 +58863,7 @@
     <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="10"/>
       <c r="E5" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -58872,7 +58873,7 @@
     <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="10"/>
       <c r="E6" s="21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -58881,10 +58882,10 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -58894,10 +58895,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -58906,31 +58907,31 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -58939,7 +58940,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -58948,7 +58949,7 @@
     <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -58959,19 +58960,19 @@
     <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -58983,25 +58984,25 @@
     <row r="16" spans="1:10">
       <c r="C16" s="3"/>
       <c r="G16" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="C17" s="3"/>
       <c r="F17" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -59014,12 +59015,12 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -59063,7 +59064,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="6"/>
@@ -59095,7 +59096,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -59205,7 +59206,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -59235,7 +59236,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -59253,7 +59254,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -59270,7 +59271,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -59287,7 +59288,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -59304,7 +59305,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -59347,7 +59348,7 @@
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="42" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="39"/>
@@ -59366,7 +59367,7 @@
       <c r="I38" s="40"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="39"/>
@@ -59379,7 +59380,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
@@ -59491,7 +59492,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
@@ -59520,55 +59521,55 @@
     <row r="47" spans="2:15">
       <c r="C47" s="3"/>
       <c r="E47" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C48" s="3"/>
       <c r="F48" s="41" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="B49" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C49" s="3"/>
       <c r="F49" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="B50" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>649</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>652</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:24">
       <c r="B52" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52" s="105" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G52" s="104"/>
       <c r="H52" s="104"/>
@@ -59580,16 +59581,16 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -59688,7 +59689,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="102"/>
       <c r="H64" s="104" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I64" s="104"/>
       <c r="J64" s="104"/>
@@ -59713,7 +59714,7 @@
       <c r="G65" s="102"/>
       <c r="H65" s="104"/>
       <c r="I65" s="105" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J65" s="104"/>
       <c r="K65" s="103"/>
@@ -59736,7 +59737,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="102"/>
       <c r="H66" s="104" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I66" s="104"/>
       <c r="J66" s="104"/>
@@ -59761,7 +59762,7 @@
       <c r="G67" s="102"/>
       <c r="H67" s="104"/>
       <c r="I67" s="104" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J67" s="104"/>
       <c r="K67" s="104"/>
@@ -59785,7 +59786,7 @@
       <c r="H68" s="105"/>
       <c r="I68" s="103"/>
       <c r="J68" s="105" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="89"/>
@@ -59807,7 +59808,7 @@
       <c r="G69" s="102"/>
       <c r="H69" s="105"/>
       <c r="I69" s="102" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J69" s="104"/>
       <c r="K69" s="103"/>
@@ -59832,7 +59833,7 @@
       <c r="H70" s="105"/>
       <c r="I70" s="102"/>
       <c r="J70" s="105" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="89"/>
@@ -59856,7 +59857,7 @@
       <c r="H71" s="105"/>
       <c r="I71" s="103"/>
       <c r="J71" s="105" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K71" s="105"/>
       <c r="L71" s="103"/>
@@ -60017,7 +60018,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -60030,7 +60031,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="W77" s="9"/>
       <c r="X77" s="6"/>
@@ -60269,7 +60270,7 @@
     <row r="87" spans="2:24">
       <c r="C87" s="3"/>
       <c r="H87" s="32" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="88" spans="2:24">
@@ -60277,16 +60278,16 @@
     </row>
     <row r="89" spans="2:24">
       <c r="B89" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="90" spans="2:24">
       <c r="B90" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C90" s="3"/>
     </row>
@@ -60391,7 +60392,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="9"/>
       <c r="I100" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J100" s="43"/>
       <c r="K100" s="6"/>
@@ -60413,7 +60414,7 @@
     </row>
     <row r="101" spans="2:26">
       <c r="B101" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C101" s="3"/>
       <c r="G101" s="6"/>
@@ -60821,7 +60822,7 @@
     <row r="115" spans="2:26">
       <c r="C115" s="3"/>
       <c r="F115" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G115" s="6"/>
       <c r="I115" s="6"/>
@@ -60892,23 +60893,23 @@
     <row r="118" spans="2:26">
       <c r="C118" s="3"/>
       <c r="F118" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="2:26">
       <c r="C119" s="3"/>
       <c r="F119" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="125" spans="2:26">
       <c r="B125" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="126" spans="2:26">
       <c r="B126" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="144" spans="7:7">
@@ -60918,58 +60919,58 @@
     </row>
     <row r="145" spans="2:10">
       <c r="H145" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="146" spans="2:10">
       <c r="G146" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="147" spans="2:10">
       <c r="H147" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="148" spans="2:10">
       <c r="H148" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="149" spans="2:10">
       <c r="I149" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="150" spans="2:10">
       <c r="H150" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="151" spans="2:10">
       <c r="I151" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="152" spans="2:10">
       <c r="I152" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="155" spans="2:10">
@@ -60979,81 +60980,81 @@
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="B161" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="B162" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="J162" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="B163" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="J163" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="K164" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="K165" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="J166" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="K167" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="K168" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="J169" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="K170" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="K171" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="J172" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="K173" s="6" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -61061,25 +61062,25 @@
         <v>54</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="K175" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="B176" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="K176" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="177" spans="2:17">
       <c r="B177" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -61098,7 +61099,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
       <c r="I178" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J178" s="32"/>
       <c r="K178" s="32"/>
@@ -61116,7 +61117,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="32"/>
       <c r="J179" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K179" s="32"/>
       <c r="L179" s="32"/>
@@ -61133,7 +61134,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="32"/>
       <c r="J180" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K180" s="32"/>
       <c r="L180" s="32"/>
@@ -61222,7 +61223,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="32"/>
       <c r="J186" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K186" s="32"/>
       <c r="L186" s="32"/>
@@ -61255,7 +61256,7 @@
       <c r="I188" s="32"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L188" s="32"/>
       <c r="M188" s="32"/>
@@ -61270,7 +61271,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="32"/>
       <c r="J189" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K189" s="32"/>
       <c r="L189" s="32"/>
@@ -61287,7 +61288,7 @@
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L190" s="32"/>
       <c r="M190" s="32"/>
@@ -61303,7 +61304,7 @@
       <c r="I191" s="32"/>
       <c r="J191" s="32"/>
       <c r="K191" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L191" s="32"/>
       <c r="M191" s="32"/>
@@ -61319,7 +61320,7 @@
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L192" s="32"/>
       <c r="M192" s="32"/>
@@ -61335,7 +61336,7 @@
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
       <c r="K193" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L193" s="32"/>
       <c r="M193" s="32"/>
@@ -61385,7 +61386,7 @@
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
       <c r="M196" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N196" s="9"/>
       <c r="O196" s="6"/>
@@ -61503,7 +61504,7 @@
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -61527,7 +61528,7 @@
     <row r="206" spans="6:17">
       <c r="F206" s="6"/>
       <c r="G206" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
@@ -61542,7 +61543,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -61554,22 +61555,22 @@
     </row>
     <row r="208" spans="6:17">
       <c r="H208" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -61585,7 +61586,7 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -61611,37 +61612,37 @@
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="S2" s="35" t="s">
         <v>716</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>717</v>
       </c>
       <c r="T2" s="35"/>
     </row>
     <row r="3" spans="1:30">
       <c r="C3" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>52</v>
@@ -61653,33 +61654,33 @@
         <v>235</v>
       </c>
       <c r="L3" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="34" t="s">
         <v>729</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>730</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="35"/>
       <c r="Y3" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z3" s="37"/>
       <c r="AA3" s="37"/>
@@ -61689,102 +61690,102 @@
     </row>
     <row r="4" spans="1:30" ht="33">
       <c r="A4" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="O4" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="P4" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="36" t="s">
         <v>748</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="T4" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="U4" s="36" t="s">
         <v>750</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="V4" s="36" t="s">
         <v>751</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="W4" s="36" t="s">
         <v>752</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="X4" s="36" t="s">
         <v>753</v>
       </c>
-      <c r="X4" s="36" t="s">
-        <v>754</v>
-      </c>
       <c r="Y4" s="38" t="s">
+        <v>748</v>
+      </c>
+      <c r="Z4" s="38" t="s">
         <v>749</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="AA4" s="38" t="s">
         <v>750</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AB4" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AC4" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AD4" s="38" t="s">
         <v>753</v>
-      </c>
-      <c r="AD4" s="38" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -61802,10 +61803,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>758</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>759</v>
       </c>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
@@ -61819,7 +61820,7 @@
     <row r="6" spans="1:30">
       <c r="A6" s="10"/>
       <c r="H6" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
@@ -61830,10 +61831,10 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>54</v>
@@ -61846,10 +61847,10 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>762</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>763</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -61859,20 +61860,20 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>764</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="I10" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="B12" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -61881,13 +61882,13 @@
     <row r="13" spans="1:30">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -61896,7 +61897,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -61908,7 +61909,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E15" s="6">
         <v>10</v>
@@ -61920,7 +61921,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E16" s="6">
         <v>20</v>
@@ -61928,7 +61929,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -61936,10 +61937,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="C18" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -62104,15 +62105,15 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -62298,7 +62299,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -62335,7 +62336,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -62345,48 +62346,48 @@
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>780</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>781</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>786</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="28" t="s">
+        <v>787</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>788</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>790</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>791</v>
       </c>
       <c r="E3" s="29">
         <v>1</v>

--- a/gd/副本系统/副本入口设计.xlsx
+++ b/gd/副本系统/副本入口设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370" activeTab="3"/>
   </bookViews>
@@ -40,7 +45,7 @@
     <definedName name="最少可显示40个汉字_英文字母数量待定">副本信息!$G$94</definedName>
     <definedName name="最少可显示6个汉字_英文字母待定">副本信息!$E$62</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -50,7 +55,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="0">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0">
+    <comment ref="Y4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1049">
   <si>
     <t>文档名称</t>
   </si>
@@ -1332,9 +1337,6 @@
   </si>
   <si>
     <t>副本信息里的怪物显示规则和这个是否是一致的</t>
-  </si>
-  <si>
-    <t>怪物介绍界面具体规则</t>
   </si>
   <si>
     <t>需一致</t>
@@ -2976,10 +2978,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>扫荡券显示规则修改</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>配置结构拆分敌方阵容为6列</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -3251,10 +3249,6 @@
   </si>
   <si>
     <t>4,5</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通小怪显示4个，分别为：物理，法术，buff和大招技能</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -3532,6 +3526,22 @@
   </si>
   <si>
     <t>敌方阵容通过副本读取insrance中会出现怪物ID显示，显示顺序根据配置表配置顺序而定（暂定需要将boss配置在小怪后）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通小怪显示5个，分别为：物理，法术，buff，大招技能和被动技能</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券显示规则修改</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物介绍界面具体规则</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加宠物技能介绍添加被动技能</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -3774,7 +3784,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3850,6 +3860,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3943,7 +3959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4193,6 +4209,8 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4217,6 +4235,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
@@ -15603,15 +15622,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15622,7 +15641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10868025" y="13487400"/>
+          <a:off x="10858500" y="13468350"/>
           <a:ext cx="476250" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16032,8 +16051,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -16047,7 +16066,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="8991600" y="13373100"/>
-          <a:ext cx="3371850" cy="657225"/>
+          <a:ext cx="3486150" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20431,6 +20450,151 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="图片 43" descr="rId5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11963400" y="13535025"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="文本框 52"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11982450" y="13515975"/>
+          <a:ext cx="476250" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="36576" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>技能Icon</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -38820,8 +38984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -39363,7 +39527,7 @@
         <v>42</v>
       </c>
       <c r="H32" s="78" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I32" s="83"/>
       <c r="J32" s="83"/>
@@ -39380,7 +39544,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="78" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -39395,7 +39559,7 @@
       <c r="F34" s="75"/>
       <c r="G34" s="74"/>
       <c r="H34" s="78" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="74"/>
@@ -39410,7 +39574,7 @@
       <c r="F35" s="75"/>
       <c r="G35" s="74"/>
       <c r="H35" s="78" t="s">
-        <v>922</v>
+        <v>1046</v>
       </c>
       <c r="I35" s="74"/>
       <c r="J35" s="74"/>
@@ -39425,7 +39589,7 @@
       <c r="F36" s="75"/>
       <c r="G36" s="74"/>
       <c r="H36" s="78" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I36" s="74"/>
       <c r="J36" s="74"/>
@@ -39440,7 +39604,7 @@
       <c r="F37" s="75"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I37" s="74"/>
       <c r="J37" s="74"/>
@@ -39457,7 +39621,7 @@
       <c r="F38" s="75"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="I38" s="74"/>
       <c r="J38" s="74"/>
@@ -39472,7 +39636,7 @@
       <c r="F39" s="75"/>
       <c r="G39" s="74"/>
       <c r="H39" s="78" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I39" s="74"/>
       <c r="J39" s="74"/>
@@ -39487,7 +39651,7 @@
       <c r="F40" s="75"/>
       <c r="G40" s="74"/>
       <c r="H40" s="78" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I40" s="74"/>
       <c r="J40" s="74"/>
@@ -39502,7 +39666,7 @@
       <c r="F41" s="75"/>
       <c r="G41" s="74"/>
       <c r="H41" s="78" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
@@ -39511,14 +39675,19 @@
     <row r="42" spans="1:11">
       <c r="A42" s="73"/>
       <c r="B42" s="74"/>
-      <c r="C42" s="77"/>
+      <c r="C42" s="77">
+        <v>42210</v>
+      </c>
       <c r="D42" s="75"/>
-      <c r="E42" s="79"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="75"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
+      <c r="G42" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>1048</v>
+      </c>
       <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
       <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11">
@@ -39633,6 +39802,7 @@
     <hyperlink ref="H39" location="最少可显示6个汉字_英文字母待定" display="修改副本信息界面副本名称字数限制规则"/>
     <hyperlink ref="H40" location="最少可显示40个汉字_英文字母数量待定" display="修改副本信息界面副本信息的字数限制规则"/>
     <hyperlink ref="H41" location="敌方阵容" display="敌方阵容等级规则补充"/>
+    <hyperlink ref="H42" location="阵容调整界面!K102" display="添加宠物技能介绍添加被动技能"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -39654,27 +39824,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="C28" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -39682,92 +39852,92 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="C66" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="C79" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="C138" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="19" customFormat="1">
       <c r="A154" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="19" customFormat="1">
       <c r="B155" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="19" customFormat="1">
       <c r="C156" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="19" customFormat="1"/>
@@ -39795,12 +39965,12 @@
     <row r="179" spans="2:3" s="19" customFormat="1"/>
     <row r="180" spans="2:3" s="19" customFormat="1">
       <c r="B180" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="181" spans="2:3" s="19" customFormat="1">
       <c r="C181" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="182" spans="2:3" s="19" customFormat="1"/>
@@ -39824,12 +39994,12 @@
     <row r="200" spans="2:3" s="19" customFormat="1"/>
     <row r="201" spans="2:3" s="19" customFormat="1">
       <c r="B201" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="202" spans="2:3" s="19" customFormat="1">
       <c r="C202" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="203" spans="2:3" s="19" customFormat="1"/>
@@ -39848,12 +40018,12 @@
     <row r="216" spans="2:3" s="19" customFormat="1"/>
     <row r="217" spans="2:3" s="19" customFormat="1">
       <c r="B217" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="218" spans="2:3" s="19" customFormat="1">
       <c r="C218" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="219" spans="2:3" s="19" customFormat="1"/>
@@ -39866,7 +40036,7 @@
     <row r="226" spans="1:3" s="19" customFormat="1"/>
     <row r="227" spans="1:3" s="19" customFormat="1">
       <c r="B227" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="19" customFormat="1"/>
@@ -39880,12 +40050,12 @@
     </row>
     <row r="233" spans="1:3" s="20" customFormat="1">
       <c r="B233" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="20" customFormat="1">
       <c r="C234" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="235" spans="1:3" s="20" customFormat="1"/>
@@ -39913,12 +40083,12 @@
     <row r="257" spans="2:3" s="20" customFormat="1"/>
     <row r="258" spans="2:3" s="20" customFormat="1">
       <c r="B258" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="259" spans="2:3" s="20" customFormat="1">
       <c r="C259" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="260" spans="2:3" s="20" customFormat="1"/>
@@ -39935,12 +40105,12 @@
     <row r="271" spans="2:3" s="20" customFormat="1"/>
     <row r="272" spans="2:3" s="20" customFormat="1">
       <c r="B272" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="273" spans="2:3" s="20" customFormat="1">
       <c r="C273" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="274" spans="2:3" s="20" customFormat="1"/>
@@ -39953,7 +40123,7 @@
     <row r="281" spans="2:3" s="20" customFormat="1"/>
     <row r="282" spans="2:3" s="20" customFormat="1">
       <c r="B282" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="283" spans="2:3" s="20" customFormat="1"/>
@@ -39965,7 +40135,7 @@
     <row r="289" spans="2:7" s="20" customFormat="1"/>
     <row r="290" spans="2:7" s="20" customFormat="1">
       <c r="B290" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -39975,7 +40145,7 @@
     </row>
     <row r="291" spans="2:7" s="91" customFormat="1">
       <c r="C291" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="292" spans="2:7" s="91" customFormat="1"/>
@@ -40017,12 +40187,12 @@
     <row r="328" spans="2:3" s="91" customFormat="1"/>
     <row r="329" spans="2:3" s="20" customFormat="1">
       <c r="B329" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="330" spans="2:3" s="20" customFormat="1">
       <c r="C330" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="331" spans="2:3" s="20" customFormat="1"/>
@@ -40037,37 +40207,37 @@
     <row r="340" spans="1:3" s="20" customFormat="1"/>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="B342" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="C343" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="368" spans="2:2">
       <c r="B368" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="391" spans="2:3" s="91" customFormat="1">
       <c r="B391" s="91" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="392" spans="2:3" s="91" customFormat="1">
       <c r="C392" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="393" spans="2:3" s="91" customFormat="1"/>
@@ -40082,12 +40252,12 @@
     <row r="402" spans="2:3" s="91" customFormat="1"/>
     <row r="403" spans="2:3" s="91" customFormat="1">
       <c r="B403" s="91" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="404" spans="2:3" s="91" customFormat="1">
       <c r="C404" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="405" spans="2:3" s="91" customFormat="1"/>
@@ -40101,12 +40271,12 @@
     <row r="413" spans="2:3" s="91" customFormat="1"/>
     <row r="414" spans="2:3" s="91" customFormat="1">
       <c r="B414" s="91" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="415" spans="2:3" s="91" customFormat="1">
       <c r="C415" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="416" spans="2:3" s="91" customFormat="1"/>
@@ -40121,12 +40291,12 @@
     <row r="425" spans="2:3" s="91" customFormat="1"/>
     <row r="426" spans="2:3" s="91" customFormat="1">
       <c r="B426" s="91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="427" spans="2:3" s="91" customFormat="1">
       <c r="C427" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="428" spans="2:3" s="91" customFormat="1"/>
@@ -40140,12 +40310,12 @@
     <row r="436" spans="2:3" s="91" customFormat="1"/>
     <row r="437" spans="2:3" s="91" customFormat="1">
       <c r="B437" s="91" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="438" spans="2:3" s="91" customFormat="1">
       <c r="C438" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="439" spans="2:3" s="91" customFormat="1"/>
@@ -40158,12 +40328,12 @@
     <row r="446" spans="2:3" s="91" customFormat="1"/>
     <row r="447" spans="2:3" s="91" customFormat="1">
       <c r="B447" s="91" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="448" spans="2:3" s="91" customFormat="1">
       <c r="C448" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="449" spans="2:3" s="91" customFormat="1"/>
@@ -40178,12 +40348,12 @@
     <row r="458" spans="2:3" s="91" customFormat="1"/>
     <row r="459" spans="2:3" s="91" customFormat="1">
       <c r="B459" s="91" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="460" spans="2:3" s="91" customFormat="1">
       <c r="C460" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="461" spans="2:3" s="91" customFormat="1"/>
@@ -40218,10 +40388,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" s="106" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B1" s="107" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
@@ -40229,13 +40399,13 @@
       <c r="F1" s="107"/>
       <c r="G1" s="107"/>
       <c r="K1" s="110" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="L1" s="110" t="s">
+        <v>977</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>979</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
@@ -40244,7 +40414,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D2" s="107">
         <v>1</v>
@@ -40253,7 +40423,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G2" s="107"/>
       <c r="K2" s="111"/>
@@ -40270,7 +40440,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D3" s="107">
         <v>3</v>
@@ -40279,10 +40449,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="107" t="s">
+        <v>947</v>
+      </c>
+      <c r="G3" s="107" t="s">
         <v>949</v>
-      </c>
-      <c r="G3" s="107" t="s">
-        <v>951</v>
       </c>
       <c r="K3" s="111"/>
       <c r="L3" s="111">
@@ -40298,7 +40468,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D4" s="107">
         <v>3</v>
@@ -40307,10 +40477,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K4" s="111"/>
       <c r="L4" s="111">
@@ -40326,7 +40496,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D5" s="107">
         <v>0.5</v>
@@ -40335,14 +40505,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K5" s="111"/>
       <c r="L5" s="111" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="M5" s="111">
         <v>0.5</v>
@@ -40354,7 +40524,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D6" s="107">
         <v>0.5</v>
@@ -40363,10 +40533,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="K6" s="111"/>
       <c r="L6" s="111"/>
@@ -40378,7 +40548,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D7" s="107">
         <v>1</v>
@@ -40387,17 +40557,17 @@
         <v>1</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18">
       <c r="A8" s="106"/>
       <c r="B8" s="107"/>
       <c r="C8" s="108" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D8" s="106">
         <f>SUM(D2:D7)</f>
@@ -40419,7 +40589,7 @@
     <row r="10" spans="1:13" ht="18">
       <c r="A10" s="106"/>
       <c r="B10" s="107" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C10" s="107"/>
       <c r="D10" s="107"/>
@@ -40433,7 +40603,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D11" s="107">
         <v>2</v>
@@ -40442,10 +40612,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
@@ -40454,7 +40624,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D12" s="107">
         <v>2</v>
@@ -40463,10 +40633,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18">
@@ -40475,7 +40645,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D13" s="107">
         <v>0.5</v>
@@ -40484,10 +40654,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18">
@@ -40496,7 +40666,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D14" s="109">
         <v>1.5</v>
@@ -40505,10 +40675,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18">
@@ -40517,7 +40687,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D15" s="109">
         <v>1.5</v>
@@ -40526,10 +40696,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18">
@@ -40538,17 +40708,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D16" s="109"/>
       <c r="E16" s="109">
         <v>2</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
@@ -40557,17 +40727,17 @@
         <v>7</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="109">
         <v>2</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18">
@@ -40576,24 +40746,24 @@
         <v>8</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D18" s="109"/>
       <c r="E18" s="109">
         <v>2</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
       <c r="A19" s="106"/>
       <c r="B19" s="107"/>
       <c r="C19" s="108" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D19" s="106">
         <f>SUM(D11:D18)</f>
@@ -40605,7 +40775,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="B21" s="107" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
@@ -40617,7 +40787,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D22" s="107">
         <v>3</v>
@@ -40626,7 +40796,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25">
@@ -40634,7 +40804,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D23" s="107">
         <v>0.5</v>
@@ -40643,7 +40813,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25">
@@ -40651,7 +40821,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D24" s="107">
         <v>0.5</v>
@@ -40660,7 +40830,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25">
@@ -40668,7 +40838,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="107">
         <v>1</v>
@@ -40677,7 +40847,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25">
@@ -40685,7 +40855,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D26" s="107">
         <v>1</v>
@@ -40694,7 +40864,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25">
@@ -40702,7 +40872,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D27" s="107">
         <v>1</v>
@@ -40711,7 +40881,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25">
@@ -40719,7 +40889,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D28" s="107">
         <v>0.5</v>
@@ -40728,7 +40898,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25">
@@ -40736,7 +40906,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D29" s="107">
         <v>0.5</v>
@@ -40745,7 +40915,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25">
@@ -40753,7 +40923,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D30" s="107">
         <v>1</v>
@@ -40762,7 +40932,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25">
@@ -40770,7 +40940,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D31" s="107">
         <v>0.5</v>
@@ -40779,7 +40949,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25">
@@ -40787,7 +40957,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D32" s="107">
         <v>2</v>
@@ -40796,7 +40966,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25">
@@ -40804,7 +40974,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D33" s="107">
         <v>0.5</v>
@@ -40813,7 +40983,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25">
@@ -40821,7 +40991,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D34" s="107">
         <v>1</v>
@@ -40830,7 +41000,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25">
@@ -40838,7 +41008,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D35" s="109">
         <v>3</v>
@@ -40847,13 +41017,13 @@
         <v>2</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18">
       <c r="B36" s="107"/>
       <c r="C36" s="108" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D36" s="106">
         <f>SUM(D22:D35)</f>
@@ -40883,132 +41053,132 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="114" customFormat="1"/>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="114" customFormat="1"/>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -41055,7 +41225,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="21">
       <c r="C1" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -41115,14 +41285,14 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -41215,7 +41385,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -41269,7 +41439,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -41395,7 +41565,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -41409,14 +41579,14 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -41430,14 +41600,14 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -41455,7 +41625,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -41473,7 +41643,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -41487,14 +41657,14 @@
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -41508,7 +41678,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -41531,7 +41701,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -41577,7 +41747,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="6"/>
@@ -41611,7 +41781,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -41685,7 +41855,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -41706,7 +41876,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -41733,7 +41903,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -41764,7 +41934,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -41783,7 +41953,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -41797,14 +41967,14 @@
     </row>
     <row r="61" spans="1:16" ht="33">
       <c r="A61" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -41818,17 +41988,17 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>868</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>869</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -41842,7 +42012,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="B63" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -41850,7 +42020,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -41863,7 +42033,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="B64" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -41872,7 +42042,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -41884,7 +42054,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="B65" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -41892,7 +42062,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -41910,7 +42080,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -41926,7 +42096,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -41939,7 +42109,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="B68" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -41948,7 +42118,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -41959,7 +42129,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="B69" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -41967,7 +42137,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -41979,7 +42149,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="B70" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -41987,7 +42157,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -41998,17 +42168,17 @@
     </row>
     <row r="71" spans="1:18" ht="33">
       <c r="A71" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>884</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>885</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -42020,7 +42190,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -42028,7 +42198,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -42039,13 +42209,13 @@
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -42058,16 +42228,16 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>890</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>891</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -42081,7 +42251,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -42102,7 +42272,7 @@
       <c r="D76" s="3"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -42120,7 +42290,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -42133,7 +42303,7 @@
     </row>
     <row r="78" spans="1:18" ht="33">
       <c r="B78" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -42142,7 +42312,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -42154,10 +42324,10 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>895</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -42165,7 +42335,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -42180,10 +42350,10 @@
         <v>332</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>897</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
@@ -42191,7 +42361,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -42203,7 +42373,7 @@
     <row r="81" spans="1:15">
       <c r="A81" s="5"/>
       <c r="B81" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>332</v>
@@ -42214,7 +42384,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -42230,7 +42400,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -42247,7 +42417,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -42273,66 +42443,66 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="G85" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="H86" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="H87" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="66">
       <c r="B88" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>902</v>
       </c>
       <c r="D88" s="3"/>
       <c r="H88" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="B90" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="H90" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="H91" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -42349,14 +42519,14 @@
     </row>
     <row r="95" spans="1:15">
       <c r="B95" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:15">
       <c r="B96" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -42466,7 +42636,7 @@
     </row>
     <row r="110" spans="2:25">
       <c r="B110" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="7"/>
@@ -42476,7 +42646,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="9"/>
       <c r="J110" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="6"/>
@@ -42496,7 +42666,7 @@
     </row>
     <row r="111" spans="2:25">
       <c r="B111" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="7"/>
@@ -42673,7 +42843,7 @@
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y116" s="9"/>
     </row>
@@ -42921,7 +43091,7 @@
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
       <c r="T124" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
@@ -43139,7 +43309,7 @@
         <v>174</v>
       </c>
       <c r="M132" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -43169,7 +43339,7 @@
         <v>176</v>
       </c>
       <c r="M133" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
@@ -43242,7 +43412,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -43288,11 +43458,11 @@
     </row>
     <row r="138" spans="2:25">
       <c r="B138" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -43322,7 +43492,7 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -43347,7 +43517,7 @@
     <row r="140" spans="2:25">
       <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -43359,7 +43529,7 @@
     <row r="141" spans="2:25">
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -43371,7 +43541,7 @@
     <row r="142" spans="2:25">
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -43402,8 +43572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -45029,8 +45199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y329"/>
   <sheetViews>
-    <sheetView topLeftCell="B89" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -46134,7 +46304,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="115" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -47004,7 +47174,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="7"/>
       <c r="G94" s="115" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
@@ -48060,7 +48230,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="39" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
@@ -48090,7 +48260,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="89" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F133" s="89"/>
       <c r="G133" s="89"/>
@@ -48119,7 +48289,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="89"/>
       <c r="F134" s="89" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G134" s="89"/>
       <c r="H134" s="89"/>
@@ -53877,8 +54047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -54011,7 +54181,7 @@
     <row r="43" spans="7:19">
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -54097,7 +54267,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -54119,7 +54289,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>385</v>
+        <v>1047</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -54133,7 +54303,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -54152,7 +54322,7 @@
     </row>
     <row r="55" spans="1:18" ht="49.5">
       <c r="A55" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -54204,7 +54374,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -54576,7 +54746,7 @@
       <c r="I75" s="53"/>
       <c r="J75" s="53"/>
       <c r="K75" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L75" s="53"/>
       <c r="M75" s="53"/>
@@ -54734,7 +54904,7 @@
       <c r="I81" s="53"/>
       <c r="J81" s="53"/>
       <c r="K81" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L81" s="53"/>
       <c r="M81" s="53"/>
@@ -54772,7 +54942,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -54780,12 +54950,12 @@
     </row>
     <row r="87" spans="1:25">
       <c r="I87" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="J88" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -54795,12 +54965,12 @@
     </row>
     <row r="89" spans="1:25">
       <c r="J89" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="33">
       <c r="A90" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>259</v>
@@ -54808,20 +54978,20 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="L92" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="K93" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L93" s="34"/>
       <c r="M93" s="34"/>
@@ -54831,14 +55001,14 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="K94" s="34"/>
       <c r="L94" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M94" s="34"/>
       <c r="N94" s="34"/>
@@ -54847,11 +55017,11 @@
     </row>
     <row r="95" spans="1:25" ht="33">
       <c r="A95" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K95" s="34"/>
       <c r="L95" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -54860,10 +55030,10 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K96" s="50" t="s">
         <v>404</v>
-      </c>
-      <c r="K96" s="50" t="s">
-        <v>405</v>
       </c>
       <c r="L96" s="50"/>
       <c r="M96" s="50"/>
@@ -54874,7 +55044,7 @@
     <row r="97" spans="1:23">
       <c r="K97" s="50"/>
       <c r="L97" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M97" s="50"/>
       <c r="N97" s="50"/>
@@ -54884,7 +55054,7 @@
     <row r="98" spans="1:23">
       <c r="K98" s="50"/>
       <c r="L98" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M98" s="50"/>
       <c r="N98" s="50"/>
@@ -54893,35 +55063,41 @@
     </row>
     <row r="100" spans="1:23">
       <c r="I100" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="J101" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="33">
       <c r="A102" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>983</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="K102" s="117" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L102" s="117"/>
+      <c r="M102" s="117"/>
+      <c r="N102" s="117"/>
+      <c r="O102" s="117"/>
+      <c r="P102" s="117"/>
+      <c r="Q102" s="117"/>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="15"/>
       <c r="K103" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="15"/>
       <c r="K104" s="112" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L104" s="112" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -54930,16 +55106,16 @@
         <v>0</v>
       </c>
       <c r="L105" s="112" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="15"/>
       <c r="K106" s="113" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L106" s="112" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -54948,39 +55124,39 @@
         <v>4</v>
       </c>
       <c r="L107" s="112" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="15"/>
       <c r="K108" s="113" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="L108" s="112" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="15"/>
       <c r="K109" s="113" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="L109" s="112" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="33">
       <c r="A110" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="W110"/>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>380</v>
@@ -54988,19 +55164,19 @@
     </row>
     <row r="112" spans="1:23">
       <c r="A112" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="S113" s="20"/>
     </row>
@@ -55009,16 +55185,16 @@
     </row>
     <row r="115" spans="1:21" ht="33">
       <c r="A115" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -55051,7 +55227,7 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -55073,7 +55249,7 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -55092,7 +55268,7 @@
     <row r="124" spans="1:21">
       <c r="I124" s="4"/>
       <c r="J124" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -55105,7 +55281,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -55132,7 +55308,7 @@
     </row>
     <row r="127" spans="1:21" ht="33">
       <c r="A127" s="44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G127" s="49"/>
       <c r="H127" s="50"/>
@@ -55152,15 +55328,15 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" s="51" t="s">
         <v>423</v>
-      </c>
-      <c r="B128" s="51" t="s">
-        <v>424</v>
       </c>
       <c r="G128" s="49"/>
       <c r="H128" s="49"/>
       <c r="I128" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J128" s="50"/>
       <c r="K128" s="50"/>
@@ -55177,15 +55353,15 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B129" s="51" t="s">
         <v>426</v>
-      </c>
-      <c r="B129" s="51" t="s">
-        <v>427</v>
       </c>
       <c r="G129" s="49"/>
       <c r="H129" s="50"/>
       <c r="I129" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J129" s="50"/>
       <c r="K129" s="50"/>
@@ -55202,7 +55378,7 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B130" s="52"/>
       <c r="G130" s="49"/>
@@ -55230,7 +55406,7 @@
       <c r="H131" s="50"/>
       <c r="I131" s="56"/>
       <c r="J131" s="56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K131" s="56"/>
       <c r="L131" s="50"/>
@@ -55295,7 +55471,7 @@
       <c r="H134" s="50"/>
       <c r="I134" s="56"/>
       <c r="J134" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K134" s="56" t="s">
         <v>68</v>
@@ -55317,7 +55493,7 @@
       <c r="G135" s="49"/>
       <c r="H135" s="50"/>
       <c r="I135" s="49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J135" s="49"/>
       <c r="K135" s="49"/>
@@ -55471,7 +55647,7 @@
       <c r="G143" s="49"/>
       <c r="H143" s="50"/>
       <c r="I143" s="56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J143" s="56"/>
       <c r="K143" s="56"/>
@@ -55493,7 +55669,7 @@
       <c r="H144" s="50"/>
       <c r="I144" s="56"/>
       <c r="J144" s="49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K144" s="56"/>
       <c r="L144" s="56"/>
@@ -55513,7 +55689,7 @@
       <c r="G145" s="49"/>
       <c r="H145" s="50"/>
       <c r="I145" s="56" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J145" s="56"/>
       <c r="K145" s="49"/>
@@ -55535,7 +55711,7 @@
       <c r="H146" s="50"/>
       <c r="I146" s="56"/>
       <c r="J146" s="56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K146" s="56"/>
       <c r="L146" s="56"/>
@@ -55555,7 +55731,7 @@
       <c r="G147" s="49"/>
       <c r="H147" s="50"/>
       <c r="I147" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J147" s="56"/>
       <c r="K147" s="56"/>
@@ -55578,7 +55754,7 @@
       <c r="I148" s="56"/>
       <c r="J148" s="56"/>
       <c r="K148" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L148" s="56"/>
       <c r="M148" s="56"/>
@@ -55616,7 +55792,7 @@
       <c r="I150" s="56"/>
       <c r="J150" s="56"/>
       <c r="K150" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L150" s="56"/>
       <c r="M150" s="56"/>
@@ -55634,7 +55810,7 @@
       <c r="H151" s="50"/>
       <c r="I151" s="56"/>
       <c r="J151" s="49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K151" s="56"/>
       <c r="L151" s="56"/>
@@ -55654,7 +55830,7 @@
       <c r="I152" s="56"/>
       <c r="J152" s="49"/>
       <c r="K152" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L152" s="56"/>
       <c r="M152" s="56"/>
@@ -55673,7 +55849,7 @@
       <c r="I153" s="56"/>
       <c r="J153" s="49"/>
       <c r="K153" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L153" s="56"/>
       <c r="M153" s="56"/>
@@ -55707,7 +55883,7 @@
       <c r="G155" s="49"/>
       <c r="H155" s="50"/>
       <c r="I155" s="56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J155" s="56"/>
       <c r="K155" s="56"/>
@@ -55745,7 +55921,7 @@
       <c r="I157" s="56"/>
       <c r="J157" s="56"/>
       <c r="K157" s="56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L157" s="56"/>
       <c r="M157" s="56"/>
@@ -55785,7 +55961,7 @@
       <c r="I159" s="56"/>
       <c r="J159" s="56"/>
       <c r="K159" s="56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L159" s="56"/>
       <c r="M159" s="56"/>
@@ -55819,10 +55995,10 @@
     </row>
     <row r="161" spans="1:21" ht="33">
       <c r="A161" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G161" s="20" t="s">
         <v>444</v>
-      </c>
-      <c r="G161" s="20" t="s">
-        <v>445</v>
       </c>
       <c r="H161" s="20"/>
       <c r="I161" s="20"/>
@@ -55841,29 +56017,29 @@
     </row>
     <row r="162" spans="1:21" ht="33">
       <c r="A162" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="33">
       <c r="A163" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="I163" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="33">
       <c r="A164" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="I164" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -55875,7 +56051,7 @@
     <row r="165" spans="1:21">
       <c r="A165" s="46"/>
       <c r="I165" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
@@ -55887,7 +56063,7 @@
     <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="I166" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -55899,7 +56075,7 @@
     <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="I167" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -55911,7 +56087,7 @@
     <row r="168" spans="1:21" s="20" customFormat="1">
       <c r="A168" s="46"/>
       <c r="I168" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -55927,18 +56103,18 @@
     <row r="170" spans="1:21">
       <c r="A170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:21">
       <c r="I171" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U171" s="34"/>
     </row>
     <row r="172" spans="1:21">
       <c r="I172" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -55953,7 +56129,7 @@
     </row>
     <row r="174" spans="1:21">
       <c r="I174" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J174" s="34"/>
       <c r="K174" s="34"/>
@@ -55971,7 +56147,7 @@
     <row r="175" spans="1:21">
       <c r="I175" s="34"/>
       <c r="J175" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K175" s="34"/>
       <c r="L175" s="34"/>
@@ -55988,7 +56164,7 @@
     <row r="176" spans="1:21">
       <c r="I176" s="34"/>
       <c r="J176" s="55" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K176" s="55"/>
       <c r="L176" s="55"/>
@@ -56006,7 +56182,7 @@
       <c r="I177" s="34"/>
       <c r="J177" s="55"/>
       <c r="K177" s="55" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L177" s="55"/>
       <c r="M177" s="55"/>
@@ -56021,11 +56197,11 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I178" s="34"/>
       <c r="L178" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M178" s="34"/>
       <c r="N178" s="34"/>
@@ -56043,7 +56219,7 @@
       <c r="I179" s="34"/>
       <c r="L179" s="34"/>
       <c r="M179" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N179" s="34"/>
       <c r="O179" s="34"/>
@@ -56058,13 +56234,13 @@
     </row>
     <row r="180" spans="1:24" ht="49.5">
       <c r="A180" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I180" s="34"/>
       <c r="L180" s="34"/>
       <c r="M180" s="34"/>
       <c r="N180" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O180" s="34"/>
       <c r="P180" s="34"/>
@@ -56080,7 +56256,7 @@
       <c r="I181" s="34"/>
       <c r="L181" s="34"/>
       <c r="M181" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N181" s="34"/>
       <c r="O181" s="34"/>
@@ -56099,7 +56275,7 @@
       <c r="L182" s="34"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O182" s="34"/>
       <c r="P182" s="34"/>
@@ -56116,7 +56292,7 @@
       <c r="L183" s="34"/>
       <c r="M183" s="34"/>
       <c r="N183" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O183" s="34"/>
       <c r="P183" s="34"/>
@@ -56133,7 +56309,7 @@
       <c r="L184" s="34"/>
       <c r="M184" s="34"/>
       <c r="N184" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O184" s="34"/>
       <c r="P184" s="34"/>
@@ -56148,7 +56324,7 @@
     <row r="185" spans="1:24">
       <c r="I185" s="34"/>
       <c r="K185" s="55" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L185" s="55"/>
       <c r="M185" s="55"/>
@@ -56167,7 +56343,7 @@
       <c r="I186" s="34"/>
       <c r="K186" s="55"/>
       <c r="L186" s="55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M186" s="55"/>
       <c r="N186" s="55"/>
@@ -56185,7 +56361,7 @@
       <c r="I187" s="34"/>
       <c r="K187" s="4"/>
       <c r="L187" s="55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M187" s="55"/>
       <c r="N187" s="55"/>
@@ -56216,7 +56392,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="I189" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J189" s="34"/>
       <c r="K189" s="34"/>
@@ -56234,7 +56410,7 @@
       <c r="B190" s="35"/>
       <c r="I190" s="34"/>
       <c r="J190" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K190" s="34"/>
       <c r="L190" s="34"/>
@@ -56250,7 +56426,7 @@
     <row r="191" spans="1:24">
       <c r="I191" s="34"/>
       <c r="J191" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
@@ -56265,10 +56441,10 @@
     </row>
     <row r="192" spans="1:24" ht="33">
       <c r="A192" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="I192" s="55" t="s">
         <v>475</v>
-      </c>
-      <c r="I192" s="55" t="s">
-        <v>476</v>
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
@@ -56283,7 +56459,7 @@
     </row>
     <row r="193" spans="1:34">
       <c r="J193" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K193" s="34"/>
       <c r="L193" s="34"/>
@@ -56292,10 +56468,10 @@
     </row>
     <row r="194" spans="1:34" ht="49.5">
       <c r="A194" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="J194" s="34" t="s">
         <v>478</v>
-      </c>
-      <c r="J194" s="34" t="s">
-        <v>479</v>
       </c>
       <c r="K194" s="34"/>
       <c r="L194" s="34"/>
@@ -56304,10 +56480,10 @@
     </row>
     <row r="195" spans="1:34" ht="33">
       <c r="A195" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="J195" s="34" t="s">
         <v>480</v>
-      </c>
-      <c r="J195" s="34" t="s">
-        <v>481</v>
       </c>
       <c r="K195" s="34"/>
       <c r="L195" s="34"/>
@@ -56340,11 +56516,11 @@
     </row>
     <row r="199" spans="1:34" ht="33">
       <c r="A199" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I199" s="49"/>
       <c r="J199" s="49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K199" s="49"/>
       <c r="L199" s="49"/>
@@ -56357,7 +56533,7 @@
     <row r="200" spans="1:34">
       <c r="I200" s="49"/>
       <c r="J200" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K200" s="49"/>
       <c r="L200" s="49"/>
@@ -56368,12 +56544,12 @@
     </row>
     <row r="201" spans="1:34">
       <c r="A201" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I201" s="49"/>
       <c r="J201" s="49"/>
       <c r="K201" s="50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L201" s="49"/>
       <c r="M201" s="49"/>
@@ -56383,12 +56559,12 @@
     </row>
     <row r="202" spans="1:34">
       <c r="A202" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I202" s="49"/>
       <c r="J202" s="49"/>
       <c r="K202" s="50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L202" s="49"/>
       <c r="M202" s="49"/>
@@ -56401,7 +56577,7 @@
     </row>
     <row r="204" spans="1:34">
       <c r="H204" s="91" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I204" s="91"/>
       <c r="J204" s="91"/>
@@ -56425,7 +56601,7 @@
     <row r="205" spans="1:34">
       <c r="H205" s="91"/>
       <c r="I205" s="91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J205" s="91"/>
       <c r="K205" s="91"/>
@@ -56449,11 +56625,11 @@
     </row>
     <row r="206" spans="1:34" ht="33">
       <c r="A206" s="58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H206" s="91"/>
       <c r="I206" s="91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J206" s="91"/>
       <c r="K206" s="91"/>
@@ -56475,7 +56651,7 @@
     <row r="207" spans="1:34">
       <c r="H207" s="91"/>
       <c r="I207" s="91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J207" s="91"/>
       <c r="K207" s="91"/>
@@ -56497,7 +56673,7 @@
     <row r="208" spans="1:34">
       <c r="H208" s="91"/>
       <c r="I208" s="91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J208" s="91"/>
       <c r="K208" s="91"/>
@@ -56520,7 +56696,7 @@
       <c r="H209" s="91"/>
       <c r="I209" s="91"/>
       <c r="J209" s="91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K209" s="91"/>
       <c r="L209" s="91"/>
@@ -56543,7 +56719,7 @@
       <c r="I210" s="91"/>
       <c r="J210" s="91"/>
       <c r="K210" s="91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L210" s="91"/>
       <c r="M210" s="91"/>
@@ -56562,13 +56738,13 @@
     </row>
     <row r="211" spans="1:28">
       <c r="A211" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H211" s="91"/>
       <c r="I211" s="91"/>
       <c r="J211" s="91"/>
       <c r="K211" s="91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L211" s="91"/>
       <c r="M211" s="91"/>
@@ -56598,10 +56774,10 @@
       <c r="Q212" s="91"/>
       <c r="R212" s="91"/>
       <c r="S212" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="T212" s="92" t="s">
         <v>497</v>
-      </c>
-      <c r="T212" s="92" t="s">
-        <v>498</v>
       </c>
       <c r="U212" s="92"/>
       <c r="V212" s="91"/>
@@ -56611,7 +56787,7 @@
     </row>
     <row r="213" spans="1:28" ht="33">
       <c r="A213" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H213" s="91"/>
       <c r="I213" s="91"/>
@@ -56626,7 +56802,7 @@
       <c r="R213" s="91"/>
       <c r="S213" s="92"/>
       <c r="T213" s="92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U213" s="92"/>
       <c r="V213" s="91"/>
@@ -56636,7 +56812,7 @@
     </row>
     <row r="214" spans="1:28" ht="33">
       <c r="A214" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H214" s="91"/>
       <c r="I214" s="91"/>
@@ -56673,10 +56849,10 @@
       <c r="R215" s="91"/>
       <c r="S215" s="92"/>
       <c r="T215" s="92" t="s">
+        <v>501</v>
+      </c>
+      <c r="U215" s="92" t="s">
         <v>502</v>
-      </c>
-      <c r="U215" s="92" t="s">
-        <v>503</v>
       </c>
       <c r="V215" s="91"/>
       <c r="W215" s="91"/>
@@ -56718,10 +56894,10 @@
       <c r="Q217" s="91"/>
       <c r="R217" s="91"/>
       <c r="S217" s="92" t="s">
+        <v>503</v>
+      </c>
+      <c r="T217" s="92" t="s">
         <v>504</v>
-      </c>
-      <c r="T217" s="92" t="s">
-        <v>505</v>
       </c>
       <c r="U217" s="92"/>
       <c r="V217" s="91"/>
@@ -56744,7 +56920,7 @@
       <c r="R218" s="91"/>
       <c r="S218" s="92"/>
       <c r="T218" s="92" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U218" s="92"/>
       <c r="V218" s="91"/>
@@ -56776,7 +56952,7 @@
     </row>
     <row r="220" spans="1:28">
       <c r="I220" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J220" s="57"/>
       <c r="K220" s="57"/>
@@ -56796,7 +56972,7 @@
       <c r="B221" s="44"/>
       <c r="I221" s="57"/>
       <c r="J221" s="57" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K221" s="57"/>
       <c r="L221" s="57"/>
@@ -56813,12 +56989,12 @@
     </row>
     <row r="222" spans="1:28">
       <c r="A222" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I222" s="57"/>
       <c r="J222" s="57"/>
       <c r="K222" s="57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L222" s="57"/>
       <c r="M222" s="57"/>
@@ -56836,7 +57012,7 @@
       <c r="H223" s="6"/>
       <c r="I223" s="57"/>
       <c r="J223" s="57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K223" s="57"/>
       <c r="L223" s="57"/>
@@ -56855,7 +57031,7 @@
       <c r="I224" s="57"/>
       <c r="J224" s="57"/>
       <c r="K224" s="57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L224" s="57"/>
       <c r="M224" s="57"/>
@@ -56870,13 +57046,13 @@
     </row>
     <row r="225" spans="1:21">
       <c r="A225" s="59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B225" s="60"/>
       <c r="I225" s="57"/>
       <c r="J225" s="57"/>
       <c r="K225" s="57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L225" s="57"/>
       <c r="M225" s="57"/>
@@ -56891,12 +57067,12 @@
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="59" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B226" s="60"/>
       <c r="I226" s="57"/>
       <c r="J226" s="57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K226" s="57"/>
       <c r="L226" s="57"/>
@@ -56912,12 +57088,12 @@
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B227" s="60"/>
       <c r="I227" s="57"/>
       <c r="J227" s="57" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K227" s="57"/>
       <c r="L227" s="57"/>
@@ -56933,7 +57109,7 @@
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="59" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B228" s="60"/>
       <c r="I228" s="49"/>
@@ -56952,12 +57128,12 @@
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B229" s="60"/>
       <c r="I229" s="49"/>
       <c r="J229" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K229" s="49"/>
       <c r="L229" s="49"/>
@@ -56973,13 +57149,13 @@
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="61" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B230" s="60"/>
       <c r="I230" s="49"/>
       <c r="J230" s="49"/>
       <c r="K230" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L230" s="49"/>
       <c r="M230" s="49"/>
@@ -56994,13 +57170,13 @@
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B231" s="60"/>
       <c r="I231" s="49"/>
       <c r="J231" s="49"/>
       <c r="K231" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L231" s="49"/>
       <c r="M231" s="49"/>
@@ -57015,7 +57191,7 @@
     </row>
     <row r="232" spans="1:21">
       <c r="A232" s="59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B232" s="60"/>
       <c r="I232" s="49"/>
@@ -57034,12 +57210,12 @@
     </row>
     <row r="233" spans="1:21">
       <c r="A233" s="61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B233" s="60"/>
       <c r="I233" s="49"/>
       <c r="J233" s="57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K233" s="57"/>
       <c r="L233" s="57"/>
@@ -57055,12 +57231,12 @@
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B234" s="60"/>
       <c r="I234" s="49"/>
       <c r="J234" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K234" s="57"/>
       <c r="L234" s="57"/>
@@ -57076,7 +57252,7 @@
     </row>
     <row r="235" spans="1:21">
       <c r="A235" s="59" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B235" s="60"/>
       <c r="I235" s="49"/>
@@ -57097,7 +57273,7 @@
       <c r="A236" s="1"/>
       <c r="I236" s="49"/>
       <c r="J236" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K236" s="57"/>
       <c r="L236" s="57"/>
@@ -57113,12 +57289,12 @@
     </row>
     <row r="237" spans="1:21">
       <c r="A237" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I237" s="49"/>
       <c r="J237" s="57"/>
       <c r="K237" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L237" s="57"/>
       <c r="M237" s="57"/>
@@ -57136,7 +57312,7 @@
       <c r="I238" s="49"/>
       <c r="J238" s="57"/>
       <c r="K238" s="57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L238" s="57"/>
       <c r="M238" s="57"/>
@@ -57151,12 +57327,12 @@
     </row>
     <row r="239" spans="1:21">
       <c r="A239" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I239" s="49"/>
       <c r="J239" s="57"/>
       <c r="K239" s="57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L239" s="57"/>
       <c r="M239" s="57"/>
@@ -57173,7 +57349,7 @@
       <c r="I240" s="49"/>
       <c r="J240" s="57"/>
       <c r="K240" s="57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L240" s="57"/>
       <c r="M240" s="57"/>
@@ -57199,7 +57375,7 @@
     <row r="242" spans="1:25" s="20" customFormat="1">
       <c r="A242" s="46"/>
       <c r="I242" s="91" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J242" s="93"/>
       <c r="K242" s="93"/>
@@ -57222,7 +57398,7 @@
       <c r="A243" s="46"/>
       <c r="I243" s="91"/>
       <c r="J243" s="93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K243" s="93"/>
       <c r="L243" s="93"/>
@@ -57245,7 +57421,7 @@
       <c r="I244" s="91"/>
       <c r="J244" s="93"/>
       <c r="K244" s="93" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L244" s="93"/>
       <c r="M244" s="93"/>
@@ -57267,7 +57443,7 @@
       <c r="I245" s="91"/>
       <c r="J245" s="93"/>
       <c r="K245" s="93" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L245" s="93"/>
       <c r="M245" s="93"/>
@@ -57308,7 +57484,7 @@
       <c r="A247" s="46"/>
       <c r="I247" s="91"/>
       <c r="J247" s="93" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K247" s="93"/>
       <c r="L247" s="93"/>
@@ -57350,7 +57526,7 @@
       <c r="A249" s="46"/>
       <c r="I249" s="91"/>
       <c r="J249" s="93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K249" s="93"/>
       <c r="L249" s="93"/>
@@ -57417,7 +57593,7 @@
       <c r="I252" s="91"/>
       <c r="J252" s="93"/>
       <c r="K252" s="93" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L252" s="93"/>
       <c r="M252" s="93"/>
@@ -57439,7 +57615,7 @@
       <c r="I253" s="91"/>
       <c r="J253" s="93"/>
       <c r="K253" s="93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L253" s="93"/>
       <c r="M253" s="93"/>
@@ -57464,7 +57640,7 @@
       <c r="L254" s="93"/>
       <c r="M254" s="93"/>
       <c r="N254" s="93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O254" s="93"/>
       <c r="P254" s="93"/>
@@ -57506,7 +57682,7 @@
       <c r="L256" s="91"/>
       <c r="M256" s="93"/>
       <c r="N256" s="93" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O256" s="93"/>
       <c r="P256" s="93"/>
@@ -57544,7 +57720,7 @@
       <c r="J258" s="91"/>
       <c r="K258" s="91"/>
       <c r="L258" s="93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M258" s="91"/>
       <c r="N258" s="91"/>
@@ -57581,12 +57757,12 @@
     </row>
     <row r="260" spans="1:25">
       <c r="G260" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="261" spans="1:25">
       <c r="H261" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I261" s="34"/>
       <c r="J261" s="34"/>
@@ -57596,7 +57772,7 @@
     <row r="262" spans="1:25">
       <c r="H262" s="34"/>
       <c r="I262" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J262" s="34"/>
       <c r="K262" s="34"/>
@@ -57606,7 +57782,7 @@
       <c r="H263" s="34"/>
       <c r="I263" s="34"/>
       <c r="K263" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L263" s="34"/>
     </row>
@@ -57620,7 +57796,7 @@
       <c r="H265" s="34"/>
       <c r="I265" s="34"/>
       <c r="K265" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L265" s="34"/>
     </row>
@@ -57628,7 +57804,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
       <c r="K267" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="1:25">
@@ -57638,31 +57814,31 @@
     </row>
     <row r="270" spans="1:25" s="91" customFormat="1">
       <c r="A270" s="91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I270" s="91" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" spans="1:25" s="91" customFormat="1">
       <c r="J271" s="91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="1:25" s="91" customFormat="1">
       <c r="A272" s="91" t="s">
+        <v>552</v>
+      </c>
+      <c r="J272" s="91" t="s">
         <v>553</v>
-      </c>
-      <c r="J272" s="91" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="91" customFormat="1">
       <c r="A273" s="91" t="s">
+        <v>554</v>
+      </c>
+      <c r="J273" s="91" t="s">
         <v>555</v>
-      </c>
-      <c r="J273" s="91" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="274" spans="1:24" s="91" customFormat="1">
@@ -57674,10 +57850,10 @@
     <row r="275" spans="1:24" s="91" customFormat="1">
       <c r="A275" s="94"/>
       <c r="T275" s="92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="U275" s="95" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V275" s="96"/>
       <c r="W275" s="93"/>
@@ -57687,7 +57863,7 @@
       <c r="A276" s="94"/>
       <c r="T276" s="92"/>
       <c r="U276" s="92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V276" s="92"/>
     </row>
@@ -57703,10 +57879,10 @@
       <c r="A278" s="94"/>
       <c r="T278" s="92"/>
       <c r="U278" s="92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V278" s="92" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="279" spans="1:24" s="91" customFormat="1">
@@ -57716,7 +57892,7 @@
         <v>313</v>
       </c>
       <c r="V279" s="91" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:24" s="91" customFormat="1">
@@ -57726,10 +57902,10 @@
     <row r="281" spans="1:24" s="91" customFormat="1">
       <c r="A281" s="94"/>
       <c r="T281" s="92" t="s">
+        <v>503</v>
+      </c>
+      <c r="U281" s="92" t="s">
         <v>504</v>
-      </c>
-      <c r="U281" s="92" t="s">
-        <v>505</v>
       </c>
       <c r="V281" s="92"/>
     </row>
@@ -57737,7 +57913,7 @@
       <c r="A282" s="94"/>
       <c r="T282" s="92"/>
       <c r="U282" s="92" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="283" spans="1:24" s="91" customFormat="1">
@@ -57749,7 +57925,7 @@
         <v>189</v>
       </c>
       <c r="U284" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:24" s="91" customFormat="1">
@@ -57759,7 +57935,7 @@
       <c r="A286" s="94"/>
       <c r="G286" s="93"/>
       <c r="H286" s="93" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I286" s="93"/>
       <c r="J286" s="93"/>
@@ -57775,7 +57951,7 @@
       <c r="G287" s="93"/>
       <c r="H287" s="96"/>
       <c r="I287" s="92" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J287" s="96"/>
       <c r="K287" s="96"/>
@@ -57791,7 +57967,7 @@
       <c r="H288" s="96"/>
       <c r="I288" s="96"/>
       <c r="J288" s="96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K288" s="96"/>
       <c r="L288" s="96"/>
@@ -57818,7 +57994,7 @@
       <c r="G290" s="93"/>
       <c r="H290" s="96"/>
       <c r="I290" s="91" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J290" s="96"/>
       <c r="K290" s="96"/>
@@ -57834,7 +58010,7 @@
       <c r="H291" s="96"/>
       <c r="I291" s="96"/>
       <c r="J291" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K291" s="96"/>
       <c r="L291" s="96"/>
@@ -57872,7 +58048,7 @@
       <c r="A294" s="94"/>
       <c r="H294" s="93"/>
       <c r="I294" s="96" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J294" s="96"/>
       <c r="K294" s="96"/>
@@ -57887,7 +58063,7 @@
       <c r="G295" s="93"/>
       <c r="H295" s="96"/>
       <c r="I295" s="96" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J295" s="96"/>
       <c r="K295" s="96"/>
@@ -57915,7 +58091,7 @@
       <c r="A297" s="94"/>
       <c r="G297" s="93"/>
       <c r="H297" s="96" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I297" s="96"/>
       <c r="J297" s="96"/>
@@ -57931,7 +58107,7 @@
       <c r="G298" s="93"/>
       <c r="H298" s="93"/>
       <c r="I298" s="91" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P298" s="93"/>
     </row>
@@ -57940,7 +58116,7 @@
       <c r="G299" s="93"/>
       <c r="H299" s="93"/>
       <c r="I299" s="93" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J299" s="93"/>
       <c r="K299" s="93"/>
@@ -57956,7 +58132,7 @@
       <c r="H300" s="93"/>
       <c r="I300" s="93"/>
       <c r="J300" s="93" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K300" s="93"/>
       <c r="L300" s="93"/>
@@ -57968,7 +58144,7 @@
       <c r="A301" s="94"/>
       <c r="G301" s="93"/>
       <c r="H301" s="91" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L301" s="93"/>
       <c r="M301" s="93"/>
@@ -57977,10 +58153,10 @@
     <row r="302" spans="1:21" s="91" customFormat="1">
       <c r="A302" s="94"/>
       <c r="Q302" s="92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R302" s="91" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S302" s="96"/>
       <c r="T302" s="93"/>
@@ -57990,7 +58166,7 @@
       <c r="A303" s="94"/>
       <c r="Q303" s="92"/>
       <c r="R303" s="92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S303" s="92"/>
     </row>
@@ -58006,10 +58182,10 @@
       <c r="A305" s="94"/>
       <c r="Q305" s="92"/>
       <c r="R305" s="92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S305" s="91" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="306" spans="1:21" s="91" customFormat="1">
@@ -58019,10 +58195,10 @@
     <row r="307" spans="1:21" s="91" customFormat="1">
       <c r="A307" s="94"/>
       <c r="Q307" s="92" t="s">
+        <v>503</v>
+      </c>
+      <c r="R307" s="92" t="s">
         <v>504</v>
-      </c>
-      <c r="R307" s="92" t="s">
-        <v>505</v>
       </c>
       <c r="S307" s="92"/>
     </row>
@@ -58030,7 +58206,7 @@
       <c r="A308" s="94"/>
       <c r="Q308" s="92"/>
       <c r="R308" s="92" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S308" s="92"/>
     </row>
@@ -58043,7 +58219,7 @@
         <v>189</v>
       </c>
       <c r="R310" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="311" spans="1:21" s="91" customFormat="1">
@@ -58052,7 +58228,7 @@
     <row r="312" spans="1:21" s="91" customFormat="1">
       <c r="A312" s="94"/>
       <c r="H312" s="96" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="313" spans="1:21" s="91" customFormat="1">
@@ -58061,7 +58237,7 @@
     <row r="314" spans="1:21" s="91" customFormat="1">
       <c r="A314" s="94"/>
       <c r="H314" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="315" spans="1:21" s="91" customFormat="1">
@@ -58070,10 +58246,10 @@
     <row r="316" spans="1:21" s="91" customFormat="1">
       <c r="A316" s="94"/>
       <c r="Q316" s="92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R316" s="91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S316" s="96"/>
       <c r="T316" s="93"/>
@@ -58083,7 +58259,7 @@
       <c r="A317" s="94"/>
       <c r="Q317" s="92"/>
       <c r="R317" s="92" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S317" s="92"/>
     </row>
@@ -58099,10 +58275,10 @@
       <c r="A319" s="94"/>
       <c r="Q319" s="92"/>
       <c r="R319" s="92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S319" s="91" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="320" spans="1:21" s="91" customFormat="1">
@@ -58112,10 +58288,10 @@
     <row r="321" spans="1:19" s="91" customFormat="1">
       <c r="A321" s="94"/>
       <c r="Q321" s="92" t="s">
+        <v>503</v>
+      </c>
+      <c r="R321" s="92" t="s">
         <v>504</v>
-      </c>
-      <c r="R321" s="92" t="s">
-        <v>505</v>
       </c>
       <c r="S321" s="92"/>
     </row>
@@ -58123,7 +58299,7 @@
       <c r="A322" s="94"/>
       <c r="Q322" s="92"/>
       <c r="R322" s="92" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S322" s="92"/>
     </row>
@@ -58136,7 +58312,7 @@
         <v>189</v>
       </c>
       <c r="R324" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="325" spans="1:19" s="91" customFormat="1">
@@ -58170,7 +58346,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -58195,7 +58371,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -58308,7 +58484,7 @@
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -58333,7 +58509,7 @@
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -58358,7 +58534,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -58382,7 +58558,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="115" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F10" s="115"/>
       <c r="G10" s="34"/>
@@ -58407,7 +58583,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="115"/>
       <c r="F11" s="116" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -58430,7 +58606,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="115" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F12" s="116"/>
       <c r="G12" s="34"/>
@@ -58455,7 +58631,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -58499,7 +58675,7 @@
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -58524,12 +58700,12 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
@@ -58550,7 +58726,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -58573,7 +58749,7 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -58598,7 +58774,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -58622,7 +58798,7 @@
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -58646,52 +58822,52 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="G21" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="H21" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="I21" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="J21" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="K21" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="L21" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="M21" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="N21" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="O21" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="P21" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="P21" s="34" t="s">
+      <c r="Q21" s="34" t="s">
         <v>595</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="R21" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="R21" s="34" t="s">
+      <c r="S21" s="34" t="s">
         <v>597</v>
       </c>
-      <c r="S21" s="34" t="s">
+      <c r="T21" s="34" t="s">
         <v>598</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -58750,12 +58926,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="D23" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="E24" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -58780,27 +58956,27 @@
     </row>
     <row r="29" spans="1:20">
       <c r="E29" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="E35" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="E40" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -58829,19 +59005,19 @@
     <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="A1" s="1"/>
       <c r="C1" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -58850,10 +59026,10 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1">
       <c r="A4" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -58863,7 +59039,7 @@
     <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="10"/>
       <c r="E5" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -58873,7 +59049,7 @@
     <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="10"/>
       <c r="E6" s="21" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -58882,10 +59058,10 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -58895,10 +59071,10 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -58907,31 +59083,31 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -58940,7 +59116,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -58949,7 +59125,7 @@
     <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -58960,19 +59136,19 @@
     <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -58984,25 +59160,25 @@
     <row r="16" spans="1:10">
       <c r="C16" s="3"/>
       <c r="G16" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="C17" s="3"/>
       <c r="F17" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -59015,12 +59191,12 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -59064,7 +59240,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="6"/>
@@ -59096,7 +59272,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -59206,7 +59382,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -59236,7 +59412,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -59254,7 +59430,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -59271,7 +59447,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="39" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -59288,7 +59464,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="39" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -59305,7 +59481,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -59348,7 +59524,7 @@
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="42" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="39"/>
@@ -59367,7 +59543,7 @@
       <c r="I38" s="40"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="39"/>
@@ -59380,7 +59556,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="40"/>
       <c r="G39" s="40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
@@ -59492,7 +59668,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
@@ -59521,55 +59697,55 @@
     <row r="47" spans="2:15">
       <c r="C47" s="3"/>
       <c r="E47" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C48" s="3"/>
       <c r="F48" s="41" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="B49" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C49" s="3"/>
       <c r="F49" s="41" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="B50" s="8" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>648</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>651</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:24">
       <c r="B52" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C52" s="3"/>
       <c r="F52" s="105" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G52" s="104"/>
       <c r="H52" s="104"/>
@@ -59581,16 +59757,16 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -59689,7 +59865,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="102"/>
       <c r="H64" s="104" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I64" s="104"/>
       <c r="J64" s="104"/>
@@ -59714,7 +59890,7 @@
       <c r="G65" s="102"/>
       <c r="H65" s="104"/>
       <c r="I65" s="105" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J65" s="104"/>
       <c r="K65" s="103"/>
@@ -59737,7 +59913,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="102"/>
       <c r="H66" s="104" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I66" s="104"/>
       <c r="J66" s="104"/>
@@ -59762,7 +59938,7 @@
       <c r="G67" s="102"/>
       <c r="H67" s="104"/>
       <c r="I67" s="104" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J67" s="104"/>
       <c r="K67" s="104"/>
@@ -59786,7 +59962,7 @@
       <c r="H68" s="105"/>
       <c r="I68" s="103"/>
       <c r="J68" s="105" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="89"/>
@@ -59808,7 +59984,7 @@
       <c r="G69" s="102"/>
       <c r="H69" s="105"/>
       <c r="I69" s="102" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J69" s="104"/>
       <c r="K69" s="103"/>
@@ -59833,7 +60009,7 @@
       <c r="H70" s="105"/>
       <c r="I70" s="102"/>
       <c r="J70" s="105" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="89"/>
@@ -59857,7 +60033,7 @@
       <c r="H71" s="105"/>
       <c r="I71" s="103"/>
       <c r="J71" s="105" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K71" s="105"/>
       <c r="L71" s="103"/>
@@ -60018,7 +60194,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -60031,7 +60207,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="W77" s="9"/>
       <c r="X77" s="6"/>
@@ -60270,7 +60446,7 @@
     <row r="87" spans="2:24">
       <c r="C87" s="3"/>
       <c r="H87" s="32" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="88" spans="2:24">
@@ -60278,16 +60454,16 @@
     </row>
     <row r="89" spans="2:24">
       <c r="B89" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="2:24">
       <c r="B90" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C90" s="3"/>
     </row>
@@ -60392,7 +60568,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="9"/>
       <c r="I100" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J100" s="43"/>
       <c r="K100" s="6"/>
@@ -60414,7 +60590,7 @@
     </row>
     <row r="101" spans="2:26">
       <c r="B101" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C101" s="3"/>
       <c r="G101" s="6"/>
@@ -60822,7 +60998,7 @@
     <row r="115" spans="2:26">
       <c r="C115" s="3"/>
       <c r="F115" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G115" s="6"/>
       <c r="I115" s="6"/>
@@ -60893,23 +61069,23 @@
     <row r="118" spans="2:26">
       <c r="C118" s="3"/>
       <c r="F118" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="2:26">
       <c r="C119" s="3"/>
       <c r="F119" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="125" spans="2:26">
       <c r="B125" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="2:26">
       <c r="B126" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="144" spans="7:7">
@@ -60919,58 +61095,58 @@
     </row>
     <row r="145" spans="2:10">
       <c r="H145" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="146" spans="2:10">
       <c r="G146" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="147" spans="2:10">
       <c r="H147" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="148" spans="2:10">
       <c r="H148" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="149" spans="2:10">
       <c r="I149" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="150" spans="2:10">
       <c r="H150" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="151" spans="2:10">
       <c r="I151" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="152" spans="2:10">
       <c r="I152" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="155" spans="2:10">
@@ -60980,81 +61156,81 @@
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="B161" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="B162" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="J162" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="B163" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="J163" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="K164" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="K165" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="J166" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="K167" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="K168" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="J169" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="K170" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="K171" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="J172" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="K173" s="6" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -61062,25 +61238,25 @@
         <v>54</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="K175" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="B176" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="K176" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="177" spans="2:17">
       <c r="B177" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -61099,7 +61275,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
       <c r="I178" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J178" s="32"/>
       <c r="K178" s="32"/>
@@ -61117,7 +61293,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="32"/>
       <c r="J179" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K179" s="32"/>
       <c r="L179" s="32"/>
@@ -61134,7 +61310,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="32"/>
       <c r="J180" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K180" s="32"/>
       <c r="L180" s="32"/>
@@ -61223,7 +61399,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="32"/>
       <c r="J186" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K186" s="32"/>
       <c r="L186" s="32"/>
@@ -61256,7 +61432,7 @@
       <c r="I188" s="32"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L188" s="32"/>
       <c r="M188" s="32"/>
@@ -61271,7 +61447,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="32"/>
       <c r="J189" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K189" s="32"/>
       <c r="L189" s="32"/>
@@ -61288,7 +61464,7 @@
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L190" s="32"/>
       <c r="M190" s="32"/>
@@ -61304,7 +61480,7 @@
       <c r="I191" s="32"/>
       <c r="J191" s="32"/>
       <c r="K191" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L191" s="32"/>
       <c r="M191" s="32"/>
@@ -61320,7 +61496,7 @@
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L192" s="32"/>
       <c r="M192" s="32"/>
@@ -61336,7 +61512,7 @@
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
       <c r="K193" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L193" s="32"/>
       <c r="M193" s="32"/>
@@ -61386,7 +61562,7 @@
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
       <c r="M196" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N196" s="9"/>
       <c r="O196" s="6"/>
@@ -61504,7 +61680,7 @@
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -61528,7 +61704,7 @@
     <row r="206" spans="6:17">
       <c r="F206" s="6"/>
       <c r="G206" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
@@ -61543,7 +61719,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -61555,22 +61731,22 @@
     </row>
     <row r="208" spans="6:17">
       <c r="H208" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -61612,37 +61788,37 @@
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="S2" s="35" t="s">
         <v>715</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>716</v>
       </c>
       <c r="T2" s="35"/>
     </row>
     <row r="3" spans="1:30">
       <c r="C3" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>52</v>
@@ -61654,33 +61830,33 @@
         <v>235</v>
       </c>
       <c r="L3" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="34" t="s">
         <v>728</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>729</v>
       </c>
       <c r="T3" s="34"/>
       <c r="U3" s="35"/>
       <c r="Y3" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z3" s="37"/>
       <c r="AA3" s="37"/>
@@ -61690,102 +61866,102 @@
     </row>
     <row r="4" spans="1:30" ht="33">
       <c r="A4" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="O4" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="P4" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="36" t="s">
         <v>747</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="T4" s="36" t="s">
         <v>748</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="U4" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="V4" s="36" t="s">
         <v>750</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="W4" s="36" t="s">
         <v>751</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="X4" s="36" t="s">
         <v>752</v>
       </c>
-      <c r="X4" s="36" t="s">
-        <v>753</v>
-      </c>
       <c r="Y4" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="Z4" s="38" t="s">
         <v>748</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="AA4" s="38" t="s">
         <v>749</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AB4" s="38" t="s">
         <v>750</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AC4" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AD4" s="38" t="s">
         <v>752</v>
-      </c>
-      <c r="AD4" s="38" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -61803,10 +61979,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>757</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>758</v>
       </c>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
@@ -61820,7 +61996,7 @@
     <row r="6" spans="1:30">
       <c r="A6" s="10"/>
       <c r="H6" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
@@ -61831,10 +62007,10 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>54</v>
@@ -61847,10 +62023,10 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>762</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -61860,20 +62036,20 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>763</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="I10" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="B12" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -61882,13 +62058,13 @@
     <row r="13" spans="1:30">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -61897,7 +62073,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -61909,7 +62085,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E15" s="6">
         <v>10</v>
@@ -61921,7 +62097,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E16" s="6">
         <v>20</v>
@@ -61929,7 +62105,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -61937,10 +62113,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="C18" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -62105,15 +62281,15 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -62299,7 +62475,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -62336,7 +62512,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -62346,48 +62522,48 @@
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>781</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>785</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>788</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>789</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>790</v>
       </c>
       <c r="E3" s="29">
         <v>1</v>

--- a/gd/副本系统/副本入口设计.xlsx
+++ b/gd/副本系统/副本入口设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8370" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="最少可显示40个汉字_英文字母数量待定">副本信息!$G$94</definedName>
     <definedName name="最少可显示6个汉字_英文字母待定">副本信息!$E$62</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1051">
   <si>
     <t>文档名称</t>
   </si>
@@ -2525,9 +2525,6 @@
   </si>
   <si>
     <t>文字内容</t>
-  </si>
-  <si>
-    <t>系统频道</t>
   </si>
   <si>
     <t>走马灯</t>
@@ -3542,6 +3539,18 @@
   </si>
   <si>
     <t>添加宠物技能介绍添加被动技能</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应英文</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界频道</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会频道</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -3870,7 +3879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3932,6 +3941,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3959,7 +3979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4211,6 +4231,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -39527,7 +39550,7 @@
         <v>42</v>
       </c>
       <c r="H32" s="78" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I32" s="83"/>
       <c r="J32" s="83"/>
@@ -39544,7 +39567,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="78" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I33" s="83"/>
       <c r="J33" s="83"/>
@@ -39559,7 +39582,7 @@
       <c r="F34" s="75"/>
       <c r="G34" s="74"/>
       <c r="H34" s="78" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="74"/>
@@ -39574,7 +39597,7 @@
       <c r="F35" s="75"/>
       <c r="G35" s="74"/>
       <c r="H35" s="78" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I35" s="74"/>
       <c r="J35" s="74"/>
@@ -39589,7 +39612,7 @@
       <c r="F36" s="75"/>
       <c r="G36" s="74"/>
       <c r="H36" s="78" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I36" s="74"/>
       <c r="J36" s="74"/>
@@ -39604,7 +39627,7 @@
       <c r="F37" s="75"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I37" s="74"/>
       <c r="J37" s="74"/>
@@ -39621,7 +39644,7 @@
       <c r="F38" s="75"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I38" s="74"/>
       <c r="J38" s="74"/>
@@ -39636,7 +39659,7 @@
       <c r="F39" s="75"/>
       <c r="G39" s="74"/>
       <c r="H39" s="78" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I39" s="74"/>
       <c r="J39" s="74"/>
@@ -39651,7 +39674,7 @@
       <c r="F40" s="75"/>
       <c r="G40" s="74"/>
       <c r="H40" s="78" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I40" s="74"/>
       <c r="J40" s="74"/>
@@ -39666,7 +39689,7 @@
       <c r="F41" s="75"/>
       <c r="G41" s="74"/>
       <c r="H41" s="78" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
@@ -39685,7 +39708,7 @@
         <v>42</v>
       </c>
       <c r="H42" s="78" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I42" s="74"/>
       <c r="K42" s="81"/>
@@ -39824,27 +39847,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="C28" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -39852,92 +39875,92 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="C66" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="C79" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="C138" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="19" customFormat="1">
       <c r="A154" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="19" customFormat="1">
       <c r="B155" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="19" customFormat="1">
       <c r="C156" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="19" customFormat="1"/>
@@ -39965,12 +39988,12 @@
     <row r="179" spans="2:3" s="19" customFormat="1"/>
     <row r="180" spans="2:3" s="19" customFormat="1">
       <c r="B180" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="181" spans="2:3" s="19" customFormat="1">
       <c r="C181" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="182" spans="2:3" s="19" customFormat="1"/>
@@ -39994,12 +40017,12 @@
     <row r="200" spans="2:3" s="19" customFormat="1"/>
     <row r="201" spans="2:3" s="19" customFormat="1">
       <c r="B201" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="202" spans="2:3" s="19" customFormat="1">
       <c r="C202" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="203" spans="2:3" s="19" customFormat="1"/>
@@ -40018,12 +40041,12 @@
     <row r="216" spans="2:3" s="19" customFormat="1"/>
     <row r="217" spans="2:3" s="19" customFormat="1">
       <c r="B217" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="218" spans="2:3" s="19" customFormat="1">
       <c r="C218" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="219" spans="2:3" s="19" customFormat="1"/>
@@ -40036,7 +40059,7 @@
     <row r="226" spans="1:3" s="19" customFormat="1"/>
     <row r="227" spans="1:3" s="19" customFormat="1">
       <c r="B227" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="228" spans="1:3" s="19" customFormat="1"/>
@@ -40050,12 +40073,12 @@
     </row>
     <row r="233" spans="1:3" s="20" customFormat="1">
       <c r="B233" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="234" spans="1:3" s="20" customFormat="1">
       <c r="C234" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="235" spans="1:3" s="20" customFormat="1"/>
@@ -40083,12 +40106,12 @@
     <row r="257" spans="2:3" s="20" customFormat="1"/>
     <row r="258" spans="2:3" s="20" customFormat="1">
       <c r="B258" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="259" spans="2:3" s="20" customFormat="1">
       <c r="C259" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="260" spans="2:3" s="20" customFormat="1"/>
@@ -40105,12 +40128,12 @@
     <row r="271" spans="2:3" s="20" customFormat="1"/>
     <row r="272" spans="2:3" s="20" customFormat="1">
       <c r="B272" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="273" spans="2:3" s="20" customFormat="1">
       <c r="C273" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="274" spans="2:3" s="20" customFormat="1"/>
@@ -40123,7 +40146,7 @@
     <row r="281" spans="2:3" s="20" customFormat="1"/>
     <row r="282" spans="2:3" s="20" customFormat="1">
       <c r="B282" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="283" spans="2:3" s="20" customFormat="1"/>
@@ -40135,7 +40158,7 @@
     <row r="289" spans="2:7" s="20" customFormat="1"/>
     <row r="290" spans="2:7" s="20" customFormat="1">
       <c r="B290" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -40145,7 +40168,7 @@
     </row>
     <row r="291" spans="2:7" s="91" customFormat="1">
       <c r="C291" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="292" spans="2:7" s="91" customFormat="1"/>
@@ -40187,12 +40210,12 @@
     <row r="328" spans="2:3" s="91" customFormat="1"/>
     <row r="329" spans="2:3" s="20" customFormat="1">
       <c r="B329" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="330" spans="2:3" s="20" customFormat="1">
       <c r="C330" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="331" spans="2:3" s="20" customFormat="1"/>
@@ -40207,37 +40230,37 @@
     <row r="340" spans="1:3" s="20" customFormat="1"/>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="B342" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="C343" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="368" spans="2:2">
       <c r="B368" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="369" spans="3:3">
       <c r="C369" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="391" spans="2:3" s="91" customFormat="1">
       <c r="B391" s="91" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="392" spans="2:3" s="91" customFormat="1">
       <c r="C392" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="393" spans="2:3" s="91" customFormat="1"/>
@@ -40252,12 +40275,12 @@
     <row r="402" spans="2:3" s="91" customFormat="1"/>
     <row r="403" spans="2:3" s="91" customFormat="1">
       <c r="B403" s="91" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="404" spans="2:3" s="91" customFormat="1">
       <c r="C404" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="405" spans="2:3" s="91" customFormat="1"/>
@@ -40271,12 +40294,12 @@
     <row r="413" spans="2:3" s="91" customFormat="1"/>
     <row r="414" spans="2:3" s="91" customFormat="1">
       <c r="B414" s="91" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="415" spans="2:3" s="91" customFormat="1">
       <c r="C415" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="416" spans="2:3" s="91" customFormat="1"/>
@@ -40291,12 +40314,12 @@
     <row r="425" spans="2:3" s="91" customFormat="1"/>
     <row r="426" spans="2:3" s="91" customFormat="1">
       <c r="B426" s="91" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="427" spans="2:3" s="91" customFormat="1">
       <c r="C427" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="428" spans="2:3" s="91" customFormat="1"/>
@@ -40310,12 +40333,12 @@
     <row r="436" spans="2:3" s="91" customFormat="1"/>
     <row r="437" spans="2:3" s="91" customFormat="1">
       <c r="B437" s="91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="438" spans="2:3" s="91" customFormat="1">
       <c r="C438" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="439" spans="2:3" s="91" customFormat="1"/>
@@ -40328,12 +40351,12 @@
     <row r="446" spans="2:3" s="91" customFormat="1"/>
     <row r="447" spans="2:3" s="91" customFormat="1">
       <c r="B447" s="91" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="448" spans="2:3" s="91" customFormat="1">
       <c r="C448" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="449" spans="2:3" s="91" customFormat="1"/>
@@ -40348,12 +40371,12 @@
     <row r="458" spans="2:3" s="91" customFormat="1"/>
     <row r="459" spans="2:3" s="91" customFormat="1">
       <c r="B459" s="91" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="460" spans="2:3" s="91" customFormat="1">
       <c r="C460" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="461" spans="2:3" s="91" customFormat="1"/>
@@ -40388,10 +40411,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" s="106" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>944</v>
-      </c>
-      <c r="B1" s="107" t="s">
-        <v>945</v>
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="107"/>
@@ -40399,13 +40422,13 @@
       <c r="F1" s="107"/>
       <c r="G1" s="107"/>
       <c r="K1" s="110" t="s">
+        <v>977</v>
+      </c>
+      <c r="L1" s="110" t="s">
+        <v>976</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>978</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>977</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
@@ -40414,7 +40437,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D2" s="107">
         <v>1</v>
@@ -40423,7 +40446,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G2" s="107"/>
       <c r="K2" s="111"/>
@@ -40440,7 +40463,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D3" s="107">
         <v>3</v>
@@ -40449,10 +40472,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K3" s="111"/>
       <c r="L3" s="111">
@@ -40468,7 +40491,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D4" s="107">
         <v>3</v>
@@ -40477,10 +40500,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G4" s="107" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K4" s="111"/>
       <c r="L4" s="111">
@@ -40496,7 +40519,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D5" s="107">
         <v>0.5</v>
@@ -40505,14 +40528,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K5" s="111"/>
       <c r="L5" s="111" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M5" s="111">
         <v>0.5</v>
@@ -40524,7 +40547,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D6" s="107">
         <v>0.5</v>
@@ -40533,10 +40556,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K6" s="111"/>
       <c r="L6" s="111"/>
@@ -40548,7 +40571,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D7" s="107">
         <v>1</v>
@@ -40557,17 +40580,17 @@
         <v>1</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18">
       <c r="A8" s="106"/>
       <c r="B8" s="107"/>
       <c r="C8" s="108" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D8" s="106">
         <f>SUM(D2:D7)</f>
@@ -40589,7 +40612,7 @@
     <row r="10" spans="1:13" ht="18">
       <c r="A10" s="106"/>
       <c r="B10" s="107" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C10" s="107"/>
       <c r="D10" s="107"/>
@@ -40603,7 +40626,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D11" s="107">
         <v>2</v>
@@ -40612,10 +40635,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="107" t="s">
+        <v>960</v>
+      </c>
+      <c r="G11" s="107" t="s">
         <v>961</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
@@ -40624,7 +40647,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D12" s="107">
         <v>2</v>
@@ -40633,10 +40656,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18">
@@ -40645,7 +40668,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D13" s="107">
         <v>0.5</v>
@@ -40654,10 +40677,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18">
@@ -40666,7 +40689,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D14" s="109">
         <v>1.5</v>
@@ -40675,10 +40698,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18">
@@ -40687,7 +40710,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D15" s="109">
         <v>1.5</v>
@@ -40696,10 +40719,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18">
@@ -40708,17 +40731,17 @@
         <v>6</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D16" s="109"/>
       <c r="E16" s="109">
         <v>2</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
@@ -40727,17 +40750,17 @@
         <v>7</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="109">
         <v>2</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18">
@@ -40746,24 +40769,24 @@
         <v>8</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D18" s="109"/>
       <c r="E18" s="109">
         <v>2</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
       <c r="A19" s="106"/>
       <c r="B19" s="107"/>
       <c r="C19" s="108" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D19" s="106">
         <f>SUM(D11:D18)</f>
@@ -40775,7 +40798,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="B21" s="107" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
@@ -40787,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D22" s="107">
         <v>3</v>
@@ -40796,7 +40819,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25">
@@ -40804,7 +40827,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D23" s="107">
         <v>0.5</v>
@@ -40813,7 +40836,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25">
@@ -40821,7 +40844,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D24" s="107">
         <v>0.5</v>
@@ -40830,7 +40853,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25">
@@ -40838,7 +40861,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D25" s="107">
         <v>1</v>
@@ -40847,7 +40870,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25">
@@ -40855,7 +40878,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="107">
         <v>1</v>
@@ -40864,7 +40887,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25">
@@ -40872,7 +40895,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D27" s="107">
         <v>1</v>
@@ -40881,7 +40904,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25">
@@ -40889,7 +40912,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D28" s="107">
         <v>0.5</v>
@@ -40898,7 +40921,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25">
@@ -40906,7 +40929,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D29" s="107">
         <v>0.5</v>
@@ -40915,7 +40938,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25">
@@ -40923,7 +40946,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D30" s="107">
         <v>1</v>
@@ -40932,7 +40955,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25">
@@ -40940,7 +40963,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D31" s="107">
         <v>0.5</v>
@@ -40949,7 +40972,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25">
@@ -40957,7 +40980,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D32" s="107">
         <v>2</v>
@@ -40966,7 +40989,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25">
@@ -40974,7 +40997,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D33" s="107">
         <v>0.5</v>
@@ -40983,7 +41006,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="17.25">
@@ -40991,7 +41014,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D34" s="107">
         <v>1</v>
@@ -41000,7 +41023,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="17.25">
@@ -41008,7 +41031,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D35" s="109">
         <v>3</v>
@@ -41017,13 +41040,13 @@
         <v>2</v>
       </c>
       <c r="F35" s="107" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18">
       <c r="B36" s="107"/>
       <c r="C36" s="108" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D36" s="106">
         <f>SUM(D22:D35)</f>
@@ -41053,132 +41076,132 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="114" customFormat="1"/>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="114" customFormat="1"/>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -41225,7 +41248,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="21">
       <c r="C1" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -41285,7 +41308,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -41385,7 +41408,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -41439,7 +41462,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -41565,7 +41588,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -41579,14 +41602,14 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -41600,14 +41623,14 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -41625,7 +41648,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -41643,7 +41666,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -41657,14 +41680,14 @@
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -41678,7 +41701,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -41701,7 +41724,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -41747,7 +41770,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="6"/>
@@ -41781,7 +41804,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -41855,7 +41878,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -41876,7 +41899,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -41903,7 +41926,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -41934,7 +41957,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -41953,7 +41976,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -41967,14 +41990,14 @@
     </row>
     <row r="61" spans="1:16" ht="33">
       <c r="A61" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -41988,17 +42011,17 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>867</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>868</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -42012,7 +42035,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="B63" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -42020,7 +42043,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -42033,7 +42056,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="B64" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -42042,7 +42065,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -42054,7 +42077,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="B65" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -42062,7 +42085,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -42080,7 +42103,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -42096,7 +42119,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -42109,7 +42132,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="B68" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -42118,7 +42141,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -42129,7 +42152,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="B69" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -42137,7 +42160,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -42149,7 +42172,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="B70" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -42157,7 +42180,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -42168,17 +42191,17 @@
     </row>
     <row r="71" spans="1:18" ht="33">
       <c r="A71" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>883</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>884</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -42190,7 +42213,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -42198,7 +42221,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -42209,7 +42232,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -42228,10 +42251,10 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>889</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>890</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -42251,7 +42274,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -42303,7 +42326,7 @@
     </row>
     <row r="78" spans="1:18" ht="33">
       <c r="B78" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -42324,10 +42347,10 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>893</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>894</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -42350,10 +42373,10 @@
         <v>332</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>895</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>896</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
@@ -42373,7 +42396,7 @@
     <row r="81" spans="1:15">
       <c r="A81" s="5"/>
       <c r="B81" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>332</v>
@@ -42448,7 +42471,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -42458,7 +42481,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -42468,41 +42491,41 @@
     </row>
     <row r="88" spans="1:15" ht="66">
       <c r="B88" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>900</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>901</v>
       </c>
       <c r="D88" s="3"/>
       <c r="H88" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="B90" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="H90" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="H91" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -42519,14 +42542,14 @@
     </row>
     <row r="95" spans="1:15">
       <c r="B95" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:15">
       <c r="B96" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -42636,7 +42659,7 @@
     </row>
     <row r="110" spans="2:25">
       <c r="B110" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="7"/>
@@ -42666,7 +42689,7 @@
     </row>
     <row r="111" spans="2:25">
       <c r="B111" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="7"/>
@@ -43091,7 +43114,7 @@
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
       <c r="T124" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
@@ -43309,7 +43332,7 @@
         <v>174</v>
       </c>
       <c r="M132" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -43339,7 +43362,7 @@
         <v>176</v>
       </c>
       <c r="M133" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
@@ -43458,7 +43481,7 @@
     </row>
     <row r="138" spans="2:25">
       <c r="B138" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
@@ -46304,7 +46327,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="115" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -47174,7 +47197,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="7"/>
       <c r="G94" s="115" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
@@ -48230,7 +48253,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="39" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
@@ -48260,7 +48283,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="89" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F133" s="89"/>
       <c r="G133" s="89"/>
@@ -48289,7 +48312,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="89"/>
       <c r="F134" s="89" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G134" s="89"/>
       <c r="H134" s="89"/>
@@ -54047,7 +54070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
@@ -54181,7 +54204,7 @@
     <row r="43" spans="7:19">
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -54267,7 +54290,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="21" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -54289,7 +54312,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -55076,7 +55099,7 @@
         <v>408</v>
       </c>
       <c r="K102" s="117" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L102" s="117"/>
       <c r="M102" s="117"/>
@@ -55088,16 +55111,16 @@
     <row r="103" spans="1:23">
       <c r="A103" s="15"/>
       <c r="K103" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="15"/>
       <c r="K104" s="112" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L104" s="112" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -55106,16 +55129,16 @@
         <v>0</v>
       </c>
       <c r="L105" s="112" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="15"/>
       <c r="K106" s="113" t="s">
+        <v>981</v>
+      </c>
+      <c r="L106" s="112" t="s">
         <v>982</v>
-      </c>
-      <c r="L106" s="112" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -55124,25 +55147,25 @@
         <v>4</v>
       </c>
       <c r="L107" s="112" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="15"/>
       <c r="K108" s="113" t="s">
+        <v>984</v>
+      </c>
+      <c r="L108" s="112" t="s">
         <v>985</v>
-      </c>
-      <c r="L108" s="112" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="15"/>
       <c r="K109" s="113" t="s">
+        <v>986</v>
+      </c>
+      <c r="L109" s="112" t="s">
         <v>987</v>
-      </c>
-      <c r="L109" s="112" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="33">
@@ -55167,7 +55190,7 @@
         <v>412</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L112" s="4"/>
     </row>
@@ -55176,7 +55199,7 @@
         <v>413</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="S113" s="20"/>
     </row>
@@ -56063,7 +56086,7 @@
     <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="I166" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -56075,7 +56098,7 @@
     <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="I167" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -57421,7 +57444,7 @@
       <c r="I244" s="91"/>
       <c r="J244" s="93"/>
       <c r="K244" s="93" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L244" s="93"/>
       <c r="M244" s="93"/>
@@ -58048,7 +58071,7 @@
       <c r="A294" s="94"/>
       <c r="H294" s="93"/>
       <c r="I294" s="96" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J294" s="96"/>
       <c r="K294" s="96"/>
@@ -58063,7 +58086,7 @@
       <c r="G295" s="93"/>
       <c r="H295" s="96"/>
       <c r="I295" s="96" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J295" s="96"/>
       <c r="K295" s="96"/>
@@ -58558,7 +58581,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="115" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F10" s="115"/>
       <c r="G10" s="34"/>
@@ -58606,7 +58629,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="115" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F12" s="116"/>
       <c r="G12" s="34"/>
@@ -58631,7 +58654,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -59049,7 +59072,7 @@
     <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="10"/>
       <c r="E6" s="21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -59447,7 +59470,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -59464,7 +59487,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="39" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
@@ -59524,7 +59547,7 @@
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="39"/>
@@ -59543,7 +59566,7 @@
       <c r="I38" s="40"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="39"/>
@@ -59720,7 +59743,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="B50" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5" t="s">
@@ -59745,7 +59768,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="F52" s="105" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G52" s="104"/>
       <c r="H52" s="104"/>
@@ -59865,7 +59888,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="102"/>
       <c r="H64" s="104" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I64" s="104"/>
       <c r="J64" s="104"/>
@@ -59890,7 +59913,7 @@
       <c r="G65" s="102"/>
       <c r="H65" s="104"/>
       <c r="I65" s="105" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J65" s="104"/>
       <c r="K65" s="103"/>
@@ -59913,7 +59936,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="102"/>
       <c r="H66" s="104" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I66" s="104"/>
       <c r="J66" s="104"/>
@@ -59938,7 +59961,7 @@
       <c r="G67" s="102"/>
       <c r="H67" s="104"/>
       <c r="I67" s="104" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J67" s="104"/>
       <c r="K67" s="104"/>
@@ -59962,7 +59985,7 @@
       <c r="H68" s="105"/>
       <c r="I68" s="103"/>
       <c r="J68" s="105" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K68" s="103"/>
       <c r="L68" s="89"/>
@@ -59984,7 +60007,7 @@
       <c r="G69" s="102"/>
       <c r="H69" s="105"/>
       <c r="I69" s="102" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J69" s="104"/>
       <c r="K69" s="103"/>
@@ -60009,7 +60032,7 @@
       <c r="H70" s="105"/>
       <c r="I70" s="102"/>
       <c r="J70" s="105" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K70" s="103"/>
       <c r="L70" s="89"/>
@@ -60033,7 +60056,7 @@
       <c r="H71" s="105"/>
       <c r="I71" s="103"/>
       <c r="J71" s="105" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K71" s="105"/>
       <c r="L71" s="103"/>
@@ -60446,7 +60469,7 @@
     <row r="87" spans="2:24">
       <c r="C87" s="3"/>
       <c r="H87" s="32" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="88" spans="2:24">
@@ -60998,7 +61021,7 @@
     <row r="115" spans="2:26">
       <c r="C115" s="3"/>
       <c r="F115" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G115" s="6"/>
       <c r="I115" s="6"/>
@@ -62487,10 +62510,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -62498,29 +62521,31 @@
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="4" max="5" width="41.75" customWidth="1"/>
+    <col min="6" max="7" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="25" t="s">
         <v>776</v>
       </c>
@@ -62533,266 +62558,310 @@
       <c r="D2" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="119" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>781</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="L2" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="J2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="16.5">
+      <c r="A3" s="28" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="28" t="s">
+      <c r="B3" s="28" t="s">
         <v>786</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>788</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>789</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29">
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="29">
         <v>1</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
       <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5">
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5">
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -62803,8 +62872,10 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5">
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -62815,6 +62886,8 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
